--- a/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>ZNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,170 +665,183 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43646</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42369</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42185</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10465300</v>
+        <v>11390400</v>
       </c>
       <c r="E8" s="3">
-        <v>10919300</v>
+        <v>10208500</v>
       </c>
       <c r="F8" s="3">
-        <v>9687800</v>
+        <v>10651400</v>
       </c>
       <c r="G8" s="3">
-        <v>9658800</v>
+        <v>9450100</v>
       </c>
       <c r="H8" s="3">
-        <v>8678800</v>
+        <v>9421800</v>
       </c>
       <c r="I8" s="3">
-        <v>8732500</v>
+        <v>8465900</v>
       </c>
       <c r="J8" s="3">
+        <v>8518200</v>
+      </c>
+      <c r="K8" s="3">
         <v>7765000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8651300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7919000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8487100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7521700</v>
+        <v>8088400</v>
       </c>
       <c r="E9" s="3">
-        <v>8692000</v>
+        <v>7337100</v>
       </c>
       <c r="F9" s="3">
-        <v>7564100</v>
+        <v>8478800</v>
       </c>
       <c r="G9" s="3">
-        <v>7399100</v>
+        <v>7378600</v>
       </c>
       <c r="H9" s="3">
-        <v>6631800</v>
+        <v>7217600</v>
       </c>
       <c r="I9" s="3">
-        <v>6513300</v>
+        <v>6469100</v>
       </c>
       <c r="J9" s="3">
+        <v>6353500</v>
+      </c>
+      <c r="K9" s="3">
         <v>5394700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6133200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5550700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6364500</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2943600</v>
+        <v>3301900</v>
       </c>
       <c r="E10" s="3">
-        <v>2227200</v>
+        <v>2871400</v>
       </c>
       <c r="F10" s="3">
-        <v>2123600</v>
+        <v>2172600</v>
       </c>
       <c r="G10" s="3">
-        <v>2259700</v>
+        <v>2071500</v>
       </c>
       <c r="H10" s="3">
-        <v>2047000</v>
+        <v>2204200</v>
       </c>
       <c r="I10" s="3">
-        <v>2219200</v>
+        <v>1996800</v>
       </c>
       <c r="J10" s="3">
+        <v>2164800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2370300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2518100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2368300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2122700</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -842,8 +855,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -877,8 +891,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -912,78 +929,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-1900</v>
+        <v>2500</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
+        <v>-1800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
-        <v>30800</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>30100</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2700</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13400</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1676000</v>
+        <v>1810900</v>
       </c>
       <c r="E15" s="3">
-        <v>1063800</v>
+        <v>1634900</v>
       </c>
       <c r="F15" s="3">
-        <v>998900</v>
+        <v>1037700</v>
       </c>
       <c r="G15" s="3">
-        <v>977800</v>
+        <v>974400</v>
       </c>
       <c r="H15" s="3">
-        <v>933800</v>
+        <v>953800</v>
       </c>
       <c r="I15" s="3">
-        <v>915500</v>
+        <v>910900</v>
       </c>
       <c r="J15" s="3">
+        <v>893100</v>
+      </c>
+      <c r="K15" s="3">
         <v>913800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>909200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>870700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>824000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -994,78 +1020,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9713600</v>
+        <v>10604900</v>
       </c>
       <c r="E17" s="3">
-        <v>10324200</v>
+        <v>9475300</v>
       </c>
       <c r="F17" s="3">
-        <v>9017400</v>
+        <v>10071000</v>
       </c>
       <c r="G17" s="3">
-        <v>8986900</v>
+        <v>8796200</v>
       </c>
       <c r="H17" s="3">
-        <v>8021400</v>
+        <v>8766400</v>
       </c>
       <c r="I17" s="3">
-        <v>7921700</v>
+        <v>7824600</v>
       </c>
       <c r="J17" s="3">
+        <v>7727300</v>
+      </c>
+      <c r="K17" s="3">
         <v>6753300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7545200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7030800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7909400</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>751700</v>
+        <v>785500</v>
       </c>
       <c r="E18" s="3">
-        <v>595000</v>
+        <v>733300</v>
       </c>
       <c r="F18" s="3">
-        <v>670300</v>
+        <v>580400</v>
       </c>
       <c r="G18" s="3">
-        <v>671900</v>
+        <v>653900</v>
       </c>
       <c r="H18" s="3">
-        <v>657400</v>
+        <v>655400</v>
       </c>
       <c r="I18" s="3">
-        <v>810800</v>
+        <v>641300</v>
       </c>
       <c r="J18" s="3">
+        <v>790900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1011700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1106100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>888200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,183 +1112,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5500</v>
+        <v>-135900</v>
       </c>
       <c r="E20" s="3">
-        <v>-165000</v>
+        <v>5300</v>
       </c>
       <c r="F20" s="3">
-        <v>-12900</v>
+        <v>-161000</v>
       </c>
       <c r="G20" s="3">
-        <v>205000</v>
+        <v>-12600</v>
       </c>
       <c r="H20" s="3">
-        <v>130400</v>
+        <v>200000</v>
       </c>
       <c r="I20" s="3">
-        <v>-220200</v>
+        <v>127200</v>
       </c>
       <c r="J20" s="3">
+        <v>-214800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-156100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-826100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>64900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2433100</v>
+        <v>825600</v>
       </c>
       <c r="E21" s="3">
-        <v>494900</v>
+        <v>2373400</v>
       </c>
       <c r="F21" s="3">
-        <v>1656300</v>
+        <v>482700</v>
       </c>
       <c r="G21" s="3">
-        <v>921000</v>
+        <v>1615700</v>
       </c>
       <c r="H21" s="3">
-        <v>1721600</v>
+        <v>898400</v>
       </c>
       <c r="I21" s="3">
-        <v>592300</v>
+        <v>1679400</v>
       </c>
       <c r="J21" s="3">
+        <v>577800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1769400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>318500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1823800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>414400</v>
+        <v>416400</v>
       </c>
       <c r="E22" s="3">
-        <v>240500</v>
+        <v>404200</v>
       </c>
       <c r="F22" s="3">
-        <v>220800</v>
+        <v>234600</v>
       </c>
       <c r="G22" s="3">
-        <v>202500</v>
+        <v>215400</v>
       </c>
       <c r="H22" s="3">
-        <v>189100</v>
+        <v>197500</v>
       </c>
       <c r="I22" s="3">
-        <v>178200</v>
+        <v>184500</v>
       </c>
       <c r="J22" s="3">
+        <v>173800</v>
+      </c>
+      <c r="K22" s="3">
         <v>168700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>159400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>165800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>342800</v>
+        <v>233200</v>
       </c>
       <c r="E23" s="3">
-        <v>189500</v>
+        <v>334400</v>
       </c>
       <c r="F23" s="3">
-        <v>436600</v>
+        <v>184900</v>
       </c>
       <c r="G23" s="3">
-        <v>674500</v>
+        <v>425900</v>
       </c>
       <c r="H23" s="3">
-        <v>598700</v>
+        <v>658000</v>
       </c>
       <c r="I23" s="3">
-        <v>412400</v>
+        <v>584100</v>
       </c>
       <c r="J23" s="3">
+        <v>402200</v>
+      </c>
+      <c r="K23" s="3">
         <v>686800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>120700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>787300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>610100</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>98300</v>
+        <v>40000</v>
       </c>
       <c r="E24" s="3">
-        <v>45600</v>
+        <v>95900</v>
       </c>
       <c r="F24" s="3">
-        <v>97900</v>
+        <v>44500</v>
       </c>
       <c r="G24" s="3">
-        <v>145500</v>
+        <v>95500</v>
       </c>
       <c r="H24" s="3">
-        <v>138000</v>
+        <v>141900</v>
       </c>
       <c r="I24" s="3">
-        <v>95700</v>
+        <v>134600</v>
       </c>
       <c r="J24" s="3">
+        <v>93400</v>
+      </c>
+      <c r="K24" s="3">
         <v>157300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>179600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>143000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1289,78 +1338,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>244500</v>
+        <v>193100</v>
       </c>
       <c r="E26" s="3">
-        <v>143900</v>
+        <v>238500</v>
       </c>
       <c r="F26" s="3">
-        <v>338800</v>
+        <v>140400</v>
       </c>
       <c r="G26" s="3">
-        <v>529000</v>
+        <v>330400</v>
       </c>
       <c r="H26" s="3">
-        <v>460700</v>
+        <v>516000</v>
       </c>
       <c r="I26" s="3">
-        <v>316700</v>
+        <v>449400</v>
       </c>
       <c r="J26" s="3">
+        <v>308900</v>
+      </c>
+      <c r="K26" s="3">
         <v>529600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>107300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>607700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>241300</v>
+        <v>134100</v>
       </c>
       <c r="E27" s="3">
-        <v>114800</v>
+        <v>235400</v>
       </c>
       <c r="F27" s="3">
-        <v>300600</v>
+        <v>112000</v>
       </c>
       <c r="G27" s="3">
-        <v>457600</v>
+        <v>293200</v>
       </c>
       <c r="H27" s="3">
-        <v>397700</v>
+        <v>446300</v>
       </c>
       <c r="I27" s="3">
-        <v>276300</v>
+        <v>388000</v>
       </c>
       <c r="J27" s="3">
+        <v>269600</v>
+      </c>
+      <c r="K27" s="3">
         <v>447400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>516300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1394,8 +1452,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1429,8 +1490,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1464,8 +1528,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,78 +1566,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5500</v>
+        <v>135900</v>
       </c>
       <c r="E32" s="3">
-        <v>165000</v>
+        <v>-5300</v>
       </c>
       <c r="F32" s="3">
-        <v>12900</v>
+        <v>161000</v>
       </c>
       <c r="G32" s="3">
-        <v>-205000</v>
+        <v>12600</v>
       </c>
       <c r="H32" s="3">
-        <v>-130400</v>
+        <v>-200000</v>
       </c>
       <c r="I32" s="3">
-        <v>220200</v>
+        <v>-127200</v>
       </c>
       <c r="J32" s="3">
+        <v>214800</v>
+      </c>
+      <c r="K32" s="3">
         <v>156100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>826100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-64900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-214400</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>241300</v>
+        <v>134100</v>
       </c>
       <c r="E33" s="3">
-        <v>114800</v>
+        <v>235400</v>
       </c>
       <c r="F33" s="3">
-        <v>300600</v>
+        <v>112000</v>
       </c>
       <c r="G33" s="3">
-        <v>457600</v>
+        <v>293200</v>
       </c>
       <c r="H33" s="3">
-        <v>397700</v>
+        <v>446300</v>
       </c>
       <c r="I33" s="3">
-        <v>276300</v>
+        <v>388000</v>
       </c>
       <c r="J33" s="3">
+        <v>269600</v>
+      </c>
+      <c r="K33" s="3">
         <v>447400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>516300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,83 +1680,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>241300</v>
+        <v>134100</v>
       </c>
       <c r="E35" s="3">
-        <v>114800</v>
+        <v>235400</v>
       </c>
       <c r="F35" s="3">
-        <v>300600</v>
+        <v>112000</v>
       </c>
       <c r="G35" s="3">
-        <v>457600</v>
+        <v>293200</v>
       </c>
       <c r="H35" s="3">
-        <v>397700</v>
+        <v>446300</v>
       </c>
       <c r="I35" s="3">
-        <v>276300</v>
+        <v>388000</v>
       </c>
       <c r="J35" s="3">
+        <v>269600</v>
+      </c>
+      <c r="K35" s="3">
         <v>447400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>516300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43646</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42369</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42185</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1694,8 +1779,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,54 +1795,58 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>222300</v>
+        <v>258800</v>
       </c>
       <c r="E41" s="3">
-        <v>994000</v>
+        <v>216800</v>
       </c>
       <c r="F41" s="3">
-        <v>778700</v>
+        <v>969600</v>
       </c>
       <c r="G41" s="3">
-        <v>979400</v>
+        <v>759600</v>
       </c>
       <c r="H41" s="3">
-        <v>612400</v>
+        <v>955400</v>
       </c>
       <c r="I41" s="3">
-        <v>595700</v>
+        <v>597300</v>
       </c>
       <c r="J41" s="3">
+        <v>581100</v>
+      </c>
+      <c r="K41" s="3">
         <v>882500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>676700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1425500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2241700</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>3600</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>63100</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
+        <v>3500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>61600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1770,8 +1860,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1779,241 +1869,262 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1774800</v>
+        <v>1551500</v>
       </c>
       <c r="E43" s="3">
-        <v>1579100</v>
+        <v>1731300</v>
       </c>
       <c r="F43" s="3">
-        <v>1507100</v>
+        <v>1540400</v>
       </c>
       <c r="G43" s="3">
-        <v>1145400</v>
+        <v>1470100</v>
       </c>
       <c r="H43" s="3">
-        <v>1080000</v>
+        <v>1117300</v>
       </c>
       <c r="I43" s="3">
-        <v>928900</v>
+        <v>1053500</v>
       </c>
       <c r="J43" s="3">
+        <v>906100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1005700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>984400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1276600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1313700</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>283900</v>
+        <v>264900</v>
       </c>
       <c r="E44" s="3">
-        <v>243800</v>
+        <v>277000</v>
       </c>
       <c r="F44" s="3">
-        <v>269700</v>
+        <v>237800</v>
       </c>
       <c r="G44" s="3">
-        <v>232700</v>
+        <v>263100</v>
       </c>
       <c r="H44" s="3">
-        <v>251800</v>
+        <v>227000</v>
       </c>
       <c r="I44" s="3">
-        <v>227800</v>
+        <v>245600</v>
       </c>
       <c r="J44" s="3">
+        <v>222300</v>
+      </c>
+      <c r="K44" s="3">
         <v>255100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>238300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>256500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>430300</v>
+        <v>267500</v>
       </c>
       <c r="E45" s="3">
-        <v>573800</v>
+        <v>419700</v>
       </c>
       <c r="F45" s="3">
-        <v>230300</v>
+        <v>559700</v>
       </c>
       <c r="G45" s="3">
-        <v>208500</v>
+        <v>224600</v>
       </c>
       <c r="H45" s="3">
-        <v>235000</v>
+        <v>203400</v>
       </c>
       <c r="I45" s="3">
-        <v>222400</v>
+        <v>229300</v>
       </c>
       <c r="J45" s="3">
+        <v>216900</v>
+      </c>
+      <c r="K45" s="3">
         <v>220500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>195000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>145100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>208400</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2714900</v>
+        <v>2342700</v>
       </c>
       <c r="E46" s="3">
-        <v>3453900</v>
+        <v>2648300</v>
       </c>
       <c r="F46" s="3">
-        <v>2785800</v>
+        <v>3369100</v>
       </c>
       <c r="G46" s="3">
-        <v>2566000</v>
+        <v>2717500</v>
       </c>
       <c r="H46" s="3">
-        <v>2179200</v>
+        <v>2503000</v>
       </c>
       <c r="I46" s="3">
-        <v>1974900</v>
+        <v>2125700</v>
       </c>
       <c r="J46" s="3">
+        <v>1926400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2363800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2094500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3103700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4005300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1108400</v>
+        <v>1127800</v>
       </c>
       <c r="E47" s="3">
-        <v>1114800</v>
+        <v>1081200</v>
       </c>
       <c r="F47" s="3">
-        <v>861700</v>
+        <v>1087500</v>
       </c>
       <c r="G47" s="3">
-        <v>776700</v>
+        <v>840600</v>
       </c>
       <c r="H47" s="3">
-        <v>821700</v>
+        <v>757600</v>
       </c>
       <c r="I47" s="3">
-        <v>780400</v>
+        <v>801600</v>
       </c>
       <c r="J47" s="3">
+        <v>761200</v>
+      </c>
+      <c r="K47" s="3">
         <v>676500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>689800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>686700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>598000</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38660300</v>
+        <v>38799900</v>
       </c>
       <c r="E48" s="3">
-        <v>29913100</v>
+        <v>37711800</v>
       </c>
       <c r="F48" s="3">
-        <v>28367100</v>
+        <v>29179300</v>
       </c>
       <c r="G48" s="3">
-        <v>27140500</v>
+        <v>27671200</v>
       </c>
       <c r="H48" s="3">
-        <v>25500600</v>
+        <v>26474700</v>
       </c>
       <c r="I48" s="3">
-        <v>25203100</v>
+        <v>24875000</v>
       </c>
       <c r="J48" s="3">
+        <v>24584800</v>
+      </c>
+      <c r="K48" s="3">
         <v>23579600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24087400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23502400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22367100</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34000</v>
+        <v>33200</v>
       </c>
       <c r="E49" s="3">
-        <v>34000</v>
+        <v>33200</v>
       </c>
       <c r="F49" s="3">
-        <v>34000</v>
+        <v>33200</v>
       </c>
       <c r="G49" s="3">
-        <v>34000</v>
+        <v>33200</v>
       </c>
       <c r="H49" s="3">
-        <v>26100</v>
+        <v>33200</v>
       </c>
       <c r="I49" s="3">
-        <v>26100</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+        <v>25500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>25500</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2024,8 +2135,11 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2059,8 +2173,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2094,43 +2211,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>591900</v>
+        <v>654200</v>
       </c>
       <c r="E52" s="3">
-        <v>916400</v>
+        <v>577300</v>
       </c>
       <c r="F52" s="3">
-        <v>874500</v>
+        <v>893900</v>
       </c>
       <c r="G52" s="3">
-        <v>864500</v>
+        <v>853100</v>
       </c>
       <c r="H52" s="3">
-        <v>742400</v>
+        <v>843300</v>
       </c>
       <c r="I52" s="3">
-        <v>774900</v>
+        <v>724200</v>
       </c>
       <c r="J52" s="3">
+        <v>755900</v>
+      </c>
+      <c r="K52" s="3">
         <v>779800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>730900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>634300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2164,43 +2287,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>43109400</v>
+        <v>42957600</v>
       </c>
       <c r="E54" s="3">
-        <v>35432200</v>
+        <v>42051800</v>
       </c>
       <c r="F54" s="3">
-        <v>32923200</v>
+        <v>34563000</v>
       </c>
       <c r="G54" s="3">
-        <v>31381700</v>
+        <v>32115500</v>
       </c>
       <c r="H54" s="3">
-        <v>29269900</v>
+        <v>30611800</v>
       </c>
       <c r="I54" s="3">
-        <v>28759400</v>
+        <v>28551800</v>
       </c>
       <c r="J54" s="3">
+        <v>28053900</v>
+      </c>
+      <c r="K54" s="3">
         <v>27399800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27602600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27927100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27586300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2214,8 +2343,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2229,218 +2359,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>402500</v>
+        <v>324300</v>
       </c>
       <c r="E57" s="3">
-        <v>331300</v>
+        <v>392600</v>
       </c>
       <c r="F57" s="3">
-        <v>290100</v>
+        <v>323200</v>
       </c>
       <c r="G57" s="3">
-        <v>304900</v>
+        <v>283000</v>
       </c>
       <c r="H57" s="3">
-        <v>280800</v>
+        <v>297400</v>
       </c>
       <c r="I57" s="3">
-        <v>273000</v>
+        <v>273900</v>
       </c>
       <c r="J57" s="3">
+        <v>266300</v>
+      </c>
+      <c r="K57" s="3">
         <v>254400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>371000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>310300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8566300</v>
+        <v>8053400</v>
       </c>
       <c r="E58" s="3">
-        <v>6929500</v>
+        <v>8356200</v>
       </c>
       <c r="F58" s="3">
-        <v>7002700</v>
+        <v>6759500</v>
       </c>
       <c r="G58" s="3">
-        <v>5152200</v>
+        <v>6830900</v>
       </c>
       <c r="H58" s="3">
-        <v>4300100</v>
+        <v>5025800</v>
       </c>
       <c r="I58" s="3">
-        <v>5085100</v>
+        <v>4194600</v>
       </c>
       <c r="J58" s="3">
+        <v>4960300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5443500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5404800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4074700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3922400</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4657100</v>
+        <v>4987100</v>
       </c>
       <c r="E59" s="3">
-        <v>4746600</v>
+        <v>4542800</v>
       </c>
       <c r="F59" s="3">
-        <v>4479000</v>
+        <v>4630200</v>
       </c>
       <c r="G59" s="3">
-        <v>4525800</v>
+        <v>4369100</v>
       </c>
       <c r="H59" s="3">
-        <v>4341700</v>
+        <v>4414800</v>
       </c>
       <c r="I59" s="3">
-        <v>4388800</v>
+        <v>4235200</v>
       </c>
       <c r="J59" s="3">
+        <v>4281100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3991600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3950200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3701800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3702400</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13625900</v>
+        <v>13364800</v>
       </c>
       <c r="E60" s="3">
-        <v>12007400</v>
+        <v>13291600</v>
       </c>
       <c r="F60" s="3">
-        <v>11771800</v>
+        <v>11712800</v>
       </c>
       <c r="G60" s="3">
-        <v>9982900</v>
+        <v>11483000</v>
       </c>
       <c r="H60" s="3">
-        <v>8922600</v>
+        <v>9738000</v>
       </c>
       <c r="I60" s="3">
-        <v>9746900</v>
+        <v>8703700</v>
       </c>
       <c r="J60" s="3">
+        <v>9507800</v>
+      </c>
+      <c r="K60" s="3">
         <v>9689500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9726000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8086900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7865700</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17581200</v>
+        <v>17874700</v>
       </c>
       <c r="E61" s="3">
-        <v>11240500</v>
+        <v>17149900</v>
       </c>
       <c r="F61" s="3">
-        <v>10855000</v>
+        <v>10964700</v>
       </c>
       <c r="G61" s="3">
-        <v>11521700</v>
+        <v>10588700</v>
       </c>
       <c r="H61" s="3">
-        <v>11238900</v>
+        <v>11239100</v>
       </c>
       <c r="I61" s="3">
-        <v>10371500</v>
+        <v>10963200</v>
       </c>
       <c r="J61" s="3">
+        <v>10117000</v>
+      </c>
+      <c r="K61" s="3">
         <v>9369000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9690000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11690700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12504800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>987700</v>
+        <v>895200</v>
       </c>
       <c r="E62" s="3">
-        <v>925600</v>
+        <v>963500</v>
       </c>
       <c r="F62" s="3">
-        <v>992700</v>
+        <v>902900</v>
       </c>
       <c r="G62" s="3">
-        <v>903400</v>
+        <v>968400</v>
       </c>
       <c r="H62" s="3">
-        <v>850300</v>
+        <v>881200</v>
       </c>
       <c r="I62" s="3">
-        <v>753100</v>
+        <v>829400</v>
       </c>
       <c r="J62" s="3">
+        <v>734700</v>
+      </c>
+      <c r="K62" s="3">
         <v>804600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>821900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>829000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>745200</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2474,8 +2623,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2509,8 +2661,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2544,43 +2699,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34042200</v>
+        <v>33985400</v>
       </c>
       <c r="E66" s="3">
-        <v>26069200</v>
+        <v>33207000</v>
       </c>
       <c r="F66" s="3">
-        <v>25489800</v>
+        <v>25429600</v>
       </c>
       <c r="G66" s="3">
-        <v>24216800</v>
+        <v>24864500</v>
       </c>
       <c r="H66" s="3">
-        <v>22762400</v>
+        <v>23622700</v>
       </c>
       <c r="I66" s="3">
-        <v>22524400</v>
+        <v>22204000</v>
       </c>
       <c r="J66" s="3">
+        <v>21971800</v>
+      </c>
+      <c r="K66" s="3">
         <v>21477100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21808000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22162500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22387500</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2594,8 +2755,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2629,8 +2791,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2664,8 +2829,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2699,8 +2867,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2734,43 +2905,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3562000</v>
+        <v>3607600</v>
       </c>
       <c r="E72" s="3">
-        <v>3851700</v>
+        <v>3474600</v>
       </c>
       <c r="F72" s="3">
-        <v>3736600</v>
+        <v>3757200</v>
       </c>
       <c r="G72" s="3">
-        <v>3499600</v>
+        <v>3645000</v>
       </c>
       <c r="H72" s="3">
-        <v>3041900</v>
+        <v>3413800</v>
       </c>
       <c r="I72" s="3">
-        <v>2768900</v>
+        <v>2967300</v>
       </c>
       <c r="J72" s="3">
+        <v>2700900</v>
+      </c>
+      <c r="K72" s="3">
         <v>2492800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2232200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2201700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1709500</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2804,8 +2981,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2839,8 +3019,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2874,43 +3057,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9067200</v>
+        <v>8972300</v>
       </c>
       <c r="E76" s="3">
-        <v>9363100</v>
+        <v>8844800</v>
       </c>
       <c r="F76" s="3">
-        <v>7433400</v>
+        <v>9133400</v>
       </c>
       <c r="G76" s="3">
-        <v>7164800</v>
+        <v>7251000</v>
       </c>
       <c r="H76" s="3">
-        <v>6507500</v>
+        <v>6989000</v>
       </c>
       <c r="I76" s="3">
-        <v>6235100</v>
+        <v>6347900</v>
       </c>
       <c r="J76" s="3">
+        <v>6082100</v>
+      </c>
+      <c r="K76" s="3">
         <v>5922700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5794700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5764500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5198800</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2944,83 +3133,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43646</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42369</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42185</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>241300</v>
+        <v>134100</v>
       </c>
       <c r="E81" s="3">
-        <v>114800</v>
+        <v>235400</v>
       </c>
       <c r="F81" s="3">
-        <v>300600</v>
+        <v>112000</v>
       </c>
       <c r="G81" s="3">
-        <v>457600</v>
+        <v>293200</v>
       </c>
       <c r="H81" s="3">
-        <v>397700</v>
+        <v>446300</v>
       </c>
       <c r="I81" s="3">
-        <v>276300</v>
+        <v>388000</v>
       </c>
       <c r="J81" s="3">
+        <v>269600</v>
+      </c>
+      <c r="K81" s="3">
         <v>447400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>516300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3034,8 +3232,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3069,8 +3268,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3104,8 +3306,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3139,8 +3344,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3174,8 +3382,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3209,8 +3420,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3244,43 +3458,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1433900</v>
+        <v>2964500</v>
       </c>
       <c r="E89" s="3">
-        <v>1151400</v>
+        <v>1398800</v>
       </c>
       <c r="F89" s="3">
-        <v>1056400</v>
+        <v>1123200</v>
       </c>
       <c r="G89" s="3">
-        <v>1522800</v>
+        <v>1030500</v>
       </c>
       <c r="H89" s="3">
-        <v>1021400</v>
+        <v>1485400</v>
       </c>
       <c r="I89" s="3">
-        <v>2245600</v>
+        <v>996400</v>
       </c>
       <c r="J89" s="3">
+        <v>2190500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1164100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2055300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1467000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1576600</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3294,43 +3514,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1554600</v>
+        <v>-670000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2091500</v>
+        <v>-1516500</v>
       </c>
       <c r="F91" s="3">
-        <v>-1356700</v>
+        <v>-2040200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1206500</v>
+        <v>-1323500</v>
       </c>
       <c r="H91" s="3">
-        <v>-780100</v>
+        <v>-1176900</v>
       </c>
       <c r="I91" s="3">
-        <v>-2222400</v>
+        <v>-761000</v>
       </c>
       <c r="J91" s="3">
+        <v>-2167800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-499000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1157600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-644000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-355100</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3364,8 +3588,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3399,43 +3626,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1435700</v>
+        <v>-618800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1973700</v>
+        <v>-1400400</v>
       </c>
       <c r="F94" s="3">
-        <v>-970100</v>
+        <v>-1925300</v>
       </c>
       <c r="G94" s="3">
-        <v>-761600</v>
+        <v>-946300</v>
       </c>
       <c r="H94" s="3">
-        <v>-420100</v>
+        <v>-742900</v>
       </c>
       <c r="I94" s="3">
-        <v>-2082900</v>
+        <v>-409800</v>
       </c>
       <c r="J94" s="3">
+        <v>-2031800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-176900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-454700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-573900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-178600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3449,8 +3682,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3464,28 +3698,31 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-140900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-137400</v>
       </c>
       <c r="I96" s="3">
-        <v>-48100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-46900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-64600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3519,8 +3756,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3554,8 +3794,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3589,109 +3832,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-770200</v>
+        <v>-2304400</v>
       </c>
       <c r="E100" s="3">
-        <v>1036500</v>
+        <v>-751300</v>
       </c>
       <c r="F100" s="3">
-        <v>-287500</v>
+        <v>1011100</v>
       </c>
       <c r="G100" s="3">
-        <v>-391300</v>
+        <v>-280500</v>
       </c>
       <c r="H100" s="3">
-        <v>-583800</v>
+        <v>-381700</v>
       </c>
       <c r="I100" s="3">
-        <v>-452100</v>
+        <v>-569500</v>
       </c>
       <c r="J100" s="3">
+        <v>-441000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-761600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2357000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1753200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-898500</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
-        <v>-2900</v>
-      </c>
       <c r="H101" s="3">
-        <v>-900</v>
+        <v>-2800</v>
       </c>
       <c r="I101" s="3">
-        <v>2600</v>
+        <v>-800</v>
       </c>
       <c r="J101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-771800</v>
+        <v>42000</v>
       </c>
       <c r="E102" s="3">
-        <v>215400</v>
+        <v>-752800</v>
       </c>
       <c r="F102" s="3">
-        <v>-200700</v>
+        <v>210100</v>
       </c>
       <c r="G102" s="3">
-        <v>367000</v>
+        <v>-195800</v>
       </c>
       <c r="H102" s="3">
-        <v>16600</v>
+        <v>358000</v>
       </c>
       <c r="I102" s="3">
-        <v>-286800</v>
+        <v>16200</v>
       </c>
       <c r="J102" s="3">
+        <v>-279800</v>
+      </c>
+      <c r="K102" s="3">
         <v>228300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-748700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-862100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
@@ -732,25 +732,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11390400</v>
+        <v>11819300</v>
       </c>
       <c r="E8" s="3">
-        <v>10208500</v>
+        <v>10592900</v>
       </c>
       <c r="F8" s="3">
-        <v>10651400</v>
+        <v>11052400</v>
       </c>
       <c r="G8" s="3">
-        <v>9450100</v>
+        <v>9805900</v>
       </c>
       <c r="H8" s="3">
-        <v>9421800</v>
+        <v>9776600</v>
       </c>
       <c r="I8" s="3">
-        <v>8465900</v>
+        <v>8784700</v>
       </c>
       <c r="J8" s="3">
-        <v>8518200</v>
+        <v>8839000</v>
       </c>
       <c r="K8" s="3">
         <v>7765000</v>
@@ -770,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8088400</v>
+        <v>8393000</v>
       </c>
       <c r="E9" s="3">
-        <v>7337100</v>
+        <v>7613400</v>
       </c>
       <c r="F9" s="3">
-        <v>8478800</v>
+        <v>8798000</v>
       </c>
       <c r="G9" s="3">
-        <v>7378600</v>
+        <v>7656400</v>
       </c>
       <c r="H9" s="3">
-        <v>7217600</v>
+        <v>7489400</v>
       </c>
       <c r="I9" s="3">
-        <v>6469100</v>
+        <v>6712700</v>
       </c>
       <c r="J9" s="3">
-        <v>6353500</v>
+        <v>6592700</v>
       </c>
       <c r="K9" s="3">
         <v>5394700</v>
@@ -808,25 +808,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3301900</v>
+        <v>3426300</v>
       </c>
       <c r="E10" s="3">
-        <v>2871400</v>
+        <v>2979500</v>
       </c>
       <c r="F10" s="3">
-        <v>2172600</v>
+        <v>2254400</v>
       </c>
       <c r="G10" s="3">
-        <v>2071500</v>
+        <v>2149500</v>
       </c>
       <c r="H10" s="3">
-        <v>2204200</v>
+        <v>2287200</v>
       </c>
       <c r="I10" s="3">
-        <v>1996800</v>
+        <v>2072000</v>
       </c>
       <c r="J10" s="3">
-        <v>2164800</v>
+        <v>2246300</v>
       </c>
       <c r="K10" s="3">
         <v>2370300</v>
@@ -938,10 +938,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="E14" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>8</v>
       </c>
       <c r="H14" s="3">
-        <v>30100</v>
+        <v>31200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -976,25 +976,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1810900</v>
+        <v>1879100</v>
       </c>
       <c r="E15" s="3">
-        <v>1634900</v>
+        <v>1696400</v>
       </c>
       <c r="F15" s="3">
-        <v>1037700</v>
+        <v>1076700</v>
       </c>
       <c r="G15" s="3">
-        <v>974400</v>
+        <v>1011100</v>
       </c>
       <c r="H15" s="3">
-        <v>953800</v>
+        <v>989700</v>
       </c>
       <c r="I15" s="3">
-        <v>910900</v>
+        <v>945200</v>
       </c>
       <c r="J15" s="3">
-        <v>893100</v>
+        <v>926700</v>
       </c>
       <c r="K15" s="3">
         <v>913800</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10604900</v>
+        <v>11004200</v>
       </c>
       <c r="E17" s="3">
-        <v>9475300</v>
+        <v>9832100</v>
       </c>
       <c r="F17" s="3">
-        <v>10071000</v>
+        <v>10450200</v>
       </c>
       <c r="G17" s="3">
-        <v>8796200</v>
+        <v>9127400</v>
       </c>
       <c r="H17" s="3">
-        <v>8766400</v>
+        <v>9096500</v>
       </c>
       <c r="I17" s="3">
-        <v>7824600</v>
+        <v>8119200</v>
       </c>
       <c r="J17" s="3">
-        <v>7727300</v>
+        <v>8018300</v>
       </c>
       <c r="K17" s="3">
         <v>6753300</v>
@@ -1065,25 +1065,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>785500</v>
+        <v>815000</v>
       </c>
       <c r="E18" s="3">
-        <v>733300</v>
+        <v>760900</v>
       </c>
       <c r="F18" s="3">
-        <v>580400</v>
+        <v>602300</v>
       </c>
       <c r="G18" s="3">
-        <v>653900</v>
+        <v>678500</v>
       </c>
       <c r="H18" s="3">
-        <v>655400</v>
+        <v>680100</v>
       </c>
       <c r="I18" s="3">
-        <v>641300</v>
+        <v>665400</v>
       </c>
       <c r="J18" s="3">
-        <v>790900</v>
+        <v>820700</v>
       </c>
       <c r="K18" s="3">
         <v>1011700</v>
@@ -1119,25 +1119,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-135900</v>
+        <v>-141000</v>
       </c>
       <c r="E20" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="F20" s="3">
-        <v>-161000</v>
+        <v>-167000</v>
       </c>
       <c r="G20" s="3">
-        <v>-12600</v>
+        <v>-13100</v>
       </c>
       <c r="H20" s="3">
-        <v>200000</v>
+        <v>207500</v>
       </c>
       <c r="I20" s="3">
-        <v>127200</v>
+        <v>132000</v>
       </c>
       <c r="J20" s="3">
-        <v>-214800</v>
+        <v>-222900</v>
       </c>
       <c r="K20" s="3">
         <v>-156100</v>
@@ -1157,25 +1157,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>825600</v>
+        <v>856700</v>
       </c>
       <c r="E21" s="3">
-        <v>2373400</v>
+        <v>2462800</v>
       </c>
       <c r="F21" s="3">
-        <v>482700</v>
+        <v>500900</v>
       </c>
       <c r="G21" s="3">
-        <v>1615700</v>
+        <v>1676500</v>
       </c>
       <c r="H21" s="3">
-        <v>898400</v>
+        <v>932200</v>
       </c>
       <c r="I21" s="3">
-        <v>1679400</v>
+        <v>1742600</v>
       </c>
       <c r="J21" s="3">
-        <v>577800</v>
+        <v>599500</v>
       </c>
       <c r="K21" s="3">
         <v>1769400</v>
@@ -1195,25 +1195,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>416400</v>
+        <v>432100</v>
       </c>
       <c r="E22" s="3">
-        <v>404200</v>
+        <v>419400</v>
       </c>
       <c r="F22" s="3">
-        <v>234600</v>
+        <v>243400</v>
       </c>
       <c r="G22" s="3">
-        <v>215400</v>
+        <v>223500</v>
       </c>
       <c r="H22" s="3">
-        <v>197500</v>
+        <v>204900</v>
       </c>
       <c r="I22" s="3">
-        <v>184500</v>
+        <v>191400</v>
       </c>
       <c r="J22" s="3">
-        <v>173800</v>
+        <v>180400</v>
       </c>
       <c r="K22" s="3">
         <v>168700</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>233200</v>
+        <v>242000</v>
       </c>
       <c r="E23" s="3">
-        <v>334400</v>
+        <v>347000</v>
       </c>
       <c r="F23" s="3">
-        <v>184900</v>
+        <v>191800</v>
       </c>
       <c r="G23" s="3">
-        <v>425900</v>
+        <v>441900</v>
       </c>
       <c r="H23" s="3">
-        <v>658000</v>
+        <v>682700</v>
       </c>
       <c r="I23" s="3">
-        <v>584100</v>
+        <v>606000</v>
       </c>
       <c r="J23" s="3">
-        <v>402200</v>
+        <v>417400</v>
       </c>
       <c r="K23" s="3">
         <v>686800</v>
@@ -1271,25 +1271,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>40000</v>
+        <v>41500</v>
       </c>
       <c r="E24" s="3">
-        <v>95900</v>
+        <v>99500</v>
       </c>
       <c r="F24" s="3">
-        <v>44500</v>
+        <v>46200</v>
       </c>
       <c r="G24" s="3">
-        <v>95500</v>
+        <v>99000</v>
       </c>
       <c r="H24" s="3">
-        <v>141900</v>
+        <v>147300</v>
       </c>
       <c r="I24" s="3">
-        <v>134600</v>
+        <v>139700</v>
       </c>
       <c r="J24" s="3">
-        <v>93400</v>
+        <v>96900</v>
       </c>
       <c r="K24" s="3">
         <v>157300</v>
@@ -1347,25 +1347,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>193100</v>
+        <v>200400</v>
       </c>
       <c r="E26" s="3">
-        <v>238500</v>
+        <v>247500</v>
       </c>
       <c r="F26" s="3">
-        <v>140400</v>
+        <v>145700</v>
       </c>
       <c r="G26" s="3">
-        <v>330400</v>
+        <v>342900</v>
       </c>
       <c r="H26" s="3">
-        <v>516000</v>
+        <v>535500</v>
       </c>
       <c r="I26" s="3">
-        <v>449400</v>
+        <v>466300</v>
       </c>
       <c r="J26" s="3">
-        <v>308900</v>
+        <v>320500</v>
       </c>
       <c r="K26" s="3">
         <v>529600</v>
@@ -1385,25 +1385,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>134100</v>
+        <v>139100</v>
       </c>
       <c r="E27" s="3">
-        <v>235400</v>
+        <v>244300</v>
       </c>
       <c r="F27" s="3">
-        <v>112000</v>
+        <v>116200</v>
       </c>
       <c r="G27" s="3">
-        <v>293200</v>
+        <v>304300</v>
       </c>
       <c r="H27" s="3">
-        <v>446300</v>
+        <v>463100</v>
       </c>
       <c r="I27" s="3">
-        <v>388000</v>
+        <v>402600</v>
       </c>
       <c r="J27" s="3">
-        <v>269600</v>
+        <v>279700</v>
       </c>
       <c r="K27" s="3">
         <v>447400</v>
@@ -1575,25 +1575,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>135900</v>
+        <v>141000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5300</v>
+        <v>-5500</v>
       </c>
       <c r="F32" s="3">
-        <v>161000</v>
+        <v>167000</v>
       </c>
       <c r="G32" s="3">
-        <v>12600</v>
+        <v>13100</v>
       </c>
       <c r="H32" s="3">
-        <v>-200000</v>
+        <v>-207500</v>
       </c>
       <c r="I32" s="3">
-        <v>-127200</v>
+        <v>-132000</v>
       </c>
       <c r="J32" s="3">
-        <v>214800</v>
+        <v>222900</v>
       </c>
       <c r="K32" s="3">
         <v>156100</v>
@@ -1613,25 +1613,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>134100</v>
+        <v>139100</v>
       </c>
       <c r="E33" s="3">
-        <v>235400</v>
+        <v>244300</v>
       </c>
       <c r="F33" s="3">
-        <v>112000</v>
+        <v>116200</v>
       </c>
       <c r="G33" s="3">
-        <v>293200</v>
+        <v>304300</v>
       </c>
       <c r="H33" s="3">
-        <v>446300</v>
+        <v>463100</v>
       </c>
       <c r="I33" s="3">
-        <v>388000</v>
+        <v>402600</v>
       </c>
       <c r="J33" s="3">
-        <v>269600</v>
+        <v>279700</v>
       </c>
       <c r="K33" s="3">
         <v>447400</v>
@@ -1689,25 +1689,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>134100</v>
+        <v>139100</v>
       </c>
       <c r="E35" s="3">
-        <v>235400</v>
+        <v>244300</v>
       </c>
       <c r="F35" s="3">
-        <v>112000</v>
+        <v>116200</v>
       </c>
       <c r="G35" s="3">
-        <v>293200</v>
+        <v>304300</v>
       </c>
       <c r="H35" s="3">
-        <v>446300</v>
+        <v>463100</v>
       </c>
       <c r="I35" s="3">
-        <v>388000</v>
+        <v>402600</v>
       </c>
       <c r="J35" s="3">
-        <v>269600</v>
+        <v>279700</v>
       </c>
       <c r="K35" s="3">
         <v>447400</v>
@@ -1802,25 +1802,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>258800</v>
+        <v>268500</v>
       </c>
       <c r="E41" s="3">
-        <v>216800</v>
+        <v>225000</v>
       </c>
       <c r="F41" s="3">
-        <v>969600</v>
+        <v>1006200</v>
       </c>
       <c r="G41" s="3">
-        <v>759600</v>
+        <v>788200</v>
       </c>
       <c r="H41" s="3">
-        <v>955400</v>
+        <v>991300</v>
       </c>
       <c r="I41" s="3">
-        <v>597300</v>
+        <v>619800</v>
       </c>
       <c r="J41" s="3">
-        <v>581100</v>
+        <v>603000</v>
       </c>
       <c r="K41" s="3">
         <v>882500</v>
@@ -1843,10 +1843,10 @@
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F42" s="3">
-        <v>61600</v>
+        <v>63900</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1878,25 +1878,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1551500</v>
+        <v>1609900</v>
       </c>
       <c r="E43" s="3">
-        <v>1731300</v>
+        <v>1796500</v>
       </c>
       <c r="F43" s="3">
-        <v>1540400</v>
+        <v>1598400</v>
       </c>
       <c r="G43" s="3">
-        <v>1470100</v>
+        <v>1525500</v>
       </c>
       <c r="H43" s="3">
-        <v>1117300</v>
+        <v>1159400</v>
       </c>
       <c r="I43" s="3">
-        <v>1053500</v>
+        <v>1093100</v>
       </c>
       <c r="J43" s="3">
-        <v>906100</v>
+        <v>940200</v>
       </c>
       <c r="K43" s="3">
         <v>1005700</v>
@@ -1916,25 +1916,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>264900</v>
+        <v>274900</v>
       </c>
       <c r="E44" s="3">
-        <v>277000</v>
+        <v>287400</v>
       </c>
       <c r="F44" s="3">
-        <v>237800</v>
+        <v>246700</v>
       </c>
       <c r="G44" s="3">
-        <v>263100</v>
+        <v>273000</v>
       </c>
       <c r="H44" s="3">
-        <v>227000</v>
+        <v>235600</v>
       </c>
       <c r="I44" s="3">
-        <v>245600</v>
+        <v>254900</v>
       </c>
       <c r="J44" s="3">
-        <v>222300</v>
+        <v>230600</v>
       </c>
       <c r="K44" s="3">
         <v>255100</v>
@@ -1954,25 +1954,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>267500</v>
+        <v>277500</v>
       </c>
       <c r="E45" s="3">
-        <v>419700</v>
+        <v>435500</v>
       </c>
       <c r="F45" s="3">
-        <v>559700</v>
+        <v>580800</v>
       </c>
       <c r="G45" s="3">
-        <v>224600</v>
+        <v>233100</v>
       </c>
       <c r="H45" s="3">
-        <v>203400</v>
+        <v>211000</v>
       </c>
       <c r="I45" s="3">
-        <v>229300</v>
+        <v>237900</v>
       </c>
       <c r="J45" s="3">
-        <v>216900</v>
+        <v>225100</v>
       </c>
       <c r="K45" s="3">
         <v>220500</v>
@@ -1992,25 +1992,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2342700</v>
+        <v>2430900</v>
       </c>
       <c r="E46" s="3">
-        <v>2648300</v>
+        <v>2748000</v>
       </c>
       <c r="F46" s="3">
-        <v>3369100</v>
+        <v>3496000</v>
       </c>
       <c r="G46" s="3">
-        <v>2717500</v>
+        <v>2819800</v>
       </c>
       <c r="H46" s="3">
-        <v>2503000</v>
+        <v>2597300</v>
       </c>
       <c r="I46" s="3">
-        <v>2125700</v>
+        <v>2205800</v>
       </c>
       <c r="J46" s="3">
-        <v>1926400</v>
+        <v>1998900</v>
       </c>
       <c r="K46" s="3">
         <v>2363800</v>
@@ -2030,25 +2030,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1127800</v>
+        <v>1170300</v>
       </c>
       <c r="E47" s="3">
-        <v>1081200</v>
+        <v>1121900</v>
       </c>
       <c r="F47" s="3">
-        <v>1087500</v>
+        <v>1128400</v>
       </c>
       <c r="G47" s="3">
-        <v>840600</v>
+        <v>872300</v>
       </c>
       <c r="H47" s="3">
-        <v>757600</v>
+        <v>786100</v>
       </c>
       <c r="I47" s="3">
-        <v>801600</v>
+        <v>831700</v>
       </c>
       <c r="J47" s="3">
-        <v>761200</v>
+        <v>789900</v>
       </c>
       <c r="K47" s="3">
         <v>676500</v>
@@ -2068,25 +2068,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38799900</v>
+        <v>40260800</v>
       </c>
       <c r="E48" s="3">
-        <v>37711800</v>
+        <v>39131800</v>
       </c>
       <c r="F48" s="3">
-        <v>29179300</v>
+        <v>30278000</v>
       </c>
       <c r="G48" s="3">
-        <v>27671200</v>
+        <v>28713100</v>
       </c>
       <c r="H48" s="3">
-        <v>26474700</v>
+        <v>27471600</v>
       </c>
       <c r="I48" s="3">
-        <v>24875000</v>
+        <v>25811600</v>
       </c>
       <c r="J48" s="3">
-        <v>24584800</v>
+        <v>25510500</v>
       </c>
       <c r="K48" s="3">
         <v>23579600</v>
@@ -2106,25 +2106,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33200</v>
+        <v>34400</v>
       </c>
       <c r="E49" s="3">
-        <v>33200</v>
+        <v>34400</v>
       </c>
       <c r="F49" s="3">
-        <v>33200</v>
+        <v>34400</v>
       </c>
       <c r="G49" s="3">
-        <v>33200</v>
+        <v>34400</v>
       </c>
       <c r="H49" s="3">
-        <v>33200</v>
+        <v>34400</v>
       </c>
       <c r="I49" s="3">
-        <v>25500</v>
+        <v>26400</v>
       </c>
       <c r="J49" s="3">
-        <v>25500</v>
+        <v>26400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2220,25 +2220,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>654200</v>
+        <v>678800</v>
       </c>
       <c r="E52" s="3">
-        <v>577300</v>
+        <v>599100</v>
       </c>
       <c r="F52" s="3">
-        <v>893900</v>
+        <v>927600</v>
       </c>
       <c r="G52" s="3">
-        <v>853100</v>
+        <v>885200</v>
       </c>
       <c r="H52" s="3">
-        <v>843300</v>
+        <v>875000</v>
       </c>
       <c r="I52" s="3">
-        <v>724200</v>
+        <v>751400</v>
       </c>
       <c r="J52" s="3">
-        <v>755900</v>
+        <v>784400</v>
       </c>
       <c r="K52" s="3">
         <v>779800</v>
@@ -2296,25 +2296,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>42957600</v>
+        <v>44575200</v>
       </c>
       <c r="E54" s="3">
-        <v>42051800</v>
+        <v>43635200</v>
       </c>
       <c r="F54" s="3">
-        <v>34563000</v>
+        <v>35864400</v>
       </c>
       <c r="G54" s="3">
-        <v>32115500</v>
+        <v>33324800</v>
       </c>
       <c r="H54" s="3">
-        <v>30611800</v>
+        <v>31764400</v>
       </c>
       <c r="I54" s="3">
-        <v>28551800</v>
+        <v>29626900</v>
       </c>
       <c r="J54" s="3">
-        <v>28053900</v>
+        <v>29110200</v>
       </c>
       <c r="K54" s="3">
         <v>27399800</v>
@@ -2366,25 +2366,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>324300</v>
+        <v>336500</v>
       </c>
       <c r="E57" s="3">
-        <v>392600</v>
+        <v>407400</v>
       </c>
       <c r="F57" s="3">
-        <v>323200</v>
+        <v>335300</v>
       </c>
       <c r="G57" s="3">
-        <v>283000</v>
+        <v>293700</v>
       </c>
       <c r="H57" s="3">
-        <v>297400</v>
+        <v>308600</v>
       </c>
       <c r="I57" s="3">
-        <v>273900</v>
+        <v>284200</v>
       </c>
       <c r="J57" s="3">
-        <v>266300</v>
+        <v>276400</v>
       </c>
       <c r="K57" s="3">
         <v>254400</v>
@@ -2404,25 +2404,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8053400</v>
+        <v>8356700</v>
       </c>
       <c r="E58" s="3">
-        <v>8356200</v>
+        <v>8670800</v>
       </c>
       <c r="F58" s="3">
-        <v>6759500</v>
+        <v>7014000</v>
       </c>
       <c r="G58" s="3">
-        <v>6830900</v>
+        <v>7088100</v>
       </c>
       <c r="H58" s="3">
-        <v>5025800</v>
+        <v>5215100</v>
       </c>
       <c r="I58" s="3">
-        <v>4194600</v>
+        <v>4352500</v>
       </c>
       <c r="J58" s="3">
-        <v>4960300</v>
+        <v>5147100</v>
       </c>
       <c r="K58" s="3">
         <v>5443500</v>
@@ -2442,25 +2442,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4987100</v>
+        <v>5174800</v>
       </c>
       <c r="E59" s="3">
-        <v>4542800</v>
+        <v>4713900</v>
       </c>
       <c r="F59" s="3">
-        <v>4630200</v>
+        <v>4804500</v>
       </c>
       <c r="G59" s="3">
-        <v>4369100</v>
+        <v>4533600</v>
       </c>
       <c r="H59" s="3">
-        <v>4414800</v>
+        <v>4581000</v>
       </c>
       <c r="I59" s="3">
-        <v>4235200</v>
+        <v>4394700</v>
       </c>
       <c r="J59" s="3">
-        <v>4281100</v>
+        <v>4442300</v>
       </c>
       <c r="K59" s="3">
         <v>3991600</v>
@@ -2480,25 +2480,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13364800</v>
+        <v>13868000</v>
       </c>
       <c r="E60" s="3">
-        <v>13291600</v>
+        <v>13792100</v>
       </c>
       <c r="F60" s="3">
-        <v>11712800</v>
+        <v>12153900</v>
       </c>
       <c r="G60" s="3">
-        <v>11483000</v>
+        <v>11915400</v>
       </c>
       <c r="H60" s="3">
-        <v>9738000</v>
+        <v>10104700</v>
       </c>
       <c r="I60" s="3">
-        <v>8703700</v>
+        <v>9031400</v>
       </c>
       <c r="J60" s="3">
-        <v>9507800</v>
+        <v>9865800</v>
       </c>
       <c r="K60" s="3">
         <v>9689500</v>
@@ -2518,25 +2518,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17874700</v>
+        <v>18547800</v>
       </c>
       <c r="E61" s="3">
-        <v>17149900</v>
+        <v>17795600</v>
       </c>
       <c r="F61" s="3">
-        <v>10964700</v>
+        <v>11377600</v>
       </c>
       <c r="G61" s="3">
-        <v>10588700</v>
+        <v>10987400</v>
       </c>
       <c r="H61" s="3">
-        <v>11239100</v>
+        <v>11662300</v>
       </c>
       <c r="I61" s="3">
-        <v>10963200</v>
+        <v>11376000</v>
       </c>
       <c r="J61" s="3">
-        <v>10117000</v>
+        <v>10498000</v>
       </c>
       <c r="K61" s="3">
         <v>9369000</v>
@@ -2556,25 +2556,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>895200</v>
+        <v>928900</v>
       </c>
       <c r="E62" s="3">
-        <v>963500</v>
+        <v>999800</v>
       </c>
       <c r="F62" s="3">
-        <v>902900</v>
+        <v>936900</v>
       </c>
       <c r="G62" s="3">
-        <v>968400</v>
+        <v>1004800</v>
       </c>
       <c r="H62" s="3">
-        <v>881200</v>
+        <v>914400</v>
       </c>
       <c r="I62" s="3">
-        <v>829400</v>
+        <v>860600</v>
       </c>
       <c r="J62" s="3">
-        <v>734700</v>
+        <v>762300</v>
       </c>
       <c r="K62" s="3">
         <v>804600</v>
@@ -2708,25 +2708,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33985400</v>
+        <v>35265000</v>
       </c>
       <c r="E66" s="3">
-        <v>33207000</v>
+        <v>34457400</v>
       </c>
       <c r="F66" s="3">
-        <v>25429600</v>
+        <v>26387100</v>
       </c>
       <c r="G66" s="3">
-        <v>24864500</v>
+        <v>25800700</v>
       </c>
       <c r="H66" s="3">
-        <v>23622700</v>
+        <v>24512200</v>
       </c>
       <c r="I66" s="3">
-        <v>22204000</v>
+        <v>23040000</v>
       </c>
       <c r="J66" s="3">
-        <v>21971800</v>
+        <v>22799100</v>
       </c>
       <c r="K66" s="3">
         <v>21477100</v>
@@ -2914,25 +2914,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3607600</v>
+        <v>3743400</v>
       </c>
       <c r="E72" s="3">
-        <v>3474600</v>
+        <v>3605500</v>
       </c>
       <c r="F72" s="3">
-        <v>3757200</v>
+        <v>3898700</v>
       </c>
       <c r="G72" s="3">
-        <v>3645000</v>
+        <v>3782200</v>
       </c>
       <c r="H72" s="3">
-        <v>3413800</v>
+        <v>3542300</v>
       </c>
       <c r="I72" s="3">
-        <v>2967300</v>
+        <v>3079000</v>
       </c>
       <c r="J72" s="3">
-        <v>2700900</v>
+        <v>2802600</v>
       </c>
       <c r="K72" s="3">
         <v>2492800</v>
@@ -3066,25 +3066,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8972300</v>
+        <v>9310100</v>
       </c>
       <c r="E76" s="3">
-        <v>8844800</v>
+        <v>9177800</v>
       </c>
       <c r="F76" s="3">
-        <v>9133400</v>
+        <v>9477300</v>
       </c>
       <c r="G76" s="3">
-        <v>7251000</v>
+        <v>7524100</v>
       </c>
       <c r="H76" s="3">
-        <v>6989000</v>
+        <v>7252200</v>
       </c>
       <c r="I76" s="3">
-        <v>6347900</v>
+        <v>6586900</v>
       </c>
       <c r="J76" s="3">
-        <v>6082100</v>
+        <v>6311100</v>
       </c>
       <c r="K76" s="3">
         <v>5922700</v>
@@ -3185,25 +3185,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>134100</v>
+        <v>139100</v>
       </c>
       <c r="E81" s="3">
-        <v>235400</v>
+        <v>244300</v>
       </c>
       <c r="F81" s="3">
-        <v>112000</v>
+        <v>116200</v>
       </c>
       <c r="G81" s="3">
-        <v>293200</v>
+        <v>304300</v>
       </c>
       <c r="H81" s="3">
-        <v>446300</v>
+        <v>463100</v>
       </c>
       <c r="I81" s="3">
-        <v>388000</v>
+        <v>402600</v>
       </c>
       <c r="J81" s="3">
-        <v>269600</v>
+        <v>279700</v>
       </c>
       <c r="K81" s="3">
         <v>447400</v>
@@ -3467,25 +3467,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2964500</v>
+        <v>3076100</v>
       </c>
       <c r="E89" s="3">
-        <v>1398800</v>
+        <v>1451400</v>
       </c>
       <c r="F89" s="3">
-        <v>1123200</v>
+        <v>1165500</v>
       </c>
       <c r="G89" s="3">
-        <v>1030500</v>
+        <v>1069300</v>
       </c>
       <c r="H89" s="3">
-        <v>1485400</v>
+        <v>1541300</v>
       </c>
       <c r="I89" s="3">
-        <v>996400</v>
+        <v>1033900</v>
       </c>
       <c r="J89" s="3">
-        <v>2190500</v>
+        <v>2273000</v>
       </c>
       <c r="K89" s="3">
         <v>1164100</v>
@@ -3521,25 +3521,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-670000</v>
+        <v>-695200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1516500</v>
+        <v>-1573600</v>
       </c>
       <c r="F91" s="3">
-        <v>-2040200</v>
+        <v>-2117000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1323500</v>
+        <v>-1373300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1176900</v>
+        <v>-1221200</v>
       </c>
       <c r="I91" s="3">
-        <v>-761000</v>
+        <v>-789600</v>
       </c>
       <c r="J91" s="3">
-        <v>-2167800</v>
+        <v>-2249500</v>
       </c>
       <c r="K91" s="3">
         <v>-499000</v>
@@ -3635,25 +3635,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-618800</v>
+        <v>-642100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1400400</v>
+        <v>-1453200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1925300</v>
+        <v>-1997800</v>
       </c>
       <c r="G94" s="3">
-        <v>-946300</v>
+        <v>-981900</v>
       </c>
       <c r="H94" s="3">
-        <v>-742900</v>
+        <v>-770900</v>
       </c>
       <c r="I94" s="3">
-        <v>-409800</v>
+        <v>-425200</v>
       </c>
       <c r="J94" s="3">
-        <v>-2031800</v>
+        <v>-2108300</v>
       </c>
       <c r="K94" s="3">
         <v>-176900</v>
@@ -3701,13 +3701,13 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-137400</v>
+        <v>-142600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-46900</v>
+        <v>-48700</v>
       </c>
       <c r="K96" s="3">
         <v>-64600</v>
@@ -3841,25 +3841,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2304400</v>
+        <v>-2391200</v>
       </c>
       <c r="E100" s="3">
-        <v>-751300</v>
+        <v>-779600</v>
       </c>
       <c r="F100" s="3">
-        <v>1011100</v>
+        <v>1049100</v>
       </c>
       <c r="G100" s="3">
-        <v>-280500</v>
+        <v>-291000</v>
       </c>
       <c r="H100" s="3">
-        <v>-381700</v>
+        <v>-396000</v>
       </c>
       <c r="I100" s="3">
-        <v>-569500</v>
+        <v>-590900</v>
       </c>
       <c r="J100" s="3">
-        <v>-441000</v>
+        <v>-457600</v>
       </c>
       <c r="K100" s="3">
         <v>-761600</v>
@@ -3885,19 +3885,19 @@
         <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
         <v>400</v>
       </c>
       <c r="H101" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="I101" s="3">
-        <v>-800</v>
+        <v>-900</v>
       </c>
       <c r="J101" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="K101" s="3">
         <v>2700</v>
@@ -3917,25 +3917,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>42000</v>
+        <v>43600</v>
       </c>
       <c r="E102" s="3">
-        <v>-752800</v>
+        <v>-781200</v>
       </c>
       <c r="F102" s="3">
-        <v>210100</v>
+        <v>218000</v>
       </c>
       <c r="G102" s="3">
-        <v>-195800</v>
+        <v>-203200</v>
       </c>
       <c r="H102" s="3">
-        <v>358000</v>
+        <v>371500</v>
       </c>
       <c r="I102" s="3">
-        <v>16200</v>
+        <v>16800</v>
       </c>
       <c r="J102" s="3">
-        <v>-279800</v>
+        <v>-290300</v>
       </c>
       <c r="K102" s="3">
         <v>228300</v>

--- a/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>ZNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,196 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43281</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42551</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42369</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42185</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11819300</v>
+        <v>5927200</v>
       </c>
       <c r="E8" s="3">
-        <v>10592900</v>
+        <v>12380000</v>
       </c>
       <c r="F8" s="3">
-        <v>11052400</v>
+        <v>11095500</v>
       </c>
       <c r="G8" s="3">
-        <v>9805900</v>
+        <v>11576800</v>
       </c>
       <c r="H8" s="3">
-        <v>9776600</v>
+        <v>10271100</v>
       </c>
       <c r="I8" s="3">
-        <v>8784700</v>
+        <v>10240400</v>
       </c>
       <c r="J8" s="3">
+        <v>9201400</v>
+      </c>
+      <c r="K8" s="3">
         <v>8839000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7765000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8651300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7919000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8487100</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8393000</v>
+        <v>4643600</v>
       </c>
       <c r="E9" s="3">
-        <v>7613400</v>
+        <v>8791200</v>
       </c>
       <c r="F9" s="3">
-        <v>8798000</v>
+        <v>7974600</v>
       </c>
       <c r="G9" s="3">
-        <v>7656400</v>
+        <v>9215400</v>
       </c>
       <c r="H9" s="3">
-        <v>7489400</v>
+        <v>8019600</v>
       </c>
       <c r="I9" s="3">
-        <v>6712700</v>
+        <v>7844700</v>
       </c>
       <c r="J9" s="3">
+        <v>7031100</v>
+      </c>
+      <c r="K9" s="3">
         <v>6592700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5394700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6133200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5550700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6364500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3426300</v>
+        <v>1283600</v>
       </c>
       <c r="E10" s="3">
-        <v>2979500</v>
+        <v>3588800</v>
       </c>
       <c r="F10" s="3">
-        <v>2254400</v>
+        <v>3120900</v>
       </c>
       <c r="G10" s="3">
-        <v>2149500</v>
+        <v>2361400</v>
       </c>
       <c r="H10" s="3">
-        <v>2287200</v>
+        <v>2251500</v>
       </c>
       <c r="I10" s="3">
-        <v>2072000</v>
+        <v>2395700</v>
       </c>
       <c r="J10" s="3">
+        <v>2170300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2246300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2370300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2518100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2368300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2122700</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -856,8 +869,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +908,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -932,84 +949,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2600</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-1900</v>
+        <v>2700</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+        <v>-2000</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
-        <v>31200</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>32700</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2800</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13400</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1879100</v>
+        <v>1895700</v>
       </c>
       <c r="E15" s="3">
-        <v>1696400</v>
+        <v>1968300</v>
       </c>
       <c r="F15" s="3">
-        <v>1076700</v>
+        <v>1776900</v>
       </c>
       <c r="G15" s="3">
-        <v>1011100</v>
+        <v>1127800</v>
       </c>
       <c r="H15" s="3">
-        <v>989700</v>
+        <v>1059100</v>
       </c>
       <c r="I15" s="3">
-        <v>945200</v>
+        <v>1036700</v>
       </c>
       <c r="J15" s="3">
+        <v>990000</v>
+      </c>
+      <c r="K15" s="3">
         <v>926700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>913800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>909200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>870700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>824000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,84 +1047,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11004200</v>
+        <v>6975500</v>
       </c>
       <c r="E17" s="3">
-        <v>9832100</v>
+        <v>11526300</v>
       </c>
       <c r="F17" s="3">
-        <v>10450200</v>
+        <v>10298500</v>
       </c>
       <c r="G17" s="3">
-        <v>9127400</v>
+        <v>10945900</v>
       </c>
       <c r="H17" s="3">
-        <v>9096500</v>
+        <v>9560400</v>
       </c>
       <c r="I17" s="3">
-        <v>8119200</v>
+        <v>9528000</v>
       </c>
       <c r="J17" s="3">
+        <v>8504400</v>
+      </c>
+      <c r="K17" s="3">
         <v>8018300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6753300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7545200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7030800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7909400</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>815000</v>
+        <v>-1048300</v>
       </c>
       <c r="E18" s="3">
-        <v>760900</v>
+        <v>853700</v>
       </c>
       <c r="F18" s="3">
-        <v>602300</v>
+        <v>797000</v>
       </c>
       <c r="G18" s="3">
-        <v>678500</v>
+        <v>630800</v>
       </c>
       <c r="H18" s="3">
-        <v>680100</v>
+        <v>710700</v>
       </c>
       <c r="I18" s="3">
-        <v>665400</v>
+        <v>712400</v>
       </c>
       <c r="J18" s="3">
+        <v>697000</v>
+      </c>
+      <c r="K18" s="3">
         <v>820700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1011700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1106100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>888200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1113,198 +1146,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-141000</v>
+        <v>-250400</v>
       </c>
       <c r="E20" s="3">
-        <v>5500</v>
+        <v>-147700</v>
       </c>
       <c r="F20" s="3">
-        <v>-167000</v>
+        <v>5800</v>
       </c>
       <c r="G20" s="3">
-        <v>-13100</v>
+        <v>-174900</v>
       </c>
       <c r="H20" s="3">
-        <v>207500</v>
+        <v>-13700</v>
       </c>
       <c r="I20" s="3">
-        <v>132000</v>
+        <v>217400</v>
       </c>
       <c r="J20" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-222900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-156100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-826100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>64900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>856700</v>
+        <v>597100</v>
       </c>
       <c r="E21" s="3">
-        <v>2462800</v>
+        <v>897400</v>
       </c>
       <c r="F21" s="3">
-        <v>500900</v>
+        <v>2579700</v>
       </c>
       <c r="G21" s="3">
-        <v>1676500</v>
+        <v>524700</v>
       </c>
       <c r="H21" s="3">
-        <v>932200</v>
+        <v>1756100</v>
       </c>
       <c r="I21" s="3">
-        <v>1742600</v>
+        <v>976500</v>
       </c>
       <c r="J21" s="3">
+        <v>1825300</v>
+      </c>
+      <c r="K21" s="3">
         <v>599500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1769400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>318500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1823800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>432100</v>
+        <v>518300</v>
       </c>
       <c r="E22" s="3">
-        <v>419400</v>
+        <v>452600</v>
       </c>
       <c r="F22" s="3">
-        <v>243400</v>
+        <v>439300</v>
       </c>
       <c r="G22" s="3">
-        <v>223500</v>
+        <v>255000</v>
       </c>
       <c r="H22" s="3">
-        <v>204900</v>
+        <v>234100</v>
       </c>
       <c r="I22" s="3">
-        <v>191400</v>
+        <v>214600</v>
       </c>
       <c r="J22" s="3">
+        <v>200500</v>
+      </c>
+      <c r="K22" s="3">
         <v>180400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>168700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>159400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>165800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>242000</v>
+        <v>-1816900</v>
       </c>
       <c r="E23" s="3">
-        <v>347000</v>
+        <v>253400</v>
       </c>
       <c r="F23" s="3">
-        <v>191800</v>
+        <v>363400</v>
       </c>
       <c r="G23" s="3">
-        <v>441900</v>
+        <v>201000</v>
       </c>
       <c r="H23" s="3">
-        <v>682700</v>
+        <v>462900</v>
       </c>
       <c r="I23" s="3">
-        <v>606000</v>
+        <v>715100</v>
       </c>
       <c r="J23" s="3">
+        <v>634800</v>
+      </c>
+      <c r="K23" s="3">
         <v>417400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>686800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>120700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>787300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>610100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41500</v>
+        <v>-374500</v>
       </c>
       <c r="E24" s="3">
-        <v>99500</v>
+        <v>43500</v>
       </c>
       <c r="F24" s="3">
-        <v>46200</v>
+        <v>104200</v>
       </c>
       <c r="G24" s="3">
-        <v>99000</v>
+        <v>48400</v>
       </c>
       <c r="H24" s="3">
-        <v>147300</v>
+        <v>103700</v>
       </c>
       <c r="I24" s="3">
-        <v>139700</v>
+        <v>154200</v>
       </c>
       <c r="J24" s="3">
+        <v>146300</v>
+      </c>
+      <c r="K24" s="3">
         <v>96900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>157300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>13400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>179600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>143000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1341,84 +1390,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>200400</v>
+        <v>-1442400</v>
       </c>
       <c r="E26" s="3">
-        <v>247500</v>
+        <v>209900</v>
       </c>
       <c r="F26" s="3">
-        <v>145700</v>
+        <v>259200</v>
       </c>
       <c r="G26" s="3">
-        <v>342900</v>
+        <v>152600</v>
       </c>
       <c r="H26" s="3">
-        <v>535500</v>
+        <v>359200</v>
       </c>
       <c r="I26" s="3">
-        <v>466300</v>
+        <v>560900</v>
       </c>
       <c r="J26" s="3">
+        <v>488500</v>
+      </c>
+      <c r="K26" s="3">
         <v>320500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>529600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>107300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>607700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>139100</v>
+        <v>-1244200</v>
       </c>
       <c r="E27" s="3">
-        <v>244300</v>
+        <v>145700</v>
       </c>
       <c r="F27" s="3">
-        <v>116200</v>
+        <v>255900</v>
       </c>
       <c r="G27" s="3">
-        <v>304300</v>
+        <v>121700</v>
       </c>
       <c r="H27" s="3">
-        <v>463100</v>
+        <v>318700</v>
       </c>
       <c r="I27" s="3">
-        <v>402600</v>
+        <v>485100</v>
       </c>
       <c r="J27" s="3">
+        <v>421700</v>
+      </c>
+      <c r="K27" s="3">
         <v>279700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>447400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>516300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1455,8 +1513,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +1554,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1595,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1569,84 +1636,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>141000</v>
+        <v>250400</v>
       </c>
       <c r="E32" s="3">
-        <v>-5500</v>
+        <v>147700</v>
       </c>
       <c r="F32" s="3">
-        <v>167000</v>
+        <v>-5800</v>
       </c>
       <c r="G32" s="3">
-        <v>13100</v>
+        <v>174900</v>
       </c>
       <c r="H32" s="3">
-        <v>-207500</v>
+        <v>13700</v>
       </c>
       <c r="I32" s="3">
-        <v>-132000</v>
+        <v>-217400</v>
       </c>
       <c r="J32" s="3">
+        <v>-138300</v>
+      </c>
+      <c r="K32" s="3">
         <v>222900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>156100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>826100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-64900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-214400</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>139100</v>
+        <v>-1244200</v>
       </c>
       <c r="E33" s="3">
-        <v>244300</v>
+        <v>145700</v>
       </c>
       <c r="F33" s="3">
-        <v>116200</v>
+        <v>255900</v>
       </c>
       <c r="G33" s="3">
-        <v>304300</v>
+        <v>121700</v>
       </c>
       <c r="H33" s="3">
-        <v>463100</v>
+        <v>318700</v>
       </c>
       <c r="I33" s="3">
-        <v>402600</v>
+        <v>485100</v>
       </c>
       <c r="J33" s="3">
+        <v>421700</v>
+      </c>
+      <c r="K33" s="3">
         <v>279700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>447400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>516300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1683,89 +1759,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>139100</v>
+        <v>-1244200</v>
       </c>
       <c r="E35" s="3">
-        <v>244300</v>
+        <v>145700</v>
       </c>
       <c r="F35" s="3">
-        <v>116200</v>
+        <v>255900</v>
       </c>
       <c r="G35" s="3">
-        <v>304300</v>
+        <v>121700</v>
       </c>
       <c r="H35" s="3">
-        <v>463100</v>
+        <v>318700</v>
       </c>
       <c r="I35" s="3">
-        <v>402600</v>
+        <v>485100</v>
       </c>
       <c r="J35" s="3">
+        <v>421700</v>
+      </c>
+      <c r="K35" s="3">
         <v>279700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>447400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>516300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43281</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42551</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42369</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42185</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1780,8 +1865,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1796,60 +1882,64 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>268500</v>
+        <v>2642300</v>
       </c>
       <c r="E41" s="3">
-        <v>225000</v>
+        <v>281300</v>
       </c>
       <c r="F41" s="3">
-        <v>1006200</v>
+        <v>235600</v>
       </c>
       <c r="G41" s="3">
-        <v>788200</v>
+        <v>1053900</v>
       </c>
       <c r="H41" s="3">
-        <v>991300</v>
+        <v>825600</v>
       </c>
       <c r="I41" s="3">
-        <v>619800</v>
+        <v>1038400</v>
       </c>
       <c r="J41" s="3">
+        <v>649200</v>
+      </c>
+      <c r="K41" s="3">
         <v>603000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>882500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>676700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1425500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2241700</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>3600</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3">
-        <v>63900</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+        <v>3800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>66900</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1863,8 +1953,8 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1872,262 +1962,283 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1609900</v>
+        <v>1727300</v>
       </c>
       <c r="E43" s="3">
-        <v>1796500</v>
+        <v>1686300</v>
       </c>
       <c r="F43" s="3">
-        <v>1598400</v>
+        <v>1881700</v>
       </c>
       <c r="G43" s="3">
-        <v>1525500</v>
+        <v>1674200</v>
       </c>
       <c r="H43" s="3">
-        <v>1159400</v>
+        <v>1597900</v>
       </c>
       <c r="I43" s="3">
-        <v>1093100</v>
+        <v>1214400</v>
       </c>
       <c r="J43" s="3">
+        <v>1145000</v>
+      </c>
+      <c r="K43" s="3">
         <v>940200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1005700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>984400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1276600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1313700</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>274900</v>
+        <v>319300</v>
       </c>
       <c r="E44" s="3">
-        <v>287400</v>
+        <v>288000</v>
       </c>
       <c r="F44" s="3">
+        <v>301000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>258500</v>
+      </c>
+      <c r="H44" s="3">
+        <v>286000</v>
+      </c>
+      <c r="I44" s="3">
         <v>246700</v>
       </c>
-      <c r="G44" s="3">
-        <v>273000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>235600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>254900</v>
-      </c>
       <c r="J44" s="3">
+        <v>267000</v>
+      </c>
+      <c r="K44" s="3">
         <v>230600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>255100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>238300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>256500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>277500</v>
+        <v>103900</v>
       </c>
       <c r="E45" s="3">
-        <v>435500</v>
+        <v>290700</v>
       </c>
       <c r="F45" s="3">
-        <v>580800</v>
+        <v>456200</v>
       </c>
       <c r="G45" s="3">
-        <v>233100</v>
+        <v>608300</v>
       </c>
       <c r="H45" s="3">
-        <v>211000</v>
+        <v>244200</v>
       </c>
       <c r="I45" s="3">
-        <v>237900</v>
+        <v>221000</v>
       </c>
       <c r="J45" s="3">
+        <v>249200</v>
+      </c>
+      <c r="K45" s="3">
         <v>225100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>220500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>195000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>145100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>208400</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2430900</v>
+        <v>4792800</v>
       </c>
       <c r="E46" s="3">
-        <v>2748000</v>
+        <v>2546200</v>
       </c>
       <c r="F46" s="3">
-        <v>3496000</v>
+        <v>2878400</v>
       </c>
       <c r="G46" s="3">
-        <v>2819800</v>
+        <v>3661800</v>
       </c>
       <c r="H46" s="3">
-        <v>2597300</v>
+        <v>2953600</v>
       </c>
       <c r="I46" s="3">
-        <v>2205800</v>
+        <v>2720500</v>
       </c>
       <c r="J46" s="3">
+        <v>2310400</v>
+      </c>
+      <c r="K46" s="3">
         <v>1998900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2363800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2094500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3103700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4005300</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1170300</v>
+        <v>1059700</v>
       </c>
       <c r="E47" s="3">
-        <v>1121900</v>
+        <v>1225800</v>
       </c>
       <c r="F47" s="3">
-        <v>1128400</v>
+        <v>1175100</v>
       </c>
       <c r="G47" s="3">
-        <v>872300</v>
+        <v>1182000</v>
       </c>
       <c r="H47" s="3">
-        <v>786100</v>
+        <v>913600</v>
       </c>
       <c r="I47" s="3">
-        <v>831700</v>
+        <v>823400</v>
       </c>
       <c r="J47" s="3">
+        <v>871200</v>
+      </c>
+      <c r="K47" s="3">
         <v>789900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>676500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>689800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>686700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>598000</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>40260800</v>
+        <v>41478600</v>
       </c>
       <c r="E48" s="3">
-        <v>39131800</v>
+        <v>42170900</v>
       </c>
       <c r="F48" s="3">
-        <v>30278000</v>
+        <v>40988300</v>
       </c>
       <c r="G48" s="3">
-        <v>28713100</v>
+        <v>31714400</v>
       </c>
       <c r="H48" s="3">
-        <v>27471600</v>
+        <v>30075300</v>
       </c>
       <c r="I48" s="3">
-        <v>25811600</v>
+        <v>28774900</v>
       </c>
       <c r="J48" s="3">
+        <v>27036100</v>
+      </c>
+      <c r="K48" s="3">
         <v>25510500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23579600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24087400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23502400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22367100</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34400</v>
+        <v>36100</v>
       </c>
       <c r="E49" s="3">
-        <v>34400</v>
+        <v>36100</v>
       </c>
       <c r="F49" s="3">
-        <v>34400</v>
+        <v>36100</v>
       </c>
       <c r="G49" s="3">
-        <v>34400</v>
+        <v>36100</v>
       </c>
       <c r="H49" s="3">
-        <v>34400</v>
+        <v>36100</v>
       </c>
       <c r="I49" s="3">
+        <v>36100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K49" s="3">
         <v>26400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>26400</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
@@ -2138,8 +2249,11 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2176,8 +2290,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2214,46 +2331,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>678800</v>
+        <v>1277400</v>
       </c>
       <c r="E52" s="3">
-        <v>599100</v>
+        <v>711000</v>
       </c>
       <c r="F52" s="3">
-        <v>927600</v>
+        <v>627500</v>
       </c>
       <c r="G52" s="3">
-        <v>885200</v>
+        <v>971600</v>
       </c>
       <c r="H52" s="3">
-        <v>875000</v>
+        <v>927200</v>
       </c>
       <c r="I52" s="3">
-        <v>751400</v>
+        <v>916500</v>
       </c>
       <c r="J52" s="3">
+        <v>787100</v>
+      </c>
+      <c r="K52" s="3">
         <v>784400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>779800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>730900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>634300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2290,46 +2413,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44575200</v>
+        <v>48644500</v>
       </c>
       <c r="E54" s="3">
-        <v>43635200</v>
+        <v>46689900</v>
       </c>
       <c r="F54" s="3">
-        <v>35864400</v>
+        <v>45705400</v>
       </c>
       <c r="G54" s="3">
-        <v>33324800</v>
+        <v>37565900</v>
       </c>
       <c r="H54" s="3">
-        <v>31764400</v>
+        <v>34905800</v>
       </c>
       <c r="I54" s="3">
-        <v>29626900</v>
+        <v>33271400</v>
       </c>
       <c r="J54" s="3">
+        <v>31032500</v>
+      </c>
+      <c r="K54" s="3">
         <v>29110200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27399800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27602600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27927100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27586300</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2344,8 +2473,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2360,236 +2490,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>336500</v>
+        <v>274000</v>
       </c>
       <c r="E57" s="3">
-        <v>407400</v>
+        <v>352500</v>
       </c>
       <c r="F57" s="3">
-        <v>335300</v>
+        <v>426700</v>
       </c>
       <c r="G57" s="3">
-        <v>293700</v>
+        <v>351200</v>
       </c>
       <c r="H57" s="3">
-        <v>308600</v>
+        <v>307600</v>
       </c>
       <c r="I57" s="3">
-        <v>284200</v>
+        <v>323300</v>
       </c>
       <c r="J57" s="3">
+        <v>297700</v>
+      </c>
+      <c r="K57" s="3">
         <v>276400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>254400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>371000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>310300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8356700</v>
+        <v>10451400</v>
       </c>
       <c r="E58" s="3">
-        <v>8670800</v>
+        <v>8753100</v>
       </c>
       <c r="F58" s="3">
-        <v>7014000</v>
+        <v>9082200</v>
       </c>
       <c r="G58" s="3">
-        <v>7088100</v>
+        <v>7346800</v>
       </c>
       <c r="H58" s="3">
-        <v>5215100</v>
+        <v>7424400</v>
       </c>
       <c r="I58" s="3">
-        <v>4352500</v>
+        <v>5462500</v>
       </c>
       <c r="J58" s="3">
+        <v>4559000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5147100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5443500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5404800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4074700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3922400</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5174800</v>
+        <v>4006200</v>
       </c>
       <c r="E59" s="3">
-        <v>4713900</v>
+        <v>5420300</v>
       </c>
       <c r="F59" s="3">
-        <v>4804500</v>
+        <v>4937500</v>
       </c>
       <c r="G59" s="3">
-        <v>4533600</v>
+        <v>5032400</v>
       </c>
       <c r="H59" s="3">
-        <v>4581000</v>
+        <v>4748700</v>
       </c>
       <c r="I59" s="3">
-        <v>4394700</v>
+        <v>4798300</v>
       </c>
       <c r="J59" s="3">
+        <v>4603200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4442300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3991600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3950200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3701800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3702400</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13868000</v>
+        <v>14731600</v>
       </c>
       <c r="E60" s="3">
-        <v>13792100</v>
+        <v>14525900</v>
       </c>
       <c r="F60" s="3">
-        <v>12153900</v>
+        <v>14446400</v>
       </c>
       <c r="G60" s="3">
-        <v>11915400</v>
+        <v>12730500</v>
       </c>
       <c r="H60" s="3">
-        <v>10104700</v>
+        <v>12480700</v>
       </c>
       <c r="I60" s="3">
-        <v>9031400</v>
+        <v>10584100</v>
       </c>
       <c r="J60" s="3">
+        <v>9459900</v>
+      </c>
+      <c r="K60" s="3">
         <v>9865800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9689500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9726000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8086900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7865700</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18547800</v>
+        <v>20193500</v>
       </c>
       <c r="E61" s="3">
-        <v>17795600</v>
+        <v>19427700</v>
       </c>
       <c r="F61" s="3">
-        <v>11377600</v>
+        <v>18639900</v>
       </c>
       <c r="G61" s="3">
-        <v>10987400</v>
+        <v>11917400</v>
       </c>
       <c r="H61" s="3">
-        <v>11662300</v>
+        <v>11508600</v>
       </c>
       <c r="I61" s="3">
-        <v>11376000</v>
+        <v>12215500</v>
       </c>
       <c r="J61" s="3">
+        <v>11915700</v>
+      </c>
+      <c r="K61" s="3">
         <v>10498000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9369000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9690000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11690700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12504800</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>928900</v>
+        <v>1034300</v>
       </c>
       <c r="E62" s="3">
-        <v>999800</v>
+        <v>973000</v>
       </c>
       <c r="F62" s="3">
-        <v>936900</v>
+        <v>1047200</v>
       </c>
       <c r="G62" s="3">
-        <v>1004800</v>
+        <v>981300</v>
       </c>
       <c r="H62" s="3">
-        <v>914400</v>
+        <v>1052500</v>
       </c>
       <c r="I62" s="3">
-        <v>860600</v>
+        <v>957700</v>
       </c>
       <c r="J62" s="3">
+        <v>901500</v>
+      </c>
+      <c r="K62" s="3">
         <v>762300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>804600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>821900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>829000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>745200</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2626,8 +2775,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,8 +2816,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2702,46 +2857,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35265000</v>
+        <v>37750700</v>
       </c>
       <c r="E66" s="3">
-        <v>34457400</v>
+        <v>36938100</v>
       </c>
       <c r="F66" s="3">
-        <v>26387100</v>
+        <v>36092100</v>
       </c>
       <c r="G66" s="3">
-        <v>25800700</v>
+        <v>27639000</v>
       </c>
       <c r="H66" s="3">
-        <v>24512200</v>
+        <v>27024700</v>
       </c>
       <c r="I66" s="3">
-        <v>23040000</v>
+        <v>25675100</v>
       </c>
       <c r="J66" s="3">
+        <v>24133100</v>
+      </c>
+      <c r="K66" s="3">
         <v>22799100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21477100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21808000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22162500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22387500</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2756,8 +2917,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2794,8 +2956,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2832,8 +2997,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2870,8 +3038,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2908,46 +3079,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3743400</v>
+        <v>2652100</v>
       </c>
       <c r="E72" s="3">
-        <v>3605500</v>
+        <v>3921000</v>
       </c>
       <c r="F72" s="3">
-        <v>3898700</v>
+        <v>3776500</v>
       </c>
       <c r="G72" s="3">
-        <v>3782200</v>
+        <v>4083700</v>
       </c>
       <c r="H72" s="3">
-        <v>3542300</v>
+        <v>3961700</v>
       </c>
       <c r="I72" s="3">
-        <v>3079000</v>
+        <v>3710400</v>
       </c>
       <c r="J72" s="3">
+        <v>3225100</v>
+      </c>
+      <c r="K72" s="3">
         <v>2802600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2492800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2232200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2201700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1709500</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2984,8 +3161,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3022,8 +3202,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3060,46 +3243,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9310100</v>
+        <v>10893800</v>
       </c>
       <c r="E76" s="3">
-        <v>9177800</v>
+        <v>9751800</v>
       </c>
       <c r="F76" s="3">
-        <v>9477300</v>
+        <v>9613200</v>
       </c>
       <c r="G76" s="3">
-        <v>7524100</v>
+        <v>9926900</v>
       </c>
       <c r="H76" s="3">
-        <v>7252200</v>
+        <v>7881000</v>
       </c>
       <c r="I76" s="3">
-        <v>6586900</v>
+        <v>7596300</v>
       </c>
       <c r="J76" s="3">
+        <v>6899400</v>
+      </c>
+      <c r="K76" s="3">
         <v>6311100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5922700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5794700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5764500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5198800</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3136,89 +3325,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43281</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42551</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42369</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42185</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>139100</v>
+        <v>-1244200</v>
       </c>
       <c r="E81" s="3">
-        <v>244300</v>
+        <v>145700</v>
       </c>
       <c r="F81" s="3">
-        <v>116200</v>
+        <v>255900</v>
       </c>
       <c r="G81" s="3">
-        <v>304300</v>
+        <v>121700</v>
       </c>
       <c r="H81" s="3">
-        <v>463100</v>
+        <v>318700</v>
       </c>
       <c r="I81" s="3">
-        <v>402600</v>
+        <v>485100</v>
       </c>
       <c r="J81" s="3">
+        <v>421700</v>
+      </c>
+      <c r="K81" s="3">
         <v>279700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>447400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>516300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3233,8 +3431,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3470,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,8 +3511,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3347,8 +3552,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3385,8 +3593,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3423,8 +3634,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3461,46 +3675,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3076100</v>
+        <v>-1191400</v>
       </c>
       <c r="E89" s="3">
-        <v>1451400</v>
+        <v>3222100</v>
       </c>
       <c r="F89" s="3">
-        <v>1165500</v>
+        <v>1520300</v>
       </c>
       <c r="G89" s="3">
-        <v>1069300</v>
+        <v>1220800</v>
       </c>
       <c r="H89" s="3">
-        <v>1541300</v>
+        <v>1120100</v>
       </c>
       <c r="I89" s="3">
-        <v>1033900</v>
+        <v>1614400</v>
       </c>
       <c r="J89" s="3">
+        <v>1082900</v>
+      </c>
+      <c r="K89" s="3">
         <v>2273000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1164100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2055300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1467000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1576600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3515,46 +3735,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-695200</v>
+        <v>-454400</v>
       </c>
       <c r="E91" s="3">
-        <v>-1573600</v>
+        <v>-728200</v>
       </c>
       <c r="F91" s="3">
-        <v>-2117000</v>
+        <v>-1648200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1373300</v>
+        <v>-2217500</v>
       </c>
       <c r="H91" s="3">
-        <v>-1221200</v>
+        <v>-1438400</v>
       </c>
       <c r="I91" s="3">
-        <v>-789600</v>
+        <v>-1279200</v>
       </c>
       <c r="J91" s="3">
+        <v>-827100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2249500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-499000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1157600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-644000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-355100</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3591,8 +3815,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3629,46 +3856,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-642100</v>
+        <v>-474900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1453200</v>
+        <v>-672500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1997800</v>
+        <v>-1522100</v>
       </c>
       <c r="G94" s="3">
-        <v>-981900</v>
+        <v>-2092600</v>
       </c>
       <c r="H94" s="3">
-        <v>-770900</v>
+        <v>-1028500</v>
       </c>
       <c r="I94" s="3">
-        <v>-425200</v>
+        <v>-807500</v>
       </c>
       <c r="J94" s="3">
+        <v>-445400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2108300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-176900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-454700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-573900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-178600</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3683,8 +3916,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3701,28 +3935,31 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-142600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-149400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-48700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-64600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3759,8 +3996,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3797,8 +4037,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3835,118 +4078,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2391200</v>
+        <v>4026300</v>
       </c>
       <c r="E100" s="3">
-        <v>-779600</v>
+        <v>-2504700</v>
       </c>
       <c r="F100" s="3">
-        <v>1049100</v>
+        <v>-816600</v>
       </c>
       <c r="G100" s="3">
-        <v>-291000</v>
+        <v>1098900</v>
       </c>
       <c r="H100" s="3">
-        <v>-396000</v>
+        <v>-304800</v>
       </c>
       <c r="I100" s="3">
-        <v>-590900</v>
+        <v>-414800</v>
       </c>
       <c r="J100" s="3">
+        <v>-619000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-457600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-761600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2357000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1753200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-898500</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="F101" s="3">
+        <v>200</v>
+      </c>
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>400</v>
-      </c>
       <c r="H101" s="3">
-        <v>-2900</v>
+        <v>500</v>
       </c>
       <c r="I101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>43600</v>
+        <v>2361100</v>
       </c>
       <c r="E102" s="3">
-        <v>-781200</v>
+        <v>45600</v>
       </c>
       <c r="F102" s="3">
-        <v>218000</v>
+        <v>-818300</v>
       </c>
       <c r="G102" s="3">
-        <v>-203200</v>
+        <v>228300</v>
       </c>
       <c r="H102" s="3">
-        <v>371500</v>
+        <v>-212800</v>
       </c>
       <c r="I102" s="3">
-        <v>16800</v>
+        <v>389100</v>
       </c>
       <c r="J102" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-290300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>228300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-748700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-862100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
@@ -736,25 +736,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5927200</v>
+        <v>5952900</v>
       </c>
       <c r="E8" s="3">
-        <v>12380000</v>
+        <v>12433700</v>
       </c>
       <c r="F8" s="3">
-        <v>11095500</v>
+        <v>11143600</v>
       </c>
       <c r="G8" s="3">
-        <v>11576800</v>
+        <v>11627000</v>
       </c>
       <c r="H8" s="3">
-        <v>10271100</v>
+        <v>10315700</v>
       </c>
       <c r="I8" s="3">
-        <v>10240400</v>
+        <v>10284800</v>
       </c>
       <c r="J8" s="3">
-        <v>9201400</v>
+        <v>9241400</v>
       </c>
       <c r="K8" s="3">
         <v>8839000</v>
@@ -777,25 +777,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4643600</v>
+        <v>4663800</v>
       </c>
       <c r="E9" s="3">
-        <v>8791200</v>
+        <v>8829300</v>
       </c>
       <c r="F9" s="3">
-        <v>7974600</v>
+        <v>8009200</v>
       </c>
       <c r="G9" s="3">
-        <v>9215400</v>
+        <v>9255400</v>
       </c>
       <c r="H9" s="3">
-        <v>8019600</v>
+        <v>8054400</v>
       </c>
       <c r="I9" s="3">
-        <v>7844700</v>
+        <v>7878700</v>
       </c>
       <c r="J9" s="3">
-        <v>7031100</v>
+        <v>7061600</v>
       </c>
       <c r="K9" s="3">
         <v>6592700</v>
@@ -818,25 +818,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1283600</v>
+        <v>1289200</v>
       </c>
       <c r="E10" s="3">
-        <v>3588800</v>
+        <v>3604400</v>
       </c>
       <c r="F10" s="3">
-        <v>3120900</v>
+        <v>3134400</v>
       </c>
       <c r="G10" s="3">
-        <v>2361400</v>
+        <v>2371600</v>
       </c>
       <c r="H10" s="3">
-        <v>2251500</v>
+        <v>2261300</v>
       </c>
       <c r="I10" s="3">
-        <v>2395700</v>
+        <v>2406100</v>
       </c>
       <c r="J10" s="3">
-        <v>2170300</v>
+        <v>2179700</v>
       </c>
       <c r="K10" s="3">
         <v>2246300</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F14" s="3">
         <v>-2000</v>
@@ -973,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>32700</v>
+        <v>32800</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -999,25 +999,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1895700</v>
+        <v>1903900</v>
       </c>
       <c r="E15" s="3">
-        <v>1968300</v>
+        <v>1976800</v>
       </c>
       <c r="F15" s="3">
-        <v>1776900</v>
+        <v>1784600</v>
       </c>
       <c r="G15" s="3">
-        <v>1127800</v>
+        <v>1132700</v>
       </c>
       <c r="H15" s="3">
-        <v>1059100</v>
+        <v>1063700</v>
       </c>
       <c r="I15" s="3">
-        <v>1036700</v>
+        <v>1041200</v>
       </c>
       <c r="J15" s="3">
-        <v>990000</v>
+        <v>994300</v>
       </c>
       <c r="K15" s="3">
         <v>926700</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6975500</v>
+        <v>7005700</v>
       </c>
       <c r="E17" s="3">
-        <v>11526300</v>
+        <v>11576300</v>
       </c>
       <c r="F17" s="3">
-        <v>10298500</v>
+        <v>10343200</v>
       </c>
       <c r="G17" s="3">
-        <v>10945900</v>
+        <v>10993400</v>
       </c>
       <c r="H17" s="3">
-        <v>9560400</v>
+        <v>9601900</v>
       </c>
       <c r="I17" s="3">
-        <v>9528000</v>
+        <v>9569400</v>
       </c>
       <c r="J17" s="3">
-        <v>8504400</v>
+        <v>8541300</v>
       </c>
       <c r="K17" s="3">
         <v>8018300</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1048300</v>
+        <v>-1052800</v>
       </c>
       <c r="E18" s="3">
-        <v>853700</v>
+        <v>857400</v>
       </c>
       <c r="F18" s="3">
-        <v>797000</v>
+        <v>800400</v>
       </c>
       <c r="G18" s="3">
-        <v>630800</v>
+        <v>633600</v>
       </c>
       <c r="H18" s="3">
-        <v>710700</v>
+        <v>713800</v>
       </c>
       <c r="I18" s="3">
-        <v>712400</v>
+        <v>715500</v>
       </c>
       <c r="J18" s="3">
-        <v>697000</v>
+        <v>700000</v>
       </c>
       <c r="K18" s="3">
         <v>820700</v>
@@ -1153,25 +1153,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-250400</v>
+        <v>-251500</v>
       </c>
       <c r="E20" s="3">
-        <v>-147700</v>
+        <v>-148300</v>
       </c>
       <c r="F20" s="3">
         <v>5800</v>
       </c>
       <c r="G20" s="3">
-        <v>-174900</v>
+        <v>-175700</v>
       </c>
       <c r="H20" s="3">
-        <v>-13700</v>
+        <v>-13800</v>
       </c>
       <c r="I20" s="3">
-        <v>217400</v>
+        <v>218300</v>
       </c>
       <c r="J20" s="3">
-        <v>138300</v>
+        <v>138900</v>
       </c>
       <c r="K20" s="3">
         <v>-222900</v>
@@ -1194,25 +1194,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>597100</v>
+        <v>599700</v>
       </c>
       <c r="E21" s="3">
-        <v>897400</v>
+        <v>901200</v>
       </c>
       <c r="F21" s="3">
-        <v>2579700</v>
+        <v>2590800</v>
       </c>
       <c r="G21" s="3">
-        <v>524700</v>
+        <v>526900</v>
       </c>
       <c r="H21" s="3">
-        <v>1756100</v>
+        <v>1763700</v>
       </c>
       <c r="I21" s="3">
-        <v>976500</v>
+        <v>980700</v>
       </c>
       <c r="J21" s="3">
-        <v>1825300</v>
+        <v>1833200</v>
       </c>
       <c r="K21" s="3">
         <v>599500</v>
@@ -1235,25 +1235,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>518300</v>
+        <v>520500</v>
       </c>
       <c r="E22" s="3">
-        <v>452600</v>
+        <v>454500</v>
       </c>
       <c r="F22" s="3">
-        <v>439300</v>
+        <v>441200</v>
       </c>
       <c r="G22" s="3">
-        <v>255000</v>
+        <v>256100</v>
       </c>
       <c r="H22" s="3">
-        <v>234100</v>
+        <v>235100</v>
       </c>
       <c r="I22" s="3">
-        <v>214600</v>
+        <v>215600</v>
       </c>
       <c r="J22" s="3">
-        <v>200500</v>
+        <v>201400</v>
       </c>
       <c r="K22" s="3">
         <v>180400</v>
@@ -1276,25 +1276,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1816900</v>
+        <v>-1824800</v>
       </c>
       <c r="E23" s="3">
-        <v>253400</v>
+        <v>254500</v>
       </c>
       <c r="F23" s="3">
-        <v>363400</v>
+        <v>365000</v>
       </c>
       <c r="G23" s="3">
-        <v>201000</v>
+        <v>201800</v>
       </c>
       <c r="H23" s="3">
-        <v>462900</v>
+        <v>464900</v>
       </c>
       <c r="I23" s="3">
-        <v>715100</v>
+        <v>718200</v>
       </c>
       <c r="J23" s="3">
-        <v>634800</v>
+        <v>637600</v>
       </c>
       <c r="K23" s="3">
         <v>417400</v>
@@ -1317,25 +1317,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-374500</v>
+        <v>-376100</v>
       </c>
       <c r="E24" s="3">
-        <v>43500</v>
+        <v>43700</v>
       </c>
       <c r="F24" s="3">
+        <v>104700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>48600</v>
+      </c>
+      <c r="H24" s="3">
         <v>104200</v>
       </c>
-      <c r="G24" s="3">
-        <v>48400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>103700</v>
-      </c>
       <c r="I24" s="3">
-        <v>154200</v>
+        <v>154900</v>
       </c>
       <c r="J24" s="3">
-        <v>146300</v>
+        <v>147000</v>
       </c>
       <c r="K24" s="3">
         <v>96900</v>
@@ -1399,25 +1399,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1442400</v>
+        <v>-1448700</v>
       </c>
       <c r="E26" s="3">
-        <v>209900</v>
+        <v>210800</v>
       </c>
       <c r="F26" s="3">
-        <v>259200</v>
+        <v>260300</v>
       </c>
       <c r="G26" s="3">
-        <v>152600</v>
+        <v>153200</v>
       </c>
       <c r="H26" s="3">
-        <v>359200</v>
+        <v>360700</v>
       </c>
       <c r="I26" s="3">
-        <v>560900</v>
+        <v>563300</v>
       </c>
       <c r="J26" s="3">
-        <v>488500</v>
+        <v>490600</v>
       </c>
       <c r="K26" s="3">
         <v>320500</v>
@@ -1440,25 +1440,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1244200</v>
+        <v>-1249600</v>
       </c>
       <c r="E27" s="3">
-        <v>145700</v>
+        <v>146400</v>
       </c>
       <c r="F27" s="3">
-        <v>255900</v>
+        <v>257000</v>
       </c>
       <c r="G27" s="3">
-        <v>121700</v>
+        <v>122200</v>
       </c>
       <c r="H27" s="3">
-        <v>318700</v>
+        <v>320100</v>
       </c>
       <c r="I27" s="3">
-        <v>485100</v>
+        <v>487200</v>
       </c>
       <c r="J27" s="3">
-        <v>421700</v>
+        <v>423500</v>
       </c>
       <c r="K27" s="3">
         <v>279700</v>
@@ -1645,25 +1645,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>250400</v>
+        <v>251500</v>
       </c>
       <c r="E32" s="3">
-        <v>147700</v>
+        <v>148300</v>
       </c>
       <c r="F32" s="3">
         <v>-5800</v>
       </c>
       <c r="G32" s="3">
-        <v>174900</v>
+        <v>175700</v>
       </c>
       <c r="H32" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="I32" s="3">
-        <v>-217400</v>
+        <v>-218300</v>
       </c>
       <c r="J32" s="3">
-        <v>-138300</v>
+        <v>-138900</v>
       </c>
       <c r="K32" s="3">
         <v>222900</v>
@@ -1686,25 +1686,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1244200</v>
+        <v>-1249600</v>
       </c>
       <c r="E33" s="3">
-        <v>145700</v>
+        <v>146400</v>
       </c>
       <c r="F33" s="3">
-        <v>255900</v>
+        <v>257000</v>
       </c>
       <c r="G33" s="3">
-        <v>121700</v>
+        <v>122200</v>
       </c>
       <c r="H33" s="3">
-        <v>318700</v>
+        <v>320100</v>
       </c>
       <c r="I33" s="3">
-        <v>485100</v>
+        <v>487200</v>
       </c>
       <c r="J33" s="3">
-        <v>421700</v>
+        <v>423500</v>
       </c>
       <c r="K33" s="3">
         <v>279700</v>
@@ -1768,25 +1768,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1244200</v>
+        <v>-1249600</v>
       </c>
       <c r="E35" s="3">
-        <v>145700</v>
+        <v>146400</v>
       </c>
       <c r="F35" s="3">
-        <v>255900</v>
+        <v>257000</v>
       </c>
       <c r="G35" s="3">
-        <v>121700</v>
+        <v>122200</v>
       </c>
       <c r="H35" s="3">
-        <v>318700</v>
+        <v>320100</v>
       </c>
       <c r="I35" s="3">
-        <v>485100</v>
+        <v>487200</v>
       </c>
       <c r="J35" s="3">
-        <v>421700</v>
+        <v>423500</v>
       </c>
       <c r="K35" s="3">
         <v>279700</v>
@@ -1889,25 +1889,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2642300</v>
+        <v>2653800</v>
       </c>
       <c r="E41" s="3">
-        <v>281300</v>
+        <v>282500</v>
       </c>
       <c r="F41" s="3">
-        <v>235600</v>
+        <v>236700</v>
       </c>
       <c r="G41" s="3">
-        <v>1053900</v>
+        <v>1058500</v>
       </c>
       <c r="H41" s="3">
-        <v>825600</v>
+        <v>829100</v>
       </c>
       <c r="I41" s="3">
-        <v>1038400</v>
+        <v>1042900</v>
       </c>
       <c r="J41" s="3">
-        <v>649200</v>
+        <v>652100</v>
       </c>
       <c r="K41" s="3">
         <v>603000</v>
@@ -1939,7 +1939,7 @@
         <v>3800</v>
       </c>
       <c r="G42" s="3">
-        <v>66900</v>
+        <v>67200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1971,25 +1971,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1727300</v>
+        <v>1734800</v>
       </c>
       <c r="E43" s="3">
-        <v>1686300</v>
+        <v>1693600</v>
       </c>
       <c r="F43" s="3">
-        <v>1881700</v>
+        <v>1889900</v>
       </c>
       <c r="G43" s="3">
-        <v>1674200</v>
+        <v>1681500</v>
       </c>
       <c r="H43" s="3">
-        <v>1597900</v>
+        <v>1604800</v>
       </c>
       <c r="I43" s="3">
-        <v>1214400</v>
+        <v>1219600</v>
       </c>
       <c r="J43" s="3">
-        <v>1145000</v>
+        <v>1150000</v>
       </c>
       <c r="K43" s="3">
         <v>940200</v>
@@ -2012,25 +2012,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>319300</v>
+        <v>320700</v>
       </c>
       <c r="E44" s="3">
-        <v>288000</v>
+        <v>289200</v>
       </c>
       <c r="F44" s="3">
-        <v>301000</v>
+        <v>302400</v>
       </c>
       <c r="G44" s="3">
-        <v>258500</v>
+        <v>259600</v>
       </c>
       <c r="H44" s="3">
-        <v>286000</v>
+        <v>287200</v>
       </c>
       <c r="I44" s="3">
-        <v>246700</v>
+        <v>247800</v>
       </c>
       <c r="J44" s="3">
-        <v>267000</v>
+        <v>268100</v>
       </c>
       <c r="K44" s="3">
         <v>230600</v>
@@ -2053,25 +2053,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103900</v>
+        <v>104300</v>
       </c>
       <c r="E45" s="3">
-        <v>290700</v>
+        <v>292000</v>
       </c>
       <c r="F45" s="3">
-        <v>456200</v>
+        <v>458200</v>
       </c>
       <c r="G45" s="3">
-        <v>608300</v>
+        <v>611000</v>
       </c>
       <c r="H45" s="3">
-        <v>244200</v>
+        <v>245200</v>
       </c>
       <c r="I45" s="3">
-        <v>221000</v>
+        <v>222000</v>
       </c>
       <c r="J45" s="3">
-        <v>249200</v>
+        <v>250300</v>
       </c>
       <c r="K45" s="3">
         <v>225100</v>
@@ -2094,25 +2094,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4792800</v>
+        <v>4813600</v>
       </c>
       <c r="E46" s="3">
-        <v>2546200</v>
+        <v>2557200</v>
       </c>
       <c r="F46" s="3">
-        <v>2878400</v>
+        <v>2890900</v>
       </c>
       <c r="G46" s="3">
-        <v>3661800</v>
+        <v>3677700</v>
       </c>
       <c r="H46" s="3">
-        <v>2953600</v>
+        <v>2966400</v>
       </c>
       <c r="I46" s="3">
-        <v>2720500</v>
+        <v>2732300</v>
       </c>
       <c r="J46" s="3">
-        <v>2310400</v>
+        <v>2320400</v>
       </c>
       <c r="K46" s="3">
         <v>1998900</v>
@@ -2135,25 +2135,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1059700</v>
+        <v>1064300</v>
       </c>
       <c r="E47" s="3">
-        <v>1225800</v>
+        <v>1231100</v>
       </c>
       <c r="F47" s="3">
-        <v>1175100</v>
+        <v>1180200</v>
       </c>
       <c r="G47" s="3">
-        <v>1182000</v>
+        <v>1187100</v>
       </c>
       <c r="H47" s="3">
-        <v>913600</v>
+        <v>917600</v>
       </c>
       <c r="I47" s="3">
-        <v>823400</v>
+        <v>827000</v>
       </c>
       <c r="J47" s="3">
-        <v>871200</v>
+        <v>875000</v>
       </c>
       <c r="K47" s="3">
         <v>789900</v>
@@ -2176,25 +2176,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41478600</v>
+        <v>41658500</v>
       </c>
       <c r="E48" s="3">
-        <v>42170900</v>
+        <v>42353800</v>
       </c>
       <c r="F48" s="3">
-        <v>40988300</v>
+        <v>41166100</v>
       </c>
       <c r="G48" s="3">
-        <v>31714400</v>
+        <v>31852000</v>
       </c>
       <c r="H48" s="3">
-        <v>30075300</v>
+        <v>30205800</v>
       </c>
       <c r="I48" s="3">
-        <v>28774900</v>
+        <v>28899700</v>
       </c>
       <c r="J48" s="3">
-        <v>27036100</v>
+        <v>27153400</v>
       </c>
       <c r="K48" s="3">
         <v>25510500</v>
@@ -2217,25 +2217,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="E49" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="F49" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="G49" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="H49" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="I49" s="3">
-        <v>36100</v>
+        <v>36200</v>
       </c>
       <c r="J49" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="K49" s="3">
         <v>26400</v>
@@ -2340,25 +2340,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1277400</v>
+        <v>1282900</v>
       </c>
       <c r="E52" s="3">
-        <v>711000</v>
+        <v>714100</v>
       </c>
       <c r="F52" s="3">
-        <v>627500</v>
+        <v>630200</v>
       </c>
       <c r="G52" s="3">
-        <v>971600</v>
+        <v>975800</v>
       </c>
       <c r="H52" s="3">
-        <v>927200</v>
+        <v>931200</v>
       </c>
       <c r="I52" s="3">
-        <v>916500</v>
+        <v>920500</v>
       </c>
       <c r="J52" s="3">
-        <v>787100</v>
+        <v>790500</v>
       </c>
       <c r="K52" s="3">
         <v>784400</v>
@@ -2422,25 +2422,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>48644500</v>
+        <v>48855500</v>
       </c>
       <c r="E54" s="3">
-        <v>46689900</v>
+        <v>46892500</v>
       </c>
       <c r="F54" s="3">
-        <v>45705400</v>
+        <v>45903700</v>
       </c>
       <c r="G54" s="3">
-        <v>37565900</v>
+        <v>37728900</v>
       </c>
       <c r="H54" s="3">
-        <v>34905800</v>
+        <v>35057200</v>
       </c>
       <c r="I54" s="3">
-        <v>33271400</v>
+        <v>33415700</v>
       </c>
       <c r="J54" s="3">
-        <v>31032500</v>
+        <v>31167100</v>
       </c>
       <c r="K54" s="3">
         <v>29110200</v>
@@ -2497,25 +2497,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>274000</v>
+        <v>275200</v>
       </c>
       <c r="E57" s="3">
-        <v>352500</v>
+        <v>354000</v>
       </c>
       <c r="F57" s="3">
-        <v>426700</v>
+        <v>428500</v>
       </c>
       <c r="G57" s="3">
-        <v>351200</v>
+        <v>352800</v>
       </c>
       <c r="H57" s="3">
-        <v>307600</v>
+        <v>308900</v>
       </c>
       <c r="I57" s="3">
-        <v>323300</v>
+        <v>324700</v>
       </c>
       <c r="J57" s="3">
-        <v>297700</v>
+        <v>299000</v>
       </c>
       <c r="K57" s="3">
         <v>276400</v>
@@ -2538,25 +2538,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10451400</v>
+        <v>10496700</v>
       </c>
       <c r="E58" s="3">
-        <v>8753100</v>
+        <v>8791100</v>
       </c>
       <c r="F58" s="3">
-        <v>9082200</v>
+        <v>9121600</v>
       </c>
       <c r="G58" s="3">
-        <v>7346800</v>
+        <v>7378700</v>
       </c>
       <c r="H58" s="3">
-        <v>7424400</v>
+        <v>7456600</v>
       </c>
       <c r="I58" s="3">
-        <v>5462500</v>
+        <v>5486200</v>
       </c>
       <c r="J58" s="3">
-        <v>4559000</v>
+        <v>4578800</v>
       </c>
       <c r="K58" s="3">
         <v>5147100</v>
@@ -2579,25 +2579,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4006200</v>
+        <v>4023600</v>
       </c>
       <c r="E59" s="3">
-        <v>5420300</v>
+        <v>5443900</v>
       </c>
       <c r="F59" s="3">
-        <v>4937500</v>
+        <v>4958900</v>
       </c>
       <c r="G59" s="3">
-        <v>5032400</v>
+        <v>5054300</v>
       </c>
       <c r="H59" s="3">
-        <v>4748700</v>
+        <v>4769300</v>
       </c>
       <c r="I59" s="3">
-        <v>4798300</v>
+        <v>4819100</v>
       </c>
       <c r="J59" s="3">
-        <v>4603200</v>
+        <v>4623100</v>
       </c>
       <c r="K59" s="3">
         <v>4442300</v>
@@ -2620,25 +2620,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14731600</v>
+        <v>14795500</v>
       </c>
       <c r="E60" s="3">
-        <v>14525900</v>
+        <v>14589000</v>
       </c>
       <c r="F60" s="3">
-        <v>14446400</v>
+        <v>14509100</v>
       </c>
       <c r="G60" s="3">
-        <v>12730500</v>
+        <v>12785700</v>
       </c>
       <c r="H60" s="3">
-        <v>12480700</v>
+        <v>12534800</v>
       </c>
       <c r="I60" s="3">
-        <v>10584100</v>
+        <v>10630000</v>
       </c>
       <c r="J60" s="3">
-        <v>9459900</v>
+        <v>9500900</v>
       </c>
       <c r="K60" s="3">
         <v>9865800</v>
@@ -2661,25 +2661,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20193500</v>
+        <v>20281100</v>
       </c>
       <c r="E61" s="3">
-        <v>19427700</v>
+        <v>19512000</v>
       </c>
       <c r="F61" s="3">
-        <v>18639900</v>
+        <v>18720700</v>
       </c>
       <c r="G61" s="3">
-        <v>11917400</v>
+        <v>11969100</v>
       </c>
       <c r="H61" s="3">
-        <v>11508600</v>
+        <v>11558600</v>
       </c>
       <c r="I61" s="3">
-        <v>12215500</v>
+        <v>12268500</v>
       </c>
       <c r="J61" s="3">
-        <v>11915700</v>
+        <v>11967400</v>
       </c>
       <c r="K61" s="3">
         <v>10498000</v>
@@ -2702,25 +2702,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1034300</v>
+        <v>1038800</v>
       </c>
       <c r="E62" s="3">
-        <v>973000</v>
+        <v>977200</v>
       </c>
       <c r="F62" s="3">
-        <v>1047200</v>
+        <v>1051700</v>
       </c>
       <c r="G62" s="3">
-        <v>981300</v>
+        <v>985600</v>
       </c>
       <c r="H62" s="3">
-        <v>1052500</v>
+        <v>1057100</v>
       </c>
       <c r="I62" s="3">
-        <v>957700</v>
+        <v>961900</v>
       </c>
       <c r="J62" s="3">
-        <v>901500</v>
+        <v>905400</v>
       </c>
       <c r="K62" s="3">
         <v>762300</v>
@@ -2866,25 +2866,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37750700</v>
+        <v>37914500</v>
       </c>
       <c r="E66" s="3">
-        <v>36938100</v>
+        <v>37098300</v>
       </c>
       <c r="F66" s="3">
-        <v>36092100</v>
+        <v>36248700</v>
       </c>
       <c r="G66" s="3">
-        <v>27639000</v>
+        <v>27758900</v>
       </c>
       <c r="H66" s="3">
-        <v>27024700</v>
+        <v>27142000</v>
       </c>
       <c r="I66" s="3">
-        <v>25675100</v>
+        <v>25786500</v>
       </c>
       <c r="J66" s="3">
-        <v>24133100</v>
+        <v>24237800</v>
       </c>
       <c r="K66" s="3">
         <v>22799100</v>
@@ -3088,25 +3088,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2652100</v>
+        <v>2663600</v>
       </c>
       <c r="E72" s="3">
-        <v>3921000</v>
+        <v>3938100</v>
       </c>
       <c r="F72" s="3">
-        <v>3776500</v>
+        <v>3792900</v>
       </c>
       <c r="G72" s="3">
-        <v>4083700</v>
+        <v>4101400</v>
       </c>
       <c r="H72" s="3">
-        <v>3961700</v>
+        <v>3978800</v>
       </c>
       <c r="I72" s="3">
-        <v>3710400</v>
+        <v>3726500</v>
       </c>
       <c r="J72" s="3">
-        <v>3225100</v>
+        <v>3239100</v>
       </c>
       <c r="K72" s="3">
         <v>2802600</v>
@@ -3252,25 +3252,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10893800</v>
+        <v>10941000</v>
       </c>
       <c r="E76" s="3">
-        <v>9751800</v>
+        <v>9794100</v>
       </c>
       <c r="F76" s="3">
-        <v>9613200</v>
+        <v>9654900</v>
       </c>
       <c r="G76" s="3">
-        <v>9926900</v>
+        <v>9970000</v>
       </c>
       <c r="H76" s="3">
-        <v>7881000</v>
+        <v>7915200</v>
       </c>
       <c r="I76" s="3">
-        <v>7596300</v>
+        <v>7629200</v>
       </c>
       <c r="J76" s="3">
-        <v>6899400</v>
+        <v>6929300</v>
       </c>
       <c r="K76" s="3">
         <v>6311100</v>
@@ -3380,25 +3380,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1244200</v>
+        <v>-1249600</v>
       </c>
       <c r="E81" s="3">
-        <v>145700</v>
+        <v>146400</v>
       </c>
       <c r="F81" s="3">
-        <v>255900</v>
+        <v>257000</v>
       </c>
       <c r="G81" s="3">
-        <v>121700</v>
+        <v>122200</v>
       </c>
       <c r="H81" s="3">
-        <v>318700</v>
+        <v>320100</v>
       </c>
       <c r="I81" s="3">
-        <v>485100</v>
+        <v>487200</v>
       </c>
       <c r="J81" s="3">
-        <v>421700</v>
+        <v>423500</v>
       </c>
       <c r="K81" s="3">
         <v>279700</v>
@@ -3684,25 +3684,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1191400</v>
+        <v>-1196600</v>
       </c>
       <c r="E89" s="3">
-        <v>3222100</v>
+        <v>3236000</v>
       </c>
       <c r="F89" s="3">
-        <v>1520300</v>
+        <v>1526900</v>
       </c>
       <c r="G89" s="3">
-        <v>1220800</v>
+        <v>1226100</v>
       </c>
       <c r="H89" s="3">
-        <v>1120100</v>
+        <v>1124900</v>
       </c>
       <c r="I89" s="3">
-        <v>1614400</v>
+        <v>1621500</v>
       </c>
       <c r="J89" s="3">
-        <v>1082900</v>
+        <v>1087600</v>
       </c>
       <c r="K89" s="3">
         <v>2273000</v>
@@ -3742,25 +3742,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-454400</v>
+        <v>-456400</v>
       </c>
       <c r="E91" s="3">
-        <v>-728200</v>
+        <v>-731400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1648200</v>
+        <v>-1655400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2217500</v>
+        <v>-2227100</v>
       </c>
       <c r="H91" s="3">
-        <v>-1438400</v>
+        <v>-1444700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1279200</v>
+        <v>-1284700</v>
       </c>
       <c r="J91" s="3">
-        <v>-827100</v>
+        <v>-830700</v>
       </c>
       <c r="K91" s="3">
         <v>-2249500</v>
@@ -3865,25 +3865,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-474900</v>
+        <v>-477000</v>
       </c>
       <c r="E94" s="3">
-        <v>-672500</v>
+        <v>-675400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1522100</v>
+        <v>-1528700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2092600</v>
+        <v>-2101600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1028500</v>
+        <v>-1032900</v>
       </c>
       <c r="I94" s="3">
-        <v>-807500</v>
+        <v>-811000</v>
       </c>
       <c r="J94" s="3">
-        <v>-445400</v>
+        <v>-447300</v>
       </c>
       <c r="K94" s="3">
         <v>-2108300</v>
@@ -3938,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-149400</v>
+        <v>-150000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4087,25 +4087,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4026300</v>
+        <v>4043800</v>
       </c>
       <c r="E100" s="3">
-        <v>-2504700</v>
+        <v>-2515500</v>
       </c>
       <c r="F100" s="3">
-        <v>-816600</v>
+        <v>-820100</v>
       </c>
       <c r="G100" s="3">
-        <v>1098900</v>
+        <v>1103700</v>
       </c>
       <c r="H100" s="3">
-        <v>-304800</v>
+        <v>-306200</v>
       </c>
       <c r="I100" s="3">
-        <v>-414800</v>
+        <v>-416600</v>
       </c>
       <c r="J100" s="3">
-        <v>-619000</v>
+        <v>-621700</v>
       </c>
       <c r="K100" s="3">
         <v>-457600</v>
@@ -4143,7 +4143,7 @@
         <v>500</v>
       </c>
       <c r="I101" s="3">
-        <v>-3000</v>
+        <v>-3100</v>
       </c>
       <c r="J101" s="3">
         <v>-900</v>
@@ -4169,25 +4169,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2361100</v>
+        <v>2371300</v>
       </c>
       <c r="E102" s="3">
-        <v>45600</v>
+        <v>45800</v>
       </c>
       <c r="F102" s="3">
-        <v>-818300</v>
+        <v>-821800</v>
       </c>
       <c r="G102" s="3">
-        <v>228300</v>
+        <v>229300</v>
       </c>
       <c r="H102" s="3">
-        <v>-212800</v>
+        <v>-213700</v>
       </c>
       <c r="I102" s="3">
-        <v>389100</v>
+        <v>390800</v>
       </c>
       <c r="J102" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="K102" s="3">
         <v>-290300</v>

--- a/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>ZNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,196 +665,209 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42551</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42369</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42185</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5952900</v>
+        <v>8361700</v>
       </c>
       <c r="E8" s="3">
-        <v>12433700</v>
+        <v>6078800</v>
       </c>
       <c r="F8" s="3">
-        <v>11143600</v>
+        <v>12696600</v>
       </c>
       <c r="G8" s="3">
-        <v>11627000</v>
+        <v>11379200</v>
       </c>
       <c r="H8" s="3">
-        <v>10315700</v>
+        <v>11872800</v>
       </c>
       <c r="I8" s="3">
-        <v>10284800</v>
+        <v>10533800</v>
       </c>
       <c r="J8" s="3">
+        <v>10502300</v>
+      </c>
+      <c r="K8" s="3">
         <v>9241400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8839000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7765000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8651300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7919000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8487100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4663800</v>
+        <v>6105800</v>
       </c>
       <c r="E9" s="3">
-        <v>8829300</v>
+        <v>4762400</v>
       </c>
       <c r="F9" s="3">
-        <v>8009200</v>
+        <v>9016000</v>
       </c>
       <c r="G9" s="3">
-        <v>9255400</v>
+        <v>8178500</v>
       </c>
       <c r="H9" s="3">
-        <v>8054400</v>
+        <v>9451100</v>
       </c>
       <c r="I9" s="3">
-        <v>7878700</v>
+        <v>8224700</v>
       </c>
       <c r="J9" s="3">
+        <v>8045300</v>
+      </c>
+      <c r="K9" s="3">
         <v>7061600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6592700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5394700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6133200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5550700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6364500</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1289200</v>
+        <v>2255900</v>
       </c>
       <c r="E10" s="3">
-        <v>3604400</v>
+        <v>1316400</v>
       </c>
       <c r="F10" s="3">
-        <v>3134400</v>
+        <v>3680600</v>
       </c>
       <c r="G10" s="3">
-        <v>2371600</v>
+        <v>3200700</v>
       </c>
       <c r="H10" s="3">
-        <v>2261300</v>
+        <v>2421700</v>
       </c>
       <c r="I10" s="3">
-        <v>2406100</v>
+        <v>2309100</v>
       </c>
       <c r="J10" s="3">
+        <v>2457000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2179700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2246300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2370300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2518100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2368300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2122700</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,8 +883,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +925,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -952,90 +969,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>624400</v>
       </c>
       <c r="E14" s="3">
-        <v>2800</v>
+        <v>-13400</v>
       </c>
       <c r="F14" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>32800</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>43500</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2800</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13400</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1903900</v>
+        <v>1892100</v>
       </c>
       <c r="E15" s="3">
-        <v>1976800</v>
+        <v>1944200</v>
       </c>
       <c r="F15" s="3">
-        <v>1784600</v>
+        <v>2018600</v>
       </c>
       <c r="G15" s="3">
-        <v>1132700</v>
+        <v>1822400</v>
       </c>
       <c r="H15" s="3">
-        <v>1063700</v>
+        <v>1156700</v>
       </c>
       <c r="I15" s="3">
-        <v>1041200</v>
+        <v>1086100</v>
       </c>
       <c r="J15" s="3">
+        <v>1063200</v>
+      </c>
+      <c r="K15" s="3">
         <v>994300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>926700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>913800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>909200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>870700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>824000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1048,90 +1074,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7005700</v>
+        <v>9143900</v>
       </c>
       <c r="E17" s="3">
-        <v>11576300</v>
+        <v>7140400</v>
       </c>
       <c r="F17" s="3">
-        <v>10343200</v>
+        <v>11779700</v>
       </c>
       <c r="G17" s="3">
-        <v>10993400</v>
+        <v>10561900</v>
       </c>
       <c r="H17" s="3">
-        <v>9601900</v>
+        <v>11224000</v>
       </c>
       <c r="I17" s="3">
-        <v>9569400</v>
+        <v>9804900</v>
       </c>
       <c r="J17" s="3">
+        <v>9781700</v>
+      </c>
+      <c r="K17" s="3">
         <v>8541300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8018300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6753300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7545200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7030800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7909400</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1052800</v>
+        <v>-782200</v>
       </c>
       <c r="E18" s="3">
-        <v>857400</v>
+        <v>-1061600</v>
       </c>
       <c r="F18" s="3">
-        <v>800400</v>
+        <v>916900</v>
       </c>
       <c r="G18" s="3">
-        <v>633600</v>
+        <v>817300</v>
       </c>
       <c r="H18" s="3">
-        <v>713800</v>
+        <v>648800</v>
       </c>
       <c r="I18" s="3">
-        <v>715500</v>
+        <v>728900</v>
       </c>
       <c r="J18" s="3">
+        <v>720600</v>
+      </c>
+      <c r="K18" s="3">
         <v>700000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>820700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1011700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1106100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>888200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1147,213 +1180,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-251500</v>
+        <v>793600</v>
       </c>
       <c r="E20" s="3">
-        <v>-148300</v>
+        <v>-270200</v>
       </c>
       <c r="F20" s="3">
-        <v>5800</v>
+        <v>-192800</v>
       </c>
       <c r="G20" s="3">
-        <v>-175700</v>
+        <v>5900</v>
       </c>
       <c r="H20" s="3">
-        <v>-13800</v>
+        <v>-181300</v>
       </c>
       <c r="I20" s="3">
-        <v>218300</v>
+        <v>-14000</v>
       </c>
       <c r="J20" s="3">
+        <v>232900</v>
+      </c>
+      <c r="K20" s="3">
         <v>138900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-222900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-156100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-826100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>64900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>599700</v>
+        <v>-40700</v>
       </c>
       <c r="E21" s="3">
-        <v>901200</v>
+        <v>612300</v>
       </c>
       <c r="F21" s="3">
-        <v>2590800</v>
+        <v>920300</v>
       </c>
       <c r="G21" s="3">
-        <v>526900</v>
+        <v>2645600</v>
       </c>
       <c r="H21" s="3">
-        <v>1763700</v>
+        <v>538100</v>
       </c>
       <c r="I21" s="3">
-        <v>980700</v>
+        <v>1801000</v>
       </c>
       <c r="J21" s="3">
+        <v>1001400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1833200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>599500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1769400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>318500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1823800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>520500</v>
+        <v>518600</v>
       </c>
       <c r="E22" s="3">
-        <v>454500</v>
+        <v>531500</v>
       </c>
       <c r="F22" s="3">
-        <v>441200</v>
+        <v>464100</v>
       </c>
       <c r="G22" s="3">
-        <v>256100</v>
+        <v>450600</v>
       </c>
       <c r="H22" s="3">
-        <v>235100</v>
+        <v>261500</v>
       </c>
       <c r="I22" s="3">
-        <v>215600</v>
+        <v>240100</v>
       </c>
       <c r="J22" s="3">
+        <v>220100</v>
+      </c>
+      <c r="K22" s="3">
         <v>201400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>180400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>168700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>159400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>165800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1824800</v>
+        <v>-507200</v>
       </c>
       <c r="E23" s="3">
-        <v>254500</v>
+        <v>-1863400</v>
       </c>
       <c r="F23" s="3">
-        <v>365000</v>
+        <v>259900</v>
       </c>
       <c r="G23" s="3">
-        <v>201800</v>
+        <v>372700</v>
       </c>
       <c r="H23" s="3">
-        <v>464900</v>
+        <v>206100</v>
       </c>
       <c r="I23" s="3">
-        <v>718200</v>
+        <v>474700</v>
       </c>
       <c r="J23" s="3">
+        <v>733400</v>
+      </c>
+      <c r="K23" s="3">
         <v>637600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>417400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>686800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>120700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>787300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>610100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-376100</v>
+        <v>-141300</v>
       </c>
       <c r="E24" s="3">
-        <v>43700</v>
+        <v>-384100</v>
       </c>
       <c r="F24" s="3">
-        <v>104700</v>
+        <v>44600</v>
       </c>
       <c r="G24" s="3">
-        <v>48600</v>
+        <v>106900</v>
       </c>
       <c r="H24" s="3">
-        <v>104200</v>
+        <v>49600</v>
       </c>
       <c r="I24" s="3">
-        <v>154900</v>
+        <v>106400</v>
       </c>
       <c r="J24" s="3">
+        <v>158200</v>
+      </c>
+      <c r="K24" s="3">
         <v>147000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>96900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>157300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>13400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>179600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>143000</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1393,90 +1442,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1448700</v>
+        <v>-365800</v>
       </c>
       <c r="E26" s="3">
-        <v>210800</v>
+        <v>-1479300</v>
       </c>
       <c r="F26" s="3">
-        <v>260300</v>
+        <v>215300</v>
       </c>
       <c r="G26" s="3">
-        <v>153200</v>
+        <v>265800</v>
       </c>
       <c r="H26" s="3">
-        <v>360700</v>
+        <v>156500</v>
       </c>
       <c r="I26" s="3">
-        <v>563300</v>
+        <v>368300</v>
       </c>
       <c r="J26" s="3">
+        <v>575200</v>
+      </c>
+      <c r="K26" s="3">
         <v>490600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>320500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>529600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>107300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>607700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1249600</v>
+        <v>-416200</v>
       </c>
       <c r="E27" s="3">
-        <v>146400</v>
+        <v>-1276000</v>
       </c>
       <c r="F27" s="3">
-        <v>257000</v>
+        <v>149500</v>
       </c>
       <c r="G27" s="3">
-        <v>122200</v>
+        <v>262400</v>
       </c>
       <c r="H27" s="3">
-        <v>320100</v>
+        <v>124800</v>
       </c>
       <c r="I27" s="3">
-        <v>487200</v>
+        <v>326800</v>
       </c>
       <c r="J27" s="3">
+        <v>497500</v>
+      </c>
+      <c r="K27" s="3">
         <v>423500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>279700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>447400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>516300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1516,8 +1574,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1557,8 +1618,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1598,8 +1662,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1639,90 +1706,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>251500</v>
+        <v>-793600</v>
       </c>
       <c r="E32" s="3">
-        <v>148300</v>
+        <v>270200</v>
       </c>
       <c r="F32" s="3">
-        <v>-5800</v>
+        <v>192800</v>
       </c>
       <c r="G32" s="3">
-        <v>175700</v>
+        <v>-5900</v>
       </c>
       <c r="H32" s="3">
-        <v>13800</v>
+        <v>181300</v>
       </c>
       <c r="I32" s="3">
-        <v>-218300</v>
+        <v>14000</v>
       </c>
       <c r="J32" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-138900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>222900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>156100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>826100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-64900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-214400</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1249600</v>
+        <v>-416200</v>
       </c>
       <c r="E33" s="3">
-        <v>146400</v>
+        <v>-1276000</v>
       </c>
       <c r="F33" s="3">
-        <v>257000</v>
+        <v>149500</v>
       </c>
       <c r="G33" s="3">
-        <v>122200</v>
+        <v>262400</v>
       </c>
       <c r="H33" s="3">
-        <v>320100</v>
+        <v>124800</v>
       </c>
       <c r="I33" s="3">
-        <v>487200</v>
+        <v>326800</v>
       </c>
       <c r="J33" s="3">
+        <v>497500</v>
+      </c>
+      <c r="K33" s="3">
         <v>423500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>279700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>447400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>516300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1762,95 +1838,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1249600</v>
+        <v>-416200</v>
       </c>
       <c r="E35" s="3">
-        <v>146400</v>
+        <v>-1276000</v>
       </c>
       <c r="F35" s="3">
-        <v>257000</v>
+        <v>149500</v>
       </c>
       <c r="G35" s="3">
-        <v>122200</v>
+        <v>262400</v>
       </c>
       <c r="H35" s="3">
-        <v>320100</v>
+        <v>124800</v>
       </c>
       <c r="I35" s="3">
-        <v>487200</v>
+        <v>326800</v>
       </c>
       <c r="J35" s="3">
+        <v>497500</v>
+      </c>
+      <c r="K35" s="3">
         <v>423500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>279700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>447400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>516300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42551</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42369</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42185</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +1951,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,49 +1969,53 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2653800</v>
+        <v>3965600</v>
       </c>
       <c r="E41" s="3">
-        <v>282500</v>
+        <v>2709900</v>
       </c>
       <c r="F41" s="3">
-        <v>236700</v>
+        <v>288500</v>
       </c>
       <c r="G41" s="3">
-        <v>1058500</v>
+        <v>241700</v>
       </c>
       <c r="H41" s="3">
-        <v>829100</v>
+        <v>1080800</v>
       </c>
       <c r="I41" s="3">
-        <v>1042900</v>
+        <v>846700</v>
       </c>
       <c r="J41" s="3">
+        <v>1064900</v>
+      </c>
+      <c r="K41" s="3">
         <v>652100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>603000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>882500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>676700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1425500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2241700</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1935,14 +2025,14 @@
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="3">
-        <v>3800</v>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>67200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+        <v>3900</v>
+      </c>
+      <c r="H42" s="3">
+        <v>68600</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1956,8 +2046,8 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1965,283 +2055,304 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1734800</v>
+        <v>1709400</v>
       </c>
       <c r="E43" s="3">
-        <v>1693600</v>
+        <v>1771500</v>
       </c>
       <c r="F43" s="3">
-        <v>1889900</v>
+        <v>1729400</v>
       </c>
       <c r="G43" s="3">
-        <v>1681500</v>
+        <v>1929800</v>
       </c>
       <c r="H43" s="3">
-        <v>1604800</v>
+        <v>1717000</v>
       </c>
       <c r="I43" s="3">
-        <v>1219600</v>
+        <v>1638700</v>
       </c>
       <c r="J43" s="3">
+        <v>1245400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1150000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>940200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1005700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>984400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1276600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1313700</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>320700</v>
+        <v>274600</v>
       </c>
       <c r="E44" s="3">
-        <v>289200</v>
+        <v>327500</v>
       </c>
       <c r="F44" s="3">
-        <v>302400</v>
+        <v>295300</v>
       </c>
       <c r="G44" s="3">
-        <v>259600</v>
+        <v>308700</v>
       </c>
       <c r="H44" s="3">
-        <v>287200</v>
+        <v>265100</v>
       </c>
       <c r="I44" s="3">
-        <v>247800</v>
+        <v>293300</v>
       </c>
       <c r="J44" s="3">
+        <v>253000</v>
+      </c>
+      <c r="K44" s="3">
         <v>268100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>230600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>255100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>238300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>256500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>104300</v>
+        <v>132500</v>
       </c>
       <c r="E45" s="3">
-        <v>292000</v>
+        <v>106600</v>
       </c>
       <c r="F45" s="3">
-        <v>458200</v>
+        <v>298100</v>
       </c>
       <c r="G45" s="3">
-        <v>611000</v>
+        <v>467900</v>
       </c>
       <c r="H45" s="3">
-        <v>245200</v>
+        <v>623900</v>
       </c>
       <c r="I45" s="3">
-        <v>222000</v>
+        <v>250400</v>
       </c>
       <c r="J45" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K45" s="3">
         <v>250300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>225100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>220500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>195000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>145100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>208400</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4813600</v>
+        <v>6082000</v>
       </c>
       <c r="E46" s="3">
-        <v>2557200</v>
+        <v>4915400</v>
       </c>
       <c r="F46" s="3">
-        <v>2890900</v>
+        <v>2611300</v>
       </c>
       <c r="G46" s="3">
-        <v>3677700</v>
+        <v>2952000</v>
       </c>
       <c r="H46" s="3">
-        <v>2966400</v>
+        <v>3755500</v>
       </c>
       <c r="I46" s="3">
-        <v>2732300</v>
+        <v>3029100</v>
       </c>
       <c r="J46" s="3">
+        <v>2790100</v>
+      </c>
+      <c r="K46" s="3">
         <v>2320400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1998900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2363800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2094500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3103700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4005300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1064300</v>
+        <v>1080700</v>
       </c>
       <c r="E47" s="3">
-        <v>1231100</v>
+        <v>1086800</v>
       </c>
       <c r="F47" s="3">
-        <v>1180200</v>
+        <v>1257100</v>
       </c>
       <c r="G47" s="3">
-        <v>1187100</v>
+        <v>1205200</v>
       </c>
       <c r="H47" s="3">
-        <v>917600</v>
+        <v>1212200</v>
       </c>
       <c r="I47" s="3">
-        <v>827000</v>
+        <v>937000</v>
       </c>
       <c r="J47" s="3">
+        <v>844500</v>
+      </c>
+      <c r="K47" s="3">
         <v>875000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>789900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>676500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>689800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>686700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>598000</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41658500</v>
+        <v>42063100</v>
       </c>
       <c r="E48" s="3">
-        <v>42353800</v>
+        <v>42539200</v>
       </c>
       <c r="F48" s="3">
-        <v>41166100</v>
+        <v>43249200</v>
       </c>
       <c r="G48" s="3">
-        <v>31852000</v>
+        <v>42036400</v>
       </c>
       <c r="H48" s="3">
-        <v>30205800</v>
+        <v>32525400</v>
       </c>
       <c r="I48" s="3">
-        <v>28899700</v>
+        <v>30844400</v>
       </c>
       <c r="J48" s="3">
+        <v>29510700</v>
+      </c>
+      <c r="K48" s="3">
         <v>27153400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25510500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23579600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24087400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23502400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22367100</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="E49" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="F49" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="G49" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="H49" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="I49" s="3">
-        <v>36200</v>
+        <v>37000</v>
       </c>
       <c r="J49" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K49" s="3">
         <v>27800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>26400</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -2252,8 +2363,11 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2293,8 +2407,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2334,49 +2451,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1282900</v>
+        <v>1656200</v>
       </c>
       <c r="E52" s="3">
-        <v>714100</v>
+        <v>1310000</v>
       </c>
       <c r="F52" s="3">
-        <v>630200</v>
+        <v>729200</v>
       </c>
       <c r="G52" s="3">
-        <v>975800</v>
+        <v>643500</v>
       </c>
       <c r="H52" s="3">
-        <v>931200</v>
+        <v>996400</v>
       </c>
       <c r="I52" s="3">
-        <v>920500</v>
+        <v>950900</v>
       </c>
       <c r="J52" s="3">
+        <v>940000</v>
+      </c>
+      <c r="K52" s="3">
         <v>790500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>784400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>779800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>730900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>634300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2416,49 +2539,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>48855500</v>
+        <v>50919000</v>
       </c>
       <c r="E54" s="3">
-        <v>46892500</v>
+        <v>49888400</v>
       </c>
       <c r="F54" s="3">
-        <v>45903700</v>
+        <v>47883800</v>
       </c>
       <c r="G54" s="3">
-        <v>37728900</v>
+        <v>46874100</v>
       </c>
       <c r="H54" s="3">
-        <v>35057200</v>
+        <v>38526500</v>
       </c>
       <c r="I54" s="3">
-        <v>33415700</v>
+        <v>35798400</v>
       </c>
       <c r="J54" s="3">
+        <v>34122200</v>
+      </c>
+      <c r="K54" s="3">
         <v>31167100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29110200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27399800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27602600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27927100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27586300</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2474,8 +2603,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2491,254 +2621,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>275200</v>
+        <v>278000</v>
       </c>
       <c r="E57" s="3">
-        <v>354000</v>
+        <v>281000</v>
       </c>
       <c r="F57" s="3">
-        <v>428500</v>
+        <v>361500</v>
       </c>
       <c r="G57" s="3">
-        <v>352800</v>
+        <v>437600</v>
       </c>
       <c r="H57" s="3">
-        <v>308900</v>
+        <v>360200</v>
       </c>
       <c r="I57" s="3">
-        <v>324700</v>
+        <v>315500</v>
       </c>
       <c r="J57" s="3">
+        <v>331500</v>
+      </c>
+      <c r="K57" s="3">
         <v>299000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>276400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>254400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>371000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>310300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10496700</v>
+        <v>9521100</v>
       </c>
       <c r="E58" s="3">
-        <v>8791100</v>
+        <v>10718700</v>
       </c>
       <c r="F58" s="3">
-        <v>9121600</v>
+        <v>8977000</v>
       </c>
       <c r="G58" s="3">
-        <v>7378700</v>
+        <v>9314400</v>
       </c>
       <c r="H58" s="3">
-        <v>7456600</v>
+        <v>7534700</v>
       </c>
       <c r="I58" s="3">
-        <v>5486200</v>
+        <v>7614200</v>
       </c>
       <c r="J58" s="3">
+        <v>5602200</v>
+      </c>
+      <c r="K58" s="3">
         <v>4578800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5147100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5443500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5404800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4074700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3922400</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4023600</v>
+        <v>5128000</v>
       </c>
       <c r="E59" s="3">
-        <v>5443900</v>
+        <v>4108700</v>
       </c>
       <c r="F59" s="3">
-        <v>4958900</v>
+        <v>5558900</v>
       </c>
       <c r="G59" s="3">
-        <v>5054300</v>
+        <v>5063800</v>
       </c>
       <c r="H59" s="3">
-        <v>4769300</v>
+        <v>5161100</v>
       </c>
       <c r="I59" s="3">
-        <v>4819100</v>
+        <v>4870200</v>
       </c>
       <c r="J59" s="3">
+        <v>4921000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4623100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4442300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3991600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3950200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3701800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3702400</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14795500</v>
+        <v>14927200</v>
       </c>
       <c r="E60" s="3">
-        <v>14589000</v>
+        <v>15108300</v>
       </c>
       <c r="F60" s="3">
-        <v>14509100</v>
+        <v>14897400</v>
       </c>
       <c r="G60" s="3">
-        <v>12785700</v>
+        <v>14815800</v>
       </c>
       <c r="H60" s="3">
-        <v>12534800</v>
+        <v>13056000</v>
       </c>
       <c r="I60" s="3">
-        <v>10630000</v>
+        <v>12799800</v>
       </c>
       <c r="J60" s="3">
+        <v>10854700</v>
+      </c>
+      <c r="K60" s="3">
         <v>9500900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9865800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9689500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9726000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8086900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7865700</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>20281100</v>
+        <v>21594400</v>
       </c>
       <c r="E61" s="3">
-        <v>19512000</v>
+        <v>20709900</v>
       </c>
       <c r="F61" s="3">
-        <v>18720700</v>
+        <v>19924500</v>
       </c>
       <c r="G61" s="3">
-        <v>11969100</v>
+        <v>19116500</v>
       </c>
       <c r="H61" s="3">
-        <v>11558600</v>
+        <v>12222100</v>
       </c>
       <c r="I61" s="3">
-        <v>12268500</v>
+        <v>11802900</v>
       </c>
       <c r="J61" s="3">
+        <v>12527900</v>
+      </c>
+      <c r="K61" s="3">
         <v>11967400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10498000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9369000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9690000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11690700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12504800</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1038800</v>
+        <v>1116100</v>
       </c>
       <c r="E62" s="3">
-        <v>977200</v>
+        <v>1060700</v>
       </c>
       <c r="F62" s="3">
-        <v>1051700</v>
+        <v>997800</v>
       </c>
       <c r="G62" s="3">
-        <v>985600</v>
+        <v>1074000</v>
       </c>
       <c r="H62" s="3">
-        <v>1057100</v>
+        <v>1006400</v>
       </c>
       <c r="I62" s="3">
-        <v>961900</v>
+        <v>1079400</v>
       </c>
       <c r="J62" s="3">
+        <v>982200</v>
+      </c>
+      <c r="K62" s="3">
         <v>905400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>762300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>804600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>821900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>829000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>745200</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2778,8 +2927,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2819,8 +2971,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2860,49 +3015,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37914500</v>
+        <v>40063200</v>
       </c>
       <c r="E66" s="3">
-        <v>37098300</v>
+        <v>38716100</v>
       </c>
       <c r="F66" s="3">
-        <v>36248700</v>
+        <v>37882700</v>
       </c>
       <c r="G66" s="3">
-        <v>27758900</v>
+        <v>37015100</v>
       </c>
       <c r="H66" s="3">
-        <v>27142000</v>
+        <v>28345800</v>
       </c>
       <c r="I66" s="3">
-        <v>25786500</v>
+        <v>27715800</v>
       </c>
       <c r="J66" s="3">
+        <v>26331700</v>
+      </c>
+      <c r="K66" s="3">
         <v>24237800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>22799100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21477100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21808000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22162500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22387500</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2918,8 +3079,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2959,8 +3121,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3000,8 +3165,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3209,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3082,49 +3253,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2663600</v>
+        <v>2414300</v>
       </c>
       <c r="E72" s="3">
-        <v>3938100</v>
+        <v>2719900</v>
       </c>
       <c r="F72" s="3">
-        <v>3792900</v>
+        <v>4021300</v>
       </c>
       <c r="G72" s="3">
-        <v>4101400</v>
+        <v>3873100</v>
       </c>
       <c r="H72" s="3">
-        <v>3978800</v>
+        <v>4188100</v>
       </c>
       <c r="I72" s="3">
-        <v>3726500</v>
+        <v>4063000</v>
       </c>
       <c r="J72" s="3">
+        <v>3805200</v>
+      </c>
+      <c r="K72" s="3">
         <v>3239100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2802600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2492800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2232200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2201700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1709500</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3164,8 +3341,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3205,8 +3385,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3246,49 +3429,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10941000</v>
+        <v>10855800</v>
       </c>
       <c r="E76" s="3">
-        <v>9794100</v>
+        <v>11172300</v>
       </c>
       <c r="F76" s="3">
-        <v>9654900</v>
+        <v>10001200</v>
       </c>
       <c r="G76" s="3">
-        <v>9970000</v>
+        <v>9859100</v>
       </c>
       <c r="H76" s="3">
-        <v>7915200</v>
+        <v>10180700</v>
       </c>
       <c r="I76" s="3">
-        <v>7629200</v>
+        <v>8082600</v>
       </c>
       <c r="J76" s="3">
+        <v>7790500</v>
+      </c>
+      <c r="K76" s="3">
         <v>6929300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6311100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5922700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5794700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5764500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5198800</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3328,95 +3517,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42551</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42369</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42185</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1249600</v>
+        <v>-416200</v>
       </c>
       <c r="E81" s="3">
-        <v>146400</v>
+        <v>-1276000</v>
       </c>
       <c r="F81" s="3">
-        <v>257000</v>
+        <v>149500</v>
       </c>
       <c r="G81" s="3">
-        <v>122200</v>
+        <v>262400</v>
       </c>
       <c r="H81" s="3">
-        <v>320100</v>
+        <v>124800</v>
       </c>
       <c r="I81" s="3">
-        <v>487200</v>
+        <v>326800</v>
       </c>
       <c r="J81" s="3">
+        <v>497500</v>
+      </c>
+      <c r="K81" s="3">
         <v>423500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>279700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>447400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>516300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3432,8 +3630,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3473,8 +3672,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3514,8 +3716,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3555,8 +3760,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3596,8 +3804,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3637,8 +3848,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3678,49 +3892,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1196600</v>
+        <v>1642800</v>
       </c>
       <c r="E89" s="3">
-        <v>3236000</v>
+        <v>-1221900</v>
       </c>
       <c r="F89" s="3">
-        <v>1526900</v>
+        <v>3304400</v>
       </c>
       <c r="G89" s="3">
-        <v>1226100</v>
+        <v>1559200</v>
       </c>
       <c r="H89" s="3">
-        <v>1124900</v>
+        <v>1252000</v>
       </c>
       <c r="I89" s="3">
-        <v>1621500</v>
+        <v>1148700</v>
       </c>
       <c r="J89" s="3">
+        <v>1655700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1087600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2273000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1164100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2055300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1467000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1576600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3736,49 +3956,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-456400</v>
+        <v>-1259600</v>
       </c>
       <c r="E91" s="3">
-        <v>-731400</v>
+        <v>-466000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1655400</v>
+        <v>-746800</v>
       </c>
       <c r="G91" s="3">
-        <v>-2227100</v>
+        <v>-1690400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1444700</v>
+        <v>-2274200</v>
       </c>
       <c r="I91" s="3">
-        <v>-1284700</v>
+        <v>-1475200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1311900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-830700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2249500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-499000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1157600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-644000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-355100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3818,8 +4042,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3859,49 +4086,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-477000</v>
+        <v>-768700</v>
       </c>
       <c r="E94" s="3">
-        <v>-675400</v>
+        <v>-487100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1528700</v>
+        <v>-689700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2101600</v>
+        <v>-1561000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1032900</v>
+        <v>-2146100</v>
       </c>
       <c r="I94" s="3">
-        <v>-811000</v>
+        <v>-1054800</v>
       </c>
       <c r="J94" s="3">
+        <v>-828100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-447300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2108300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-176900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-454700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-573900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-178600</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3917,8 +4150,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3938,28 +4172,31 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-150000</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-153200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-48700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-64600</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3999,8 +4236,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4040,8 +4280,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4081,127 +4324,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4043800</v>
+        <v>386400</v>
       </c>
       <c r="E100" s="3">
-        <v>-2515500</v>
+        <v>4129300</v>
       </c>
       <c r="F100" s="3">
-        <v>-820100</v>
+        <v>-2568700</v>
       </c>
       <c r="G100" s="3">
-        <v>1103700</v>
+        <v>-837500</v>
       </c>
       <c r="H100" s="3">
-        <v>-306200</v>
+        <v>1127000</v>
       </c>
       <c r="I100" s="3">
-        <v>-416600</v>
+        <v>-312600</v>
       </c>
       <c r="J100" s="3">
+        <v>-425400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-621700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-457600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-761600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2357000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1753200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-898500</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E101" s="3">
         <v>1100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2371300</v>
+        <v>1255700</v>
       </c>
       <c r="E102" s="3">
-        <v>45800</v>
+        <v>2421400</v>
       </c>
       <c r="F102" s="3">
-        <v>-821800</v>
+        <v>46800</v>
       </c>
       <c r="G102" s="3">
-        <v>229300</v>
+        <v>-839200</v>
       </c>
       <c r="H102" s="3">
-        <v>-213700</v>
+        <v>234200</v>
       </c>
       <c r="I102" s="3">
-        <v>390800</v>
+        <v>-218300</v>
       </c>
       <c r="J102" s="3">
+        <v>399100</v>
+      </c>
+      <c r="K102" s="3">
         <v>17700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-290300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>228300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-748700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-862100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
@@ -740,25 +740,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8361700</v>
+        <v>8252900</v>
       </c>
       <c r="E8" s="3">
-        <v>6078800</v>
+        <v>5999700</v>
       </c>
       <c r="F8" s="3">
-        <v>12696600</v>
+        <v>12531400</v>
       </c>
       <c r="G8" s="3">
-        <v>11379200</v>
+        <v>11231100</v>
       </c>
       <c r="H8" s="3">
-        <v>11872800</v>
+        <v>11718300</v>
       </c>
       <c r="I8" s="3">
-        <v>10533800</v>
+        <v>10396700</v>
       </c>
       <c r="J8" s="3">
-        <v>10502300</v>
+        <v>10365600</v>
       </c>
       <c r="K8" s="3">
         <v>9241400</v>
@@ -784,25 +784,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6105800</v>
+        <v>6026300</v>
       </c>
       <c r="E9" s="3">
-        <v>4762400</v>
+        <v>4700400</v>
       </c>
       <c r="F9" s="3">
-        <v>9016000</v>
+        <v>8898700</v>
       </c>
       <c r="G9" s="3">
-        <v>8178500</v>
+        <v>8072100</v>
       </c>
       <c r="H9" s="3">
-        <v>9451100</v>
+        <v>9328100</v>
       </c>
       <c r="I9" s="3">
-        <v>8224700</v>
+        <v>8117700</v>
       </c>
       <c r="J9" s="3">
-        <v>8045300</v>
+        <v>7940600</v>
       </c>
       <c r="K9" s="3">
         <v>7061600</v>
@@ -828,25 +828,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2255900</v>
+        <v>2226600</v>
       </c>
       <c r="E10" s="3">
-        <v>1316400</v>
+        <v>1299300</v>
       </c>
       <c r="F10" s="3">
-        <v>3680600</v>
+        <v>3632700</v>
       </c>
       <c r="G10" s="3">
-        <v>3200700</v>
+        <v>3159100</v>
       </c>
       <c r="H10" s="3">
-        <v>2421700</v>
+        <v>2390200</v>
       </c>
       <c r="I10" s="3">
-        <v>2309100</v>
+        <v>2279100</v>
       </c>
       <c r="J10" s="3">
-        <v>2457000</v>
+        <v>2425000</v>
       </c>
       <c r="K10" s="3">
         <v>2179700</v>
@@ -978,25 +978,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>624400</v>
+        <v>616200</v>
       </c>
       <c r="E14" s="3">
-        <v>-13400</v>
+        <v>-13200</v>
       </c>
       <c r="F14" s="3">
-        <v>-38500</v>
+        <v>-38000</v>
       </c>
       <c r="G14" s="3">
         <v>-2000</v>
       </c>
       <c r="H14" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>43500</v>
+        <v>43000</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1022,25 +1022,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1892100</v>
+        <v>1867500</v>
       </c>
       <c r="E15" s="3">
-        <v>1944200</v>
+        <v>1918900</v>
       </c>
       <c r="F15" s="3">
-        <v>2018600</v>
+        <v>1992300</v>
       </c>
       <c r="G15" s="3">
-        <v>1822400</v>
+        <v>1798600</v>
       </c>
       <c r="H15" s="3">
-        <v>1156700</v>
+        <v>1141600</v>
       </c>
       <c r="I15" s="3">
-        <v>1086100</v>
+        <v>1072000</v>
       </c>
       <c r="J15" s="3">
-        <v>1063200</v>
+        <v>1049400</v>
       </c>
       <c r="K15" s="3">
         <v>994300</v>
@@ -1081,25 +1081,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9143900</v>
+        <v>9024900</v>
       </c>
       <c r="E17" s="3">
-        <v>7140400</v>
+        <v>7047500</v>
       </c>
       <c r="F17" s="3">
-        <v>11779700</v>
+        <v>11626400</v>
       </c>
       <c r="G17" s="3">
-        <v>10561900</v>
+        <v>10424400</v>
       </c>
       <c r="H17" s="3">
-        <v>11224000</v>
+        <v>11077900</v>
       </c>
       <c r="I17" s="3">
-        <v>9804900</v>
+        <v>9677300</v>
       </c>
       <c r="J17" s="3">
-        <v>9781700</v>
+        <v>9654400</v>
       </c>
       <c r="K17" s="3">
         <v>8541300</v>
@@ -1125,25 +1125,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-782200</v>
+        <v>-772100</v>
       </c>
       <c r="E18" s="3">
-        <v>-1061600</v>
+        <v>-1047800</v>
       </c>
       <c r="F18" s="3">
-        <v>916900</v>
+        <v>904900</v>
       </c>
       <c r="G18" s="3">
-        <v>817300</v>
+        <v>806700</v>
       </c>
       <c r="H18" s="3">
-        <v>648800</v>
+        <v>640400</v>
       </c>
       <c r="I18" s="3">
-        <v>728900</v>
+        <v>719400</v>
       </c>
       <c r="J18" s="3">
-        <v>720600</v>
+        <v>711200</v>
       </c>
       <c r="K18" s="3">
         <v>700000</v>
@@ -1187,25 +1187,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>793600</v>
+        <v>783300</v>
       </c>
       <c r="E20" s="3">
-        <v>-270200</v>
+        <v>-266700</v>
       </c>
       <c r="F20" s="3">
-        <v>-192800</v>
+        <v>-190300</v>
       </c>
       <c r="G20" s="3">
         <v>5900</v>
       </c>
       <c r="H20" s="3">
-        <v>-181300</v>
+        <v>-178900</v>
       </c>
       <c r="I20" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="J20" s="3">
-        <v>232900</v>
+        <v>229900</v>
       </c>
       <c r="K20" s="3">
         <v>138900</v>
@@ -1231,25 +1231,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-40700</v>
+        <v>-40200</v>
       </c>
       <c r="E21" s="3">
-        <v>612300</v>
+        <v>604400</v>
       </c>
       <c r="F21" s="3">
-        <v>920300</v>
+        <v>908300</v>
       </c>
       <c r="G21" s="3">
-        <v>2645600</v>
+        <v>2611200</v>
       </c>
       <c r="H21" s="3">
-        <v>538100</v>
+        <v>531100</v>
       </c>
       <c r="I21" s="3">
-        <v>1801000</v>
+        <v>1777500</v>
       </c>
       <c r="J21" s="3">
-        <v>1001400</v>
+        <v>988400</v>
       </c>
       <c r="K21" s="3">
         <v>1833200</v>
@@ -1275,25 +1275,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>518600</v>
+        <v>511800</v>
       </c>
       <c r="E22" s="3">
-        <v>531500</v>
+        <v>524600</v>
       </c>
       <c r="F22" s="3">
-        <v>464100</v>
+        <v>458100</v>
       </c>
       <c r="G22" s="3">
-        <v>450600</v>
+        <v>444700</v>
       </c>
       <c r="H22" s="3">
-        <v>261500</v>
+        <v>258100</v>
       </c>
       <c r="I22" s="3">
-        <v>240100</v>
+        <v>237000</v>
       </c>
       <c r="J22" s="3">
-        <v>220100</v>
+        <v>217300</v>
       </c>
       <c r="K22" s="3">
         <v>201400</v>
@@ -1319,25 +1319,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-507200</v>
+        <v>-500600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1863400</v>
+        <v>-1839100</v>
       </c>
       <c r="F23" s="3">
-        <v>259900</v>
+        <v>256500</v>
       </c>
       <c r="G23" s="3">
-        <v>372700</v>
+        <v>367900</v>
       </c>
       <c r="H23" s="3">
-        <v>206100</v>
+        <v>203400</v>
       </c>
       <c r="I23" s="3">
-        <v>474700</v>
+        <v>468600</v>
       </c>
       <c r="J23" s="3">
-        <v>733400</v>
+        <v>723900</v>
       </c>
       <c r="K23" s="3">
         <v>637600</v>
@@ -1363,25 +1363,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-141300</v>
+        <v>-139500</v>
       </c>
       <c r="E24" s="3">
-        <v>-384100</v>
+        <v>-379100</v>
       </c>
       <c r="F24" s="3">
-        <v>44600</v>
+        <v>44000</v>
       </c>
       <c r="G24" s="3">
-        <v>106900</v>
+        <v>105500</v>
       </c>
       <c r="H24" s="3">
-        <v>49600</v>
+        <v>49000</v>
       </c>
       <c r="I24" s="3">
-        <v>106400</v>
+        <v>105000</v>
       </c>
       <c r="J24" s="3">
-        <v>158200</v>
+        <v>156100</v>
       </c>
       <c r="K24" s="3">
         <v>147000</v>
@@ -1451,25 +1451,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-365800</v>
+        <v>-361100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1479300</v>
+        <v>-1460000</v>
       </c>
       <c r="F26" s="3">
-        <v>215300</v>
+        <v>212500</v>
       </c>
       <c r="G26" s="3">
-        <v>265800</v>
+        <v>262400</v>
       </c>
       <c r="H26" s="3">
-        <v>156500</v>
+        <v>154400</v>
       </c>
       <c r="I26" s="3">
-        <v>368300</v>
+        <v>363500</v>
       </c>
       <c r="J26" s="3">
-        <v>575200</v>
+        <v>567700</v>
       </c>
       <c r="K26" s="3">
         <v>490600</v>
@@ -1495,25 +1495,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-416200</v>
+        <v>-410800</v>
       </c>
       <c r="E27" s="3">
-        <v>-1276000</v>
+        <v>-1259400</v>
       </c>
       <c r="F27" s="3">
-        <v>149500</v>
+        <v>147500</v>
       </c>
       <c r="G27" s="3">
-        <v>262400</v>
+        <v>259000</v>
       </c>
       <c r="H27" s="3">
-        <v>124800</v>
+        <v>123200</v>
       </c>
       <c r="I27" s="3">
-        <v>326800</v>
+        <v>322600</v>
       </c>
       <c r="J27" s="3">
-        <v>497500</v>
+        <v>491000</v>
       </c>
       <c r="K27" s="3">
         <v>423500</v>
@@ -1715,25 +1715,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-793600</v>
+        <v>-783300</v>
       </c>
       <c r="E32" s="3">
-        <v>270200</v>
+        <v>266700</v>
       </c>
       <c r="F32" s="3">
-        <v>192800</v>
+        <v>190300</v>
       </c>
       <c r="G32" s="3">
         <v>-5900</v>
       </c>
       <c r="H32" s="3">
-        <v>181300</v>
+        <v>178900</v>
       </c>
       <c r="I32" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="J32" s="3">
-        <v>-232900</v>
+        <v>-229900</v>
       </c>
       <c r="K32" s="3">
         <v>-138900</v>
@@ -1759,25 +1759,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-416200</v>
+        <v>-410800</v>
       </c>
       <c r="E33" s="3">
-        <v>-1276000</v>
+        <v>-1259400</v>
       </c>
       <c r="F33" s="3">
-        <v>149500</v>
+        <v>147500</v>
       </c>
       <c r="G33" s="3">
-        <v>262400</v>
+        <v>259000</v>
       </c>
       <c r="H33" s="3">
-        <v>124800</v>
+        <v>123200</v>
       </c>
       <c r="I33" s="3">
-        <v>326800</v>
+        <v>322600</v>
       </c>
       <c r="J33" s="3">
-        <v>497500</v>
+        <v>491000</v>
       </c>
       <c r="K33" s="3">
         <v>423500</v>
@@ -1847,25 +1847,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-416200</v>
+        <v>-410800</v>
       </c>
       <c r="E35" s="3">
-        <v>-1276000</v>
+        <v>-1259400</v>
       </c>
       <c r="F35" s="3">
-        <v>149500</v>
+        <v>147500</v>
       </c>
       <c r="G35" s="3">
-        <v>262400</v>
+        <v>259000</v>
       </c>
       <c r="H35" s="3">
-        <v>124800</v>
+        <v>123200</v>
       </c>
       <c r="I35" s="3">
-        <v>326800</v>
+        <v>322600</v>
       </c>
       <c r="J35" s="3">
-        <v>497500</v>
+        <v>491000</v>
       </c>
       <c r="K35" s="3">
         <v>423500</v>
@@ -1976,25 +1976,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3965600</v>
+        <v>3914000</v>
       </c>
       <c r="E41" s="3">
-        <v>2709900</v>
+        <v>2674600</v>
       </c>
       <c r="F41" s="3">
-        <v>288500</v>
+        <v>284700</v>
       </c>
       <c r="G41" s="3">
-        <v>241700</v>
+        <v>238500</v>
       </c>
       <c r="H41" s="3">
-        <v>1080800</v>
+        <v>1066800</v>
       </c>
       <c r="I41" s="3">
-        <v>846700</v>
+        <v>835600</v>
       </c>
       <c r="J41" s="3">
-        <v>1064900</v>
+        <v>1051100</v>
       </c>
       <c r="K41" s="3">
         <v>652100</v>
@@ -2029,10 +2029,10 @@
         <v>8</v>
       </c>
       <c r="G42" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H42" s="3">
-        <v>68600</v>
+        <v>67800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -2064,25 +2064,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1709400</v>
+        <v>1687200</v>
       </c>
       <c r="E43" s="3">
-        <v>1771500</v>
+        <v>1748400</v>
       </c>
       <c r="F43" s="3">
-        <v>1729400</v>
+        <v>1706900</v>
       </c>
       <c r="G43" s="3">
-        <v>1929800</v>
+        <v>1904700</v>
       </c>
       <c r="H43" s="3">
-        <v>1717000</v>
+        <v>1694700</v>
       </c>
       <c r="I43" s="3">
-        <v>1638700</v>
+        <v>1617400</v>
       </c>
       <c r="J43" s="3">
-        <v>1245400</v>
+        <v>1229200</v>
       </c>
       <c r="K43" s="3">
         <v>1150000</v>
@@ -2108,25 +2108,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>274600</v>
+        <v>271000</v>
       </c>
       <c r="E44" s="3">
-        <v>327500</v>
+        <v>323200</v>
       </c>
       <c r="F44" s="3">
-        <v>295300</v>
+        <v>291500</v>
       </c>
       <c r="G44" s="3">
-        <v>308700</v>
+        <v>304700</v>
       </c>
       <c r="H44" s="3">
-        <v>265100</v>
+        <v>261600</v>
       </c>
       <c r="I44" s="3">
-        <v>293300</v>
+        <v>289500</v>
       </c>
       <c r="J44" s="3">
-        <v>253000</v>
+        <v>249800</v>
       </c>
       <c r="K44" s="3">
         <v>268100</v>
@@ -2152,25 +2152,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>132500</v>
+        <v>130700</v>
       </c>
       <c r="E45" s="3">
-        <v>106600</v>
+        <v>105200</v>
       </c>
       <c r="F45" s="3">
-        <v>298100</v>
+        <v>294300</v>
       </c>
       <c r="G45" s="3">
-        <v>467900</v>
+        <v>461800</v>
       </c>
       <c r="H45" s="3">
-        <v>623900</v>
+        <v>615800</v>
       </c>
       <c r="I45" s="3">
-        <v>250400</v>
+        <v>247100</v>
       </c>
       <c r="J45" s="3">
-        <v>226700</v>
+        <v>223700</v>
       </c>
       <c r="K45" s="3">
         <v>250300</v>
@@ -2196,25 +2196,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6082000</v>
+        <v>6002900</v>
       </c>
       <c r="E46" s="3">
-        <v>4915400</v>
+        <v>4851400</v>
       </c>
       <c r="F46" s="3">
-        <v>2611300</v>
+        <v>2577300</v>
       </c>
       <c r="G46" s="3">
-        <v>2952000</v>
+        <v>2913600</v>
       </c>
       <c r="H46" s="3">
-        <v>3755500</v>
+        <v>3706600</v>
       </c>
       <c r="I46" s="3">
-        <v>3029100</v>
+        <v>2989700</v>
       </c>
       <c r="J46" s="3">
-        <v>2790100</v>
+        <v>2753800</v>
       </c>
       <c r="K46" s="3">
         <v>2320400</v>
@@ -2240,25 +2240,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1080700</v>
+        <v>1066600</v>
       </c>
       <c r="E47" s="3">
-        <v>1086800</v>
+        <v>1072600</v>
       </c>
       <c r="F47" s="3">
-        <v>1257100</v>
+        <v>1240800</v>
       </c>
       <c r="G47" s="3">
-        <v>1205200</v>
+        <v>1189500</v>
       </c>
       <c r="H47" s="3">
-        <v>1212200</v>
+        <v>1196400</v>
       </c>
       <c r="I47" s="3">
-        <v>937000</v>
+        <v>924800</v>
       </c>
       <c r="J47" s="3">
-        <v>844500</v>
+        <v>833500</v>
       </c>
       <c r="K47" s="3">
         <v>875000</v>
@@ -2284,25 +2284,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42063100</v>
+        <v>41515800</v>
       </c>
       <c r="E48" s="3">
-        <v>42539200</v>
+        <v>41985700</v>
       </c>
       <c r="F48" s="3">
-        <v>43249200</v>
+        <v>42686500</v>
       </c>
       <c r="G48" s="3">
-        <v>42036400</v>
+        <v>41489400</v>
       </c>
       <c r="H48" s="3">
-        <v>32525400</v>
+        <v>32102200</v>
       </c>
       <c r="I48" s="3">
-        <v>30844400</v>
+        <v>30443100</v>
       </c>
       <c r="J48" s="3">
-        <v>29510700</v>
+        <v>29126700</v>
       </c>
       <c r="K48" s="3">
         <v>27153400</v>
@@ -2328,25 +2328,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37000</v>
+        <v>36500</v>
       </c>
       <c r="E49" s="3">
-        <v>37000</v>
+        <v>36500</v>
       </c>
       <c r="F49" s="3">
-        <v>37000</v>
+        <v>36500</v>
       </c>
       <c r="G49" s="3">
-        <v>37000</v>
+        <v>36500</v>
       </c>
       <c r="H49" s="3">
-        <v>37000</v>
+        <v>36500</v>
       </c>
       <c r="I49" s="3">
-        <v>37000</v>
+        <v>36500</v>
       </c>
       <c r="J49" s="3">
-        <v>37000</v>
+        <v>36500</v>
       </c>
       <c r="K49" s="3">
         <v>27800</v>
@@ -2460,25 +2460,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1656200</v>
+        <v>1634700</v>
       </c>
       <c r="E52" s="3">
-        <v>1310000</v>
+        <v>1293000</v>
       </c>
       <c r="F52" s="3">
-        <v>729200</v>
+        <v>719700</v>
       </c>
       <c r="G52" s="3">
-        <v>643500</v>
+        <v>635200</v>
       </c>
       <c r="H52" s="3">
-        <v>996400</v>
+        <v>983500</v>
       </c>
       <c r="I52" s="3">
-        <v>950900</v>
+        <v>938500</v>
       </c>
       <c r="J52" s="3">
-        <v>940000</v>
+        <v>927700</v>
       </c>
       <c r="K52" s="3">
         <v>790500</v>
@@ -2548,25 +2548,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50919000</v>
+        <v>50256500</v>
       </c>
       <c r="E54" s="3">
-        <v>49888400</v>
+        <v>49239300</v>
       </c>
       <c r="F54" s="3">
-        <v>47883800</v>
+        <v>47260800</v>
       </c>
       <c r="G54" s="3">
-        <v>46874100</v>
+        <v>46264200</v>
       </c>
       <c r="H54" s="3">
-        <v>38526500</v>
+        <v>38025200</v>
       </c>
       <c r="I54" s="3">
-        <v>35798400</v>
+        <v>35332600</v>
       </c>
       <c r="J54" s="3">
-        <v>34122200</v>
+        <v>33678200</v>
       </c>
       <c r="K54" s="3">
         <v>31167100</v>
@@ -2628,25 +2628,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>278000</v>
+        <v>274400</v>
       </c>
       <c r="E57" s="3">
-        <v>281000</v>
+        <v>277300</v>
       </c>
       <c r="F57" s="3">
-        <v>361500</v>
+        <v>356800</v>
       </c>
       <c r="G57" s="3">
-        <v>437600</v>
+        <v>431900</v>
       </c>
       <c r="H57" s="3">
-        <v>360200</v>
+        <v>355500</v>
       </c>
       <c r="I57" s="3">
-        <v>315500</v>
+        <v>311300</v>
       </c>
       <c r="J57" s="3">
-        <v>331500</v>
+        <v>327200</v>
       </c>
       <c r="K57" s="3">
         <v>299000</v>
@@ -2672,25 +2672,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9521100</v>
+        <v>9397200</v>
       </c>
       <c r="E58" s="3">
-        <v>10718700</v>
+        <v>10579200</v>
       </c>
       <c r="F58" s="3">
-        <v>8977000</v>
+        <v>8860200</v>
       </c>
       <c r="G58" s="3">
-        <v>9314400</v>
+        <v>9193200</v>
       </c>
       <c r="H58" s="3">
-        <v>7534700</v>
+        <v>7436600</v>
       </c>
       <c r="I58" s="3">
-        <v>7614200</v>
+        <v>7515100</v>
       </c>
       <c r="J58" s="3">
-        <v>5602200</v>
+        <v>5529300</v>
       </c>
       <c r="K58" s="3">
         <v>4578800</v>
@@ -2716,25 +2716,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5128000</v>
+        <v>5061300</v>
       </c>
       <c r="E59" s="3">
-        <v>4108700</v>
+        <v>4055200</v>
       </c>
       <c r="F59" s="3">
-        <v>5558900</v>
+        <v>5486600</v>
       </c>
       <c r="G59" s="3">
-        <v>5063800</v>
+        <v>4997900</v>
       </c>
       <c r="H59" s="3">
-        <v>5161100</v>
+        <v>5094000</v>
       </c>
       <c r="I59" s="3">
-        <v>4870200</v>
+        <v>4806800</v>
       </c>
       <c r="J59" s="3">
-        <v>4921000</v>
+        <v>4857000</v>
       </c>
       <c r="K59" s="3">
         <v>4623100</v>
@@ -2760,25 +2760,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14927200</v>
+        <v>14733000</v>
       </c>
       <c r="E60" s="3">
-        <v>15108300</v>
+        <v>14911700</v>
       </c>
       <c r="F60" s="3">
-        <v>14897400</v>
+        <v>14703600</v>
       </c>
       <c r="G60" s="3">
-        <v>14815800</v>
+        <v>14623000</v>
       </c>
       <c r="H60" s="3">
-        <v>13056000</v>
+        <v>12886100</v>
       </c>
       <c r="I60" s="3">
-        <v>12799800</v>
+        <v>12633300</v>
       </c>
       <c r="J60" s="3">
-        <v>10854700</v>
+        <v>10713500</v>
       </c>
       <c r="K60" s="3">
         <v>9500900</v>
@@ -2804,25 +2804,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21594400</v>
+        <v>21313400</v>
       </c>
       <c r="E61" s="3">
-        <v>20709900</v>
+        <v>20440400</v>
       </c>
       <c r="F61" s="3">
-        <v>19924500</v>
+        <v>19665200</v>
       </c>
       <c r="G61" s="3">
-        <v>19116500</v>
+        <v>18867800</v>
       </c>
       <c r="H61" s="3">
-        <v>12222100</v>
+        <v>12063100</v>
       </c>
       <c r="I61" s="3">
-        <v>11802900</v>
+        <v>11649400</v>
       </c>
       <c r="J61" s="3">
-        <v>12527900</v>
+        <v>12364900</v>
       </c>
       <c r="K61" s="3">
         <v>11967400</v>
@@ -2848,25 +2848,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1116100</v>
+        <v>1101600</v>
       </c>
       <c r="E62" s="3">
-        <v>1060700</v>
+        <v>1046900</v>
       </c>
       <c r="F62" s="3">
-        <v>997800</v>
+        <v>984900</v>
       </c>
       <c r="G62" s="3">
-        <v>1074000</v>
+        <v>1060000</v>
       </c>
       <c r="H62" s="3">
-        <v>1006400</v>
+        <v>993300</v>
       </c>
       <c r="I62" s="3">
-        <v>1079400</v>
+        <v>1065400</v>
       </c>
       <c r="J62" s="3">
-        <v>982200</v>
+        <v>969500</v>
       </c>
       <c r="K62" s="3">
         <v>905400</v>
@@ -3024,25 +3024,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40063200</v>
+        <v>39541900</v>
       </c>
       <c r="E66" s="3">
-        <v>38716100</v>
+        <v>38212300</v>
       </c>
       <c r="F66" s="3">
-        <v>37882700</v>
+        <v>37389700</v>
       </c>
       <c r="G66" s="3">
-        <v>37015100</v>
+        <v>36533400</v>
       </c>
       <c r="H66" s="3">
-        <v>28345800</v>
+        <v>27976900</v>
       </c>
       <c r="I66" s="3">
-        <v>27715800</v>
+        <v>27355200</v>
       </c>
       <c r="J66" s="3">
-        <v>26331700</v>
+        <v>25989100</v>
       </c>
       <c r="K66" s="3">
         <v>24237800</v>
@@ -3262,25 +3262,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2414300</v>
+        <v>2382800</v>
       </c>
       <c r="E72" s="3">
-        <v>2719900</v>
+        <v>2684500</v>
       </c>
       <c r="F72" s="3">
-        <v>4021300</v>
+        <v>3969000</v>
       </c>
       <c r="G72" s="3">
-        <v>3873100</v>
+        <v>3822700</v>
       </c>
       <c r="H72" s="3">
-        <v>4188100</v>
+        <v>4133600</v>
       </c>
       <c r="I72" s="3">
-        <v>4063000</v>
+        <v>4010100</v>
       </c>
       <c r="J72" s="3">
-        <v>3805200</v>
+        <v>3755700</v>
       </c>
       <c r="K72" s="3">
         <v>3239100</v>
@@ -3438,25 +3438,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10855800</v>
+        <v>10714500</v>
       </c>
       <c r="E76" s="3">
-        <v>11172300</v>
+        <v>11027000</v>
       </c>
       <c r="F76" s="3">
-        <v>10001200</v>
+        <v>9871000</v>
       </c>
       <c r="G76" s="3">
-        <v>9859100</v>
+        <v>9730800</v>
       </c>
       <c r="H76" s="3">
-        <v>10180700</v>
+        <v>10048300</v>
       </c>
       <c r="I76" s="3">
-        <v>8082600</v>
+        <v>7977400</v>
       </c>
       <c r="J76" s="3">
-        <v>7790500</v>
+        <v>7689100</v>
       </c>
       <c r="K76" s="3">
         <v>6929300</v>
@@ -3575,25 +3575,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-416200</v>
+        <v>-410800</v>
       </c>
       <c r="E81" s="3">
-        <v>-1276000</v>
+        <v>-1259400</v>
       </c>
       <c r="F81" s="3">
-        <v>149500</v>
+        <v>147500</v>
       </c>
       <c r="G81" s="3">
-        <v>262400</v>
+        <v>259000</v>
       </c>
       <c r="H81" s="3">
-        <v>124800</v>
+        <v>123200</v>
       </c>
       <c r="I81" s="3">
-        <v>326800</v>
+        <v>322600</v>
       </c>
       <c r="J81" s="3">
-        <v>497500</v>
+        <v>491000</v>
       </c>
       <c r="K81" s="3">
         <v>423500</v>
@@ -3901,25 +3901,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1642800</v>
+        <v>1621400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1221900</v>
+        <v>-1206000</v>
       </c>
       <c r="F89" s="3">
-        <v>3304400</v>
+        <v>3261500</v>
       </c>
       <c r="G89" s="3">
-        <v>1559200</v>
+        <v>1538900</v>
       </c>
       <c r="H89" s="3">
-        <v>1252000</v>
+        <v>1235700</v>
       </c>
       <c r="I89" s="3">
-        <v>1148700</v>
+        <v>1133800</v>
       </c>
       <c r="J89" s="3">
-        <v>1655700</v>
+        <v>1634200</v>
       </c>
       <c r="K89" s="3">
         <v>1087600</v>
@@ -3963,25 +3963,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1259600</v>
+        <v>-1243200</v>
       </c>
       <c r="E91" s="3">
-        <v>-466000</v>
+        <v>-459900</v>
       </c>
       <c r="F91" s="3">
-        <v>-746800</v>
+        <v>-737100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1690400</v>
+        <v>-1668400</v>
       </c>
       <c r="H91" s="3">
-        <v>-2274200</v>
+        <v>-2244600</v>
       </c>
       <c r="I91" s="3">
-        <v>-1475200</v>
+        <v>-1456000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1311900</v>
+        <v>-1294800</v>
       </c>
       <c r="K91" s="3">
         <v>-830700</v>
@@ -4095,25 +4095,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-768700</v>
+        <v>-758700</v>
       </c>
       <c r="E94" s="3">
-        <v>-487100</v>
+        <v>-480700</v>
       </c>
       <c r="F94" s="3">
-        <v>-689700</v>
+        <v>-680700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1561000</v>
+        <v>-1540700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2146100</v>
+        <v>-2118100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1054800</v>
+        <v>-1041100</v>
       </c>
       <c r="J94" s="3">
-        <v>-828100</v>
+        <v>-817300</v>
       </c>
       <c r="K94" s="3">
         <v>-447300</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-153200</v>
+        <v>-151200</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4333,25 +4333,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>386400</v>
+        <v>381400</v>
       </c>
       <c r="E100" s="3">
-        <v>4129300</v>
+        <v>4075500</v>
       </c>
       <c r="F100" s="3">
-        <v>-2568700</v>
+        <v>-2535300</v>
       </c>
       <c r="G100" s="3">
-        <v>-837500</v>
+        <v>-826600</v>
       </c>
       <c r="H100" s="3">
-        <v>1127000</v>
+        <v>1112400</v>
       </c>
       <c r="I100" s="3">
-        <v>-312600</v>
+        <v>-308600</v>
       </c>
       <c r="J100" s="3">
-        <v>-425400</v>
+        <v>-419900</v>
       </c>
       <c r="K100" s="3">
         <v>-621700</v>
@@ -4421,25 +4421,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1255700</v>
+        <v>1239400</v>
       </c>
       <c r="E102" s="3">
-        <v>2421400</v>
+        <v>2389900</v>
       </c>
       <c r="F102" s="3">
-        <v>46800</v>
+        <v>46200</v>
       </c>
       <c r="G102" s="3">
-        <v>-839200</v>
+        <v>-828300</v>
       </c>
       <c r="H102" s="3">
-        <v>234200</v>
+        <v>231100</v>
       </c>
       <c r="I102" s="3">
-        <v>-218300</v>
+        <v>-215400</v>
       </c>
       <c r="J102" s="3">
-        <v>399100</v>
+        <v>393900</v>
       </c>
       <c r="K102" s="3">
         <v>17700</v>

--- a/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>ZNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,222 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42916</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42551</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42369</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42185</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8252900</v>
+        <v>8074700</v>
       </c>
       <c r="E8" s="3">
-        <v>5999700</v>
+        <v>8391100</v>
       </c>
       <c r="F8" s="3">
-        <v>12531400</v>
+        <v>6100200</v>
       </c>
       <c r="G8" s="3">
-        <v>11231100</v>
+        <v>12741300</v>
       </c>
       <c r="H8" s="3">
-        <v>11718300</v>
+        <v>11419300</v>
       </c>
       <c r="I8" s="3">
-        <v>10396700</v>
+        <v>11914700</v>
       </c>
       <c r="J8" s="3">
+        <v>10570900</v>
+      </c>
+      <c r="K8" s="3">
         <v>10365600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9241400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8839000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7765000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8651300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7919000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8487100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6026300</v>
+        <v>6135300</v>
       </c>
       <c r="E9" s="3">
-        <v>4700400</v>
+        <v>6127300</v>
       </c>
       <c r="F9" s="3">
-        <v>8898700</v>
+        <v>4779200</v>
       </c>
       <c r="G9" s="3">
-        <v>8072100</v>
+        <v>9047800</v>
       </c>
       <c r="H9" s="3">
-        <v>9328100</v>
+        <v>8207300</v>
       </c>
       <c r="I9" s="3">
-        <v>8117700</v>
+        <v>9484400</v>
       </c>
       <c r="J9" s="3">
+        <v>8253700</v>
+      </c>
+      <c r="K9" s="3">
         <v>7940600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7061600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6592700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5394700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6133200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5550700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6364500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2226600</v>
+        <v>1939500</v>
       </c>
       <c r="E10" s="3">
-        <v>1299300</v>
+        <v>2263900</v>
       </c>
       <c r="F10" s="3">
-        <v>3632700</v>
+        <v>1321100</v>
       </c>
       <c r="G10" s="3">
-        <v>3159100</v>
+        <v>3693600</v>
       </c>
       <c r="H10" s="3">
-        <v>2390200</v>
+        <v>3212000</v>
       </c>
       <c r="I10" s="3">
-        <v>2279100</v>
+        <v>2430300</v>
       </c>
       <c r="J10" s="3">
+        <v>2317200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2425000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2179700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2246300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2370300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2518100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2368300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2122700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -884,8 +897,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +942,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,96 +989,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>616200</v>
+        <v>32100</v>
       </c>
       <c r="E14" s="3">
-        <v>-13200</v>
+        <v>626600</v>
       </c>
       <c r="F14" s="3">
-        <v>-38000</v>
+        <v>-13500</v>
       </c>
       <c r="G14" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2000</v>
       </c>
-      <c r="H14" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>43000</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2800</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13400</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1867500</v>
+        <v>1895000</v>
       </c>
       <c r="E15" s="3">
-        <v>1918900</v>
+        <v>1898800</v>
       </c>
       <c r="F15" s="3">
-        <v>1992300</v>
+        <v>1951100</v>
       </c>
       <c r="G15" s="3">
-        <v>1798600</v>
+        <v>2025700</v>
       </c>
       <c r="H15" s="3">
-        <v>1141600</v>
+        <v>1828800</v>
       </c>
       <c r="I15" s="3">
-        <v>1072000</v>
+        <v>1160700</v>
       </c>
       <c r="J15" s="3">
+        <v>1090000</v>
+      </c>
+      <c r="K15" s="3">
         <v>1049400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>994300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>926700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>913800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>909200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>870700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>824000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1075,96 +1101,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9024900</v>
+        <v>8585400</v>
       </c>
       <c r="E17" s="3">
-        <v>7047500</v>
+        <v>9176100</v>
       </c>
       <c r="F17" s="3">
-        <v>11626400</v>
+        <v>7165600</v>
       </c>
       <c r="G17" s="3">
-        <v>10424400</v>
+        <v>11821200</v>
       </c>
       <c r="H17" s="3">
-        <v>11077900</v>
+        <v>10599100</v>
       </c>
       <c r="I17" s="3">
-        <v>9677300</v>
+        <v>11263600</v>
       </c>
       <c r="J17" s="3">
+        <v>9839500</v>
+      </c>
+      <c r="K17" s="3">
         <v>9654400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8541300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8018300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6753300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7545200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7030800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7909400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-772100</v>
+        <v>-510700</v>
       </c>
       <c r="E18" s="3">
-        <v>-1047800</v>
+        <v>-785000</v>
       </c>
       <c r="F18" s="3">
-        <v>904900</v>
+        <v>-1065400</v>
       </c>
       <c r="G18" s="3">
-        <v>806700</v>
+        <v>920100</v>
       </c>
       <c r="H18" s="3">
-        <v>640400</v>
+        <v>820200</v>
       </c>
       <c r="I18" s="3">
-        <v>719400</v>
+        <v>651100</v>
       </c>
       <c r="J18" s="3">
+        <v>731400</v>
+      </c>
+      <c r="K18" s="3">
         <v>711200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>820700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1011700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1106100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>888200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1181,228 +1214,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>783300</v>
+        <v>209800</v>
       </c>
       <c r="E20" s="3">
-        <v>-266700</v>
+        <v>796400</v>
       </c>
       <c r="F20" s="3">
-        <v>-190300</v>
+        <v>-271200</v>
       </c>
       <c r="G20" s="3">
+        <v>-193500</v>
+      </c>
+      <c r="H20" s="3">
         <v>5900</v>
       </c>
-      <c r="H20" s="3">
-        <v>-178900</v>
-      </c>
       <c r="I20" s="3">
-        <v>-13900</v>
+        <v>-181900</v>
       </c>
       <c r="J20" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K20" s="3">
         <v>229900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>138900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-222900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-156100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-826100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>64900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-40200</v>
+        <v>1594100</v>
       </c>
       <c r="E21" s="3">
-        <v>604400</v>
+        <v>-40900</v>
       </c>
       <c r="F21" s="3">
-        <v>908300</v>
+        <v>614500</v>
       </c>
       <c r="G21" s="3">
-        <v>2611200</v>
+        <v>923500</v>
       </c>
       <c r="H21" s="3">
-        <v>531100</v>
+        <v>2654900</v>
       </c>
       <c r="I21" s="3">
-        <v>1777500</v>
+        <v>540000</v>
       </c>
       <c r="J21" s="3">
+        <v>1807300</v>
+      </c>
+      <c r="K21" s="3">
         <v>988400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1833200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>599500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1769400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>318500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1823800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>511800</v>
+        <v>497700</v>
       </c>
       <c r="E22" s="3">
-        <v>524600</v>
+        <v>520400</v>
       </c>
       <c r="F22" s="3">
-        <v>458100</v>
+        <v>533400</v>
       </c>
       <c r="G22" s="3">
-        <v>444700</v>
+        <v>465800</v>
       </c>
       <c r="H22" s="3">
-        <v>258100</v>
+        <v>452100</v>
       </c>
       <c r="I22" s="3">
-        <v>237000</v>
+        <v>262400</v>
       </c>
       <c r="J22" s="3">
+        <v>240900</v>
+      </c>
+      <c r="K22" s="3">
         <v>217300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>201400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>180400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>168700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>159400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>165800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500600</v>
+        <v>-798600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1839100</v>
+        <v>-509000</v>
       </c>
       <c r="F23" s="3">
-        <v>256500</v>
+        <v>-1870000</v>
       </c>
       <c r="G23" s="3">
-        <v>367900</v>
+        <v>260800</v>
       </c>
       <c r="H23" s="3">
-        <v>203400</v>
+        <v>374000</v>
       </c>
       <c r="I23" s="3">
-        <v>468600</v>
+        <v>206800</v>
       </c>
       <c r="J23" s="3">
+        <v>476400</v>
+      </c>
+      <c r="K23" s="3">
         <v>723900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>637600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>417400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>686800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>120700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>787300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>610100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-139500</v>
+        <v>-177500</v>
       </c>
       <c r="E24" s="3">
-        <v>-379100</v>
+        <v>-141800</v>
       </c>
       <c r="F24" s="3">
-        <v>44000</v>
+        <v>-385500</v>
       </c>
       <c r="G24" s="3">
-        <v>105500</v>
+        <v>44800</v>
       </c>
       <c r="H24" s="3">
-        <v>49000</v>
+        <v>107200</v>
       </c>
       <c r="I24" s="3">
-        <v>105000</v>
+        <v>49800</v>
       </c>
       <c r="J24" s="3">
+        <v>106800</v>
+      </c>
+      <c r="K24" s="3">
         <v>156100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>147000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>96900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>157300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>179600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>143000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1445,96 +1494,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-361100</v>
+        <v>-621100</v>
       </c>
       <c r="E26" s="3">
-        <v>-1460000</v>
+        <v>-367100</v>
       </c>
       <c r="F26" s="3">
-        <v>212500</v>
+        <v>-1484500</v>
       </c>
       <c r="G26" s="3">
-        <v>262400</v>
+        <v>216100</v>
       </c>
       <c r="H26" s="3">
-        <v>154400</v>
+        <v>266800</v>
       </c>
       <c r="I26" s="3">
-        <v>363500</v>
+        <v>157000</v>
       </c>
       <c r="J26" s="3">
+        <v>369600</v>
+      </c>
+      <c r="K26" s="3">
         <v>567700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>490600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>320500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>529600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>107300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>607700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-410800</v>
+        <v>-734300</v>
       </c>
       <c r="E27" s="3">
-        <v>-1259400</v>
+        <v>-417700</v>
       </c>
       <c r="F27" s="3">
-        <v>147500</v>
+        <v>-1280500</v>
       </c>
       <c r="G27" s="3">
-        <v>259000</v>
+        <v>150000</v>
       </c>
       <c r="H27" s="3">
-        <v>123200</v>
+        <v>263300</v>
       </c>
       <c r="I27" s="3">
-        <v>322600</v>
+        <v>125200</v>
       </c>
       <c r="J27" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K27" s="3">
         <v>491000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>423500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>279700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>447400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>516300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1577,8 +1635,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1621,8 +1682,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1665,8 +1729,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1709,96 +1776,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-783300</v>
+        <v>-209800</v>
       </c>
       <c r="E32" s="3">
-        <v>266700</v>
+        <v>-796400</v>
       </c>
       <c r="F32" s="3">
-        <v>190300</v>
+        <v>271200</v>
       </c>
       <c r="G32" s="3">
+        <v>193500</v>
+      </c>
+      <c r="H32" s="3">
         <v>-5900</v>
       </c>
-      <c r="H32" s="3">
-        <v>178900</v>
-      </c>
       <c r="I32" s="3">
-        <v>13900</v>
+        <v>181900</v>
       </c>
       <c r="J32" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-229900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-138900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>222900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>156100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>826100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-64900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-214400</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-410800</v>
+        <v>-734300</v>
       </c>
       <c r="E33" s="3">
-        <v>-1259400</v>
+        <v>-417700</v>
       </c>
       <c r="F33" s="3">
-        <v>147500</v>
+        <v>-1280500</v>
       </c>
       <c r="G33" s="3">
-        <v>259000</v>
+        <v>150000</v>
       </c>
       <c r="H33" s="3">
-        <v>123200</v>
+        <v>263300</v>
       </c>
       <c r="I33" s="3">
-        <v>322600</v>
+        <v>125200</v>
       </c>
       <c r="J33" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K33" s="3">
         <v>491000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>423500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>279700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>447400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>516300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1841,101 +1917,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-410800</v>
+        <v>-734300</v>
       </c>
       <c r="E35" s="3">
-        <v>-1259400</v>
+        <v>-417700</v>
       </c>
       <c r="F35" s="3">
-        <v>147500</v>
+        <v>-1280500</v>
       </c>
       <c r="G35" s="3">
-        <v>259000</v>
+        <v>150000</v>
       </c>
       <c r="H35" s="3">
-        <v>123200</v>
+        <v>263300</v>
       </c>
       <c r="I35" s="3">
-        <v>322600</v>
+        <v>125200</v>
       </c>
       <c r="J35" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K35" s="3">
         <v>491000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>423500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>279700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>447400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>516300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42916</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42551</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42369</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42185</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1952,8 +2037,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1970,52 +2056,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3914000</v>
+        <v>3908700</v>
       </c>
       <c r="E41" s="3">
-        <v>2674600</v>
+        <v>3979600</v>
       </c>
       <c r="F41" s="3">
-        <v>284700</v>
+        <v>2719400</v>
       </c>
       <c r="G41" s="3">
-        <v>238500</v>
+        <v>289500</v>
       </c>
       <c r="H41" s="3">
-        <v>1066800</v>
+        <v>242500</v>
       </c>
       <c r="I41" s="3">
-        <v>835600</v>
+        <v>1084600</v>
       </c>
       <c r="J41" s="3">
+        <v>849700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1051100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>652100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>603000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>882500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>676700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1425500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2241700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2028,14 +2118,14 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
-        <v>3800</v>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H42" s="3">
-        <v>67800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>3900</v>
+      </c>
+      <c r="I42" s="3">
+        <v>68900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2049,8 +2139,8 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2058,304 +2148,325 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1687200</v>
+        <v>1994700</v>
       </c>
       <c r="E43" s="3">
-        <v>1748400</v>
+        <v>1715400</v>
       </c>
       <c r="F43" s="3">
-        <v>1706900</v>
+        <v>1777700</v>
       </c>
       <c r="G43" s="3">
-        <v>1904700</v>
+        <v>1735500</v>
       </c>
       <c r="H43" s="3">
-        <v>1694700</v>
+        <v>1936600</v>
       </c>
       <c r="I43" s="3">
-        <v>1617400</v>
+        <v>1723100</v>
       </c>
       <c r="J43" s="3">
+        <v>1644500</v>
+      </c>
+      <c r="K43" s="3">
         <v>1229200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1150000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>940200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1005700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>984400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1276600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1313700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>271000</v>
+        <v>282000</v>
       </c>
       <c r="E44" s="3">
-        <v>323200</v>
+        <v>275500</v>
       </c>
       <c r="F44" s="3">
-        <v>291500</v>
+        <v>328600</v>
       </c>
       <c r="G44" s="3">
-        <v>304700</v>
+        <v>296400</v>
       </c>
       <c r="H44" s="3">
-        <v>261600</v>
+        <v>309800</v>
       </c>
       <c r="I44" s="3">
-        <v>289500</v>
+        <v>266000</v>
       </c>
       <c r="J44" s="3">
+        <v>294300</v>
+      </c>
+      <c r="K44" s="3">
         <v>249800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>268100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>230600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>255100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>238300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>256500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>130700</v>
+        <v>81600</v>
       </c>
       <c r="E45" s="3">
-        <v>105200</v>
+        <v>132900</v>
       </c>
       <c r="F45" s="3">
-        <v>294300</v>
+        <v>106900</v>
       </c>
       <c r="G45" s="3">
-        <v>461800</v>
+        <v>299200</v>
       </c>
       <c r="H45" s="3">
-        <v>615800</v>
+        <v>469500</v>
       </c>
       <c r="I45" s="3">
-        <v>247100</v>
+        <v>626100</v>
       </c>
       <c r="J45" s="3">
+        <v>251300</v>
+      </c>
+      <c r="K45" s="3">
         <v>223700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>250300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>225100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>220500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>195000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>145100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>208400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6002900</v>
+        <v>6266900</v>
       </c>
       <c r="E46" s="3">
-        <v>4851400</v>
+        <v>6103500</v>
       </c>
       <c r="F46" s="3">
-        <v>2577300</v>
+        <v>4932700</v>
       </c>
       <c r="G46" s="3">
-        <v>2913600</v>
+        <v>2620500</v>
       </c>
       <c r="H46" s="3">
-        <v>3706600</v>
+        <v>2962400</v>
       </c>
       <c r="I46" s="3">
-        <v>2989700</v>
+        <v>3768700</v>
       </c>
       <c r="J46" s="3">
+        <v>3039800</v>
+      </c>
+      <c r="K46" s="3">
         <v>2753800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2320400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1998900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2363800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2094500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3103700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4005300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1066600</v>
+        <v>1110500</v>
       </c>
       <c r="E47" s="3">
-        <v>1072600</v>
+        <v>1084500</v>
       </c>
       <c r="F47" s="3">
-        <v>1240800</v>
+        <v>1090600</v>
       </c>
       <c r="G47" s="3">
-        <v>1189500</v>
+        <v>1261600</v>
       </c>
       <c r="H47" s="3">
-        <v>1196400</v>
+        <v>1209400</v>
       </c>
       <c r="I47" s="3">
-        <v>924800</v>
+        <v>1216500</v>
       </c>
       <c r="J47" s="3">
+        <v>940300</v>
+      </c>
+      <c r="K47" s="3">
         <v>833500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>875000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>789900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>676500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>689800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>686700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>598000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41515800</v>
+        <v>41797300</v>
       </c>
       <c r="E48" s="3">
-        <v>41985700</v>
+        <v>42211400</v>
       </c>
       <c r="F48" s="3">
-        <v>42686500</v>
+        <v>42689200</v>
       </c>
       <c r="G48" s="3">
-        <v>41489400</v>
+        <v>43401700</v>
       </c>
       <c r="H48" s="3">
-        <v>32102200</v>
+        <v>42184600</v>
       </c>
       <c r="I48" s="3">
-        <v>30443100</v>
+        <v>32640100</v>
       </c>
       <c r="J48" s="3">
+        <v>30953200</v>
+      </c>
+      <c r="K48" s="3">
         <v>29126700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>27153400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25510500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23579600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24087400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23502400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22367100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>37100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>37100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>37100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>37100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>37100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K49" s="3">
         <v>36500</v>
       </c>
-      <c r="E49" s="3">
-        <v>36500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>36500</v>
-      </c>
-      <c r="G49" s="3">
-        <v>36500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>36500</v>
-      </c>
-      <c r="I49" s="3">
-        <v>36500</v>
-      </c>
-      <c r="J49" s="3">
-        <v>36500</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>27800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26400</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -2366,8 +2477,11 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2410,8 +2524,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2454,52 +2571,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1634700</v>
+        <v>1996500</v>
       </c>
       <c r="E52" s="3">
-        <v>1293000</v>
+        <v>1662000</v>
       </c>
       <c r="F52" s="3">
-        <v>719700</v>
+        <v>1314600</v>
       </c>
       <c r="G52" s="3">
-        <v>635200</v>
+        <v>731800</v>
       </c>
       <c r="H52" s="3">
-        <v>983500</v>
+        <v>645800</v>
       </c>
       <c r="I52" s="3">
-        <v>938500</v>
+        <v>999900</v>
       </c>
       <c r="J52" s="3">
+        <v>954200</v>
+      </c>
+      <c r="K52" s="3">
         <v>927700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>790500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>784400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>779800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>730900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>634300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2542,52 +2665,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50256500</v>
+        <v>51208300</v>
       </c>
       <c r="E54" s="3">
-        <v>49239300</v>
+        <v>51098500</v>
       </c>
       <c r="F54" s="3">
-        <v>47260800</v>
+        <v>50064300</v>
       </c>
       <c r="G54" s="3">
-        <v>46264200</v>
+        <v>48052600</v>
       </c>
       <c r="H54" s="3">
-        <v>38025200</v>
+        <v>47039400</v>
       </c>
       <c r="I54" s="3">
-        <v>35332600</v>
+        <v>38662300</v>
       </c>
       <c r="J54" s="3">
+        <v>35924600</v>
+      </c>
+      <c r="K54" s="3">
         <v>33678200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31167100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29110200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27399800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27602600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27927100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27586300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2604,8 +2733,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2622,272 +2752,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>274400</v>
+        <v>240200</v>
       </c>
       <c r="E57" s="3">
-        <v>277300</v>
+        <v>279000</v>
       </c>
       <c r="F57" s="3">
-        <v>356800</v>
+        <v>282000</v>
       </c>
       <c r="G57" s="3">
-        <v>431900</v>
+        <v>362700</v>
       </c>
       <c r="H57" s="3">
-        <v>355500</v>
+        <v>439200</v>
       </c>
       <c r="I57" s="3">
-        <v>311300</v>
+        <v>361500</v>
       </c>
       <c r="J57" s="3">
+        <v>316600</v>
+      </c>
+      <c r="K57" s="3">
         <v>327200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>299000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>276400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>254400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>371000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>310300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>9397200</v>
+        <v>10932700</v>
       </c>
       <c r="E58" s="3">
-        <v>10579200</v>
+        <v>9554700</v>
       </c>
       <c r="F58" s="3">
-        <v>8860200</v>
+        <v>10756500</v>
       </c>
       <c r="G58" s="3">
-        <v>9193200</v>
+        <v>9008600</v>
       </c>
       <c r="H58" s="3">
-        <v>7436600</v>
+        <v>9347300</v>
       </c>
       <c r="I58" s="3">
-        <v>7515100</v>
+        <v>7561200</v>
       </c>
       <c r="J58" s="3">
+        <v>7641100</v>
+      </c>
+      <c r="K58" s="3">
         <v>5529300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4578800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5147100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5443500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5404800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4074700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3922400</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5061300</v>
+        <v>4977000</v>
       </c>
       <c r="E59" s="3">
-        <v>4055200</v>
+        <v>5146100</v>
       </c>
       <c r="F59" s="3">
-        <v>5486600</v>
+        <v>4123200</v>
       </c>
       <c r="G59" s="3">
-        <v>4997900</v>
+        <v>5578500</v>
       </c>
       <c r="H59" s="3">
-        <v>5094000</v>
+        <v>5081600</v>
       </c>
       <c r="I59" s="3">
-        <v>4806800</v>
+        <v>5179300</v>
       </c>
       <c r="J59" s="3">
+        <v>4887300</v>
+      </c>
+      <c r="K59" s="3">
         <v>4857000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4623100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4442300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3991600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3950200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3701800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3702400</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14733000</v>
+        <v>16149900</v>
       </c>
       <c r="E60" s="3">
-        <v>14911700</v>
+        <v>14979800</v>
       </c>
       <c r="F60" s="3">
-        <v>14703600</v>
+        <v>15161600</v>
       </c>
       <c r="G60" s="3">
-        <v>14623000</v>
+        <v>14949900</v>
       </c>
       <c r="H60" s="3">
-        <v>12886100</v>
+        <v>14868000</v>
       </c>
       <c r="I60" s="3">
-        <v>12633300</v>
+        <v>13102000</v>
       </c>
       <c r="J60" s="3">
+        <v>12845000</v>
+      </c>
+      <c r="K60" s="3">
         <v>10713500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9500900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9865800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9689500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9726000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8086900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7865700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21313400</v>
+        <v>19442200</v>
       </c>
       <c r="E61" s="3">
-        <v>20440400</v>
+        <v>21670600</v>
       </c>
       <c r="F61" s="3">
-        <v>19665200</v>
+        <v>20782900</v>
       </c>
       <c r="G61" s="3">
-        <v>18867800</v>
+        <v>19994700</v>
       </c>
       <c r="H61" s="3">
-        <v>12063100</v>
+        <v>19183900</v>
       </c>
       <c r="I61" s="3">
-        <v>11649400</v>
+        <v>12265200</v>
       </c>
       <c r="J61" s="3">
+        <v>11844500</v>
+      </c>
+      <c r="K61" s="3">
         <v>12364900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11967400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10498000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>9369000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9690000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11690700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12504800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1101600</v>
+        <v>1167600</v>
       </c>
       <c r="E62" s="3">
-        <v>1046900</v>
+        <v>1120000</v>
       </c>
       <c r="F62" s="3">
-        <v>984900</v>
+        <v>1064500</v>
       </c>
       <c r="G62" s="3">
-        <v>1060000</v>
+        <v>1001400</v>
       </c>
       <c r="H62" s="3">
-        <v>993300</v>
+        <v>1077800</v>
       </c>
       <c r="I62" s="3">
-        <v>1065400</v>
+        <v>1010000</v>
       </c>
       <c r="J62" s="3">
+        <v>1083200</v>
+      </c>
+      <c r="K62" s="3">
         <v>969500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>905400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>762300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>804600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>821900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>829000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>745200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2930,8 +3079,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2974,8 +3126,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3018,52 +3173,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39541900</v>
+        <v>39421300</v>
       </c>
       <c r="E66" s="3">
-        <v>38212300</v>
+        <v>40204500</v>
       </c>
       <c r="F66" s="3">
-        <v>37389700</v>
+        <v>38852600</v>
       </c>
       <c r="G66" s="3">
-        <v>36533400</v>
+        <v>38016200</v>
       </c>
       <c r="H66" s="3">
-        <v>27976900</v>
+        <v>37145600</v>
       </c>
       <c r="I66" s="3">
-        <v>27355200</v>
+        <v>28445700</v>
       </c>
       <c r="J66" s="3">
+        <v>27813500</v>
+      </c>
+      <c r="K66" s="3">
         <v>25989100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24237800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>22799100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21477100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21808000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22162500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22387500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3080,8 +3241,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3124,8 +3286,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3168,8 +3333,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,8 +3380,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3256,52 +3427,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2382800</v>
+        <v>1688500</v>
       </c>
       <c r="E72" s="3">
-        <v>2684500</v>
+        <v>2422800</v>
       </c>
       <c r="F72" s="3">
-        <v>3969000</v>
+        <v>2729500</v>
       </c>
       <c r="G72" s="3">
-        <v>3822700</v>
+        <v>4035500</v>
       </c>
       <c r="H72" s="3">
-        <v>4133600</v>
+        <v>3886800</v>
       </c>
       <c r="I72" s="3">
-        <v>4010100</v>
+        <v>4202900</v>
       </c>
       <c r="J72" s="3">
+        <v>4077300</v>
+      </c>
+      <c r="K72" s="3">
         <v>3755700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3239100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2802600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2492800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2232200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2201700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1709500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3344,8 +3521,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3388,8 +3568,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3432,52 +3615,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10714500</v>
+        <v>11786900</v>
       </c>
       <c r="E76" s="3">
-        <v>11027000</v>
+        <v>10894100</v>
       </c>
       <c r="F76" s="3">
-        <v>9871000</v>
+        <v>11211700</v>
       </c>
       <c r="G76" s="3">
-        <v>9730800</v>
+        <v>10036400</v>
       </c>
       <c r="H76" s="3">
-        <v>10048300</v>
+        <v>9893800</v>
       </c>
       <c r="I76" s="3">
-        <v>7977400</v>
+        <v>10216600</v>
       </c>
       <c r="J76" s="3">
+        <v>8111100</v>
+      </c>
+      <c r="K76" s="3">
         <v>7689100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6929300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6311100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5922700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5794700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5764500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5198800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3520,101 +3709,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42916</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42551</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42369</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42185</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-410800</v>
+        <v>-734300</v>
       </c>
       <c r="E81" s="3">
-        <v>-1259400</v>
+        <v>-417700</v>
       </c>
       <c r="F81" s="3">
-        <v>147500</v>
+        <v>-1280500</v>
       </c>
       <c r="G81" s="3">
-        <v>259000</v>
+        <v>150000</v>
       </c>
       <c r="H81" s="3">
-        <v>123200</v>
+        <v>263300</v>
       </c>
       <c r="I81" s="3">
-        <v>322600</v>
+        <v>125200</v>
       </c>
       <c r="J81" s="3">
+        <v>328000</v>
+      </c>
+      <c r="K81" s="3">
         <v>491000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>423500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>279700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>447400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>516300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3631,8 +3829,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3675,8 +3874,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3719,8 +3921,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3763,8 +3968,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3807,8 +4015,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3851,8 +4062,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3895,52 +4109,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1621400</v>
+        <v>773400</v>
       </c>
       <c r="E89" s="3">
-        <v>-1206000</v>
+        <v>1648600</v>
       </c>
       <c r="F89" s="3">
-        <v>3261500</v>
+        <v>-1226200</v>
       </c>
       <c r="G89" s="3">
-        <v>1538900</v>
+        <v>3316100</v>
       </c>
       <c r="H89" s="3">
-        <v>1235700</v>
+        <v>1564700</v>
       </c>
       <c r="I89" s="3">
-        <v>1133800</v>
+        <v>1256400</v>
       </c>
       <c r="J89" s="3">
+        <v>1152800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1634200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1087600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2273000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1164100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2055300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1467000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1576600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3957,52 +4177,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1243200</v>
+        <v>-1137300</v>
       </c>
       <c r="E91" s="3">
-        <v>-459900</v>
+        <v>-1264100</v>
       </c>
       <c r="F91" s="3">
-        <v>-737100</v>
+        <v>-467600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1668400</v>
+        <v>-749500</v>
       </c>
       <c r="H91" s="3">
-        <v>-2244600</v>
+        <v>-1696300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1456000</v>
+        <v>-2282200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1480400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1294800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-830700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2249500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-499000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1157600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-644000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-355100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4045,8 +4269,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4089,52 +4316,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-758700</v>
+        <v>-1007600</v>
       </c>
       <c r="E94" s="3">
-        <v>-480700</v>
+        <v>-771400</v>
       </c>
       <c r="F94" s="3">
-        <v>-680700</v>
+        <v>-488800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1540700</v>
+        <v>-692200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2118100</v>
+        <v>-1566500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1041100</v>
+        <v>-2153600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1058500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-817300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-447300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2108300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-176900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-454700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-573900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-178600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4151,8 +4384,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4175,28 +4409,31 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-151200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-48700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-64600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4239,8 +4476,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4283,8 +4523,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4327,136 +4570,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>381400</v>
+        <v>164200</v>
       </c>
       <c r="E100" s="3">
-        <v>4075500</v>
+        <v>387800</v>
       </c>
       <c r="F100" s="3">
-        <v>-2535300</v>
+        <v>4143800</v>
       </c>
       <c r="G100" s="3">
-        <v>-826600</v>
+        <v>-2577800</v>
       </c>
       <c r="H100" s="3">
-        <v>1112400</v>
+        <v>-840400</v>
       </c>
       <c r="I100" s="3">
-        <v>-308600</v>
+        <v>1131000</v>
       </c>
       <c r="J100" s="3">
+        <v>-313700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-419900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-621700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-457600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-761600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2357000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1753200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-898500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4800</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="F101" s="3">
         <v>1100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
-        <v>1200</v>
-      </c>
       <c r="I101" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1239400</v>
+        <v>-70900</v>
       </c>
       <c r="E102" s="3">
-        <v>2389900</v>
+        <v>1260200</v>
       </c>
       <c r="F102" s="3">
-        <v>46200</v>
+        <v>2430000</v>
       </c>
       <c r="G102" s="3">
-        <v>-828300</v>
+        <v>47000</v>
       </c>
       <c r="H102" s="3">
-        <v>231100</v>
+        <v>-842100</v>
       </c>
       <c r="I102" s="3">
-        <v>-215400</v>
+        <v>235000</v>
       </c>
       <c r="J102" s="3">
+        <v>-219000</v>
+      </c>
+      <c r="K102" s="3">
         <v>393900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-290300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>228300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-748700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-862100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
@@ -744,25 +744,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8074700</v>
+        <v>8136600</v>
       </c>
       <c r="E8" s="3">
-        <v>8391100</v>
+        <v>8455500</v>
       </c>
       <c r="F8" s="3">
-        <v>6100200</v>
+        <v>6147000</v>
       </c>
       <c r="G8" s="3">
-        <v>12741300</v>
+        <v>12839000</v>
       </c>
       <c r="H8" s="3">
-        <v>11419300</v>
+        <v>11506900</v>
       </c>
       <c r="I8" s="3">
-        <v>11914700</v>
+        <v>12006000</v>
       </c>
       <c r="J8" s="3">
-        <v>10570900</v>
+        <v>10652000</v>
       </c>
       <c r="K8" s="3">
         <v>10365600</v>
@@ -791,25 +791,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6135300</v>
+        <v>6182300</v>
       </c>
       <c r="E9" s="3">
-        <v>6127300</v>
+        <v>6174300</v>
       </c>
       <c r="F9" s="3">
-        <v>4779200</v>
+        <v>4815800</v>
       </c>
       <c r="G9" s="3">
-        <v>9047800</v>
+        <v>9117100</v>
       </c>
       <c r="H9" s="3">
-        <v>8207300</v>
+        <v>8270300</v>
       </c>
       <c r="I9" s="3">
-        <v>9484400</v>
+        <v>9557100</v>
       </c>
       <c r="J9" s="3">
-        <v>8253700</v>
+        <v>8316900</v>
       </c>
       <c r="K9" s="3">
         <v>7940600</v>
@@ -838,25 +838,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1939500</v>
+        <v>1954300</v>
       </c>
       <c r="E10" s="3">
-        <v>2263900</v>
+        <v>2281200</v>
       </c>
       <c r="F10" s="3">
-        <v>1321100</v>
+        <v>1331200</v>
       </c>
       <c r="G10" s="3">
-        <v>3693600</v>
+        <v>3721900</v>
       </c>
       <c r="H10" s="3">
-        <v>3212000</v>
+        <v>3236600</v>
       </c>
       <c r="I10" s="3">
-        <v>2430300</v>
+        <v>2448900</v>
       </c>
       <c r="J10" s="3">
-        <v>2317200</v>
+        <v>2335000</v>
       </c>
       <c r="K10" s="3">
         <v>2425000</v>
@@ -998,19 +998,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>32100</v>
+        <v>32300</v>
       </c>
       <c r="E14" s="3">
-        <v>626600</v>
+        <v>631400</v>
       </c>
       <c r="F14" s="3">
-        <v>-13500</v>
+        <v>-13600</v>
       </c>
       <c r="G14" s="3">
-        <v>-38700</v>
+        <v>-39000</v>
       </c>
       <c r="H14" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="I14" s="3">
         <v>-1900</v>
@@ -1045,25 +1045,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1895000</v>
+        <v>1909500</v>
       </c>
       <c r="E15" s="3">
-        <v>1898800</v>
+        <v>1913300</v>
       </c>
       <c r="F15" s="3">
-        <v>1951100</v>
+        <v>1966000</v>
       </c>
       <c r="G15" s="3">
-        <v>2025700</v>
+        <v>2041300</v>
       </c>
       <c r="H15" s="3">
-        <v>1828800</v>
+        <v>1842800</v>
       </c>
       <c r="I15" s="3">
-        <v>1160700</v>
+        <v>1169600</v>
       </c>
       <c r="J15" s="3">
-        <v>1090000</v>
+        <v>1098300</v>
       </c>
       <c r="K15" s="3">
         <v>1049400</v>
@@ -1108,25 +1108,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8585400</v>
+        <v>8651200</v>
       </c>
       <c r="E17" s="3">
-        <v>9176100</v>
+        <v>9246500</v>
       </c>
       <c r="F17" s="3">
-        <v>7165600</v>
+        <v>7220500</v>
       </c>
       <c r="G17" s="3">
-        <v>11821200</v>
+        <v>11911800</v>
       </c>
       <c r="H17" s="3">
-        <v>10599100</v>
+        <v>10680400</v>
       </c>
       <c r="I17" s="3">
-        <v>11263600</v>
+        <v>11349900</v>
       </c>
       <c r="J17" s="3">
-        <v>9839500</v>
+        <v>9914900</v>
       </c>
       <c r="K17" s="3">
         <v>9654400</v>
@@ -1155,25 +1155,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-510700</v>
+        <v>-514600</v>
       </c>
       <c r="E18" s="3">
-        <v>-785000</v>
+        <v>-791000</v>
       </c>
       <c r="F18" s="3">
-        <v>-1065400</v>
+        <v>-1073600</v>
       </c>
       <c r="G18" s="3">
-        <v>920100</v>
+        <v>927200</v>
       </c>
       <c r="H18" s="3">
-        <v>820200</v>
+        <v>826500</v>
       </c>
       <c r="I18" s="3">
-        <v>651100</v>
+        <v>656100</v>
       </c>
       <c r="J18" s="3">
-        <v>731400</v>
+        <v>737100</v>
       </c>
       <c r="K18" s="3">
         <v>711200</v>
@@ -1221,25 +1221,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>209800</v>
+        <v>211400</v>
       </c>
       <c r="E20" s="3">
-        <v>796400</v>
+        <v>802500</v>
       </c>
       <c r="F20" s="3">
-        <v>-271200</v>
+        <v>-273200</v>
       </c>
       <c r="G20" s="3">
-        <v>-193500</v>
+        <v>-195000</v>
       </c>
       <c r="H20" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="I20" s="3">
-        <v>-181900</v>
+        <v>-183300</v>
       </c>
       <c r="J20" s="3">
-        <v>-14100</v>
+        <v>-14200</v>
       </c>
       <c r="K20" s="3">
         <v>229900</v>
@@ -1268,25 +1268,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1594100</v>
+        <v>1606300</v>
       </c>
       <c r="E21" s="3">
-        <v>-40900</v>
+        <v>-41200</v>
       </c>
       <c r="F21" s="3">
-        <v>614500</v>
+        <v>619200</v>
       </c>
       <c r="G21" s="3">
-        <v>923500</v>
+        <v>930600</v>
       </c>
       <c r="H21" s="3">
-        <v>2654900</v>
+        <v>2675300</v>
       </c>
       <c r="I21" s="3">
-        <v>540000</v>
+        <v>544100</v>
       </c>
       <c r="J21" s="3">
-        <v>1807300</v>
+        <v>1821200</v>
       </c>
       <c r="K21" s="3">
         <v>988400</v>
@@ -1315,25 +1315,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>497700</v>
+        <v>501500</v>
       </c>
       <c r="E22" s="3">
-        <v>520400</v>
+        <v>524400</v>
       </c>
       <c r="F22" s="3">
-        <v>533400</v>
+        <v>537500</v>
       </c>
       <c r="G22" s="3">
-        <v>465800</v>
+        <v>469300</v>
       </c>
       <c r="H22" s="3">
-        <v>452100</v>
+        <v>455600</v>
       </c>
       <c r="I22" s="3">
-        <v>262400</v>
+        <v>264400</v>
       </c>
       <c r="J22" s="3">
-        <v>240900</v>
+        <v>242800</v>
       </c>
       <c r="K22" s="3">
         <v>217300</v>
@@ -1362,25 +1362,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-798600</v>
+        <v>-804700</v>
       </c>
       <c r="E23" s="3">
-        <v>-509000</v>
+        <v>-512900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1870000</v>
+        <v>-1884300</v>
       </c>
       <c r="G23" s="3">
-        <v>260800</v>
+        <v>262800</v>
       </c>
       <c r="H23" s="3">
-        <v>374000</v>
+        <v>376900</v>
       </c>
       <c r="I23" s="3">
-        <v>206800</v>
+        <v>208400</v>
       </c>
       <c r="J23" s="3">
-        <v>476400</v>
+        <v>480100</v>
       </c>
       <c r="K23" s="3">
         <v>723900</v>
@@ -1409,25 +1409,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-177500</v>
+        <v>-178900</v>
       </c>
       <c r="E24" s="3">
-        <v>-141800</v>
+        <v>-142900</v>
       </c>
       <c r="F24" s="3">
-        <v>-385500</v>
+        <v>-388400</v>
       </c>
       <c r="G24" s="3">
-        <v>44800</v>
+        <v>45100</v>
       </c>
       <c r="H24" s="3">
-        <v>107200</v>
+        <v>108100</v>
       </c>
       <c r="I24" s="3">
-        <v>49800</v>
+        <v>50200</v>
       </c>
       <c r="J24" s="3">
-        <v>106800</v>
+        <v>107600</v>
       </c>
       <c r="K24" s="3">
         <v>156100</v>
@@ -1503,25 +1503,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-621100</v>
+        <v>-625800</v>
       </c>
       <c r="E26" s="3">
-        <v>-367100</v>
+        <v>-369900</v>
       </c>
       <c r="F26" s="3">
-        <v>-1484500</v>
+        <v>-1495900</v>
       </c>
       <c r="G26" s="3">
-        <v>216100</v>
+        <v>217700</v>
       </c>
       <c r="H26" s="3">
-        <v>266800</v>
+        <v>268800</v>
       </c>
       <c r="I26" s="3">
-        <v>157000</v>
+        <v>158200</v>
       </c>
       <c r="J26" s="3">
-        <v>369600</v>
+        <v>372500</v>
       </c>
       <c r="K26" s="3">
         <v>567700</v>
@@ -1550,25 +1550,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-734300</v>
+        <v>-739900</v>
       </c>
       <c r="E27" s="3">
-        <v>-417700</v>
+        <v>-420900</v>
       </c>
       <c r="F27" s="3">
-        <v>-1280500</v>
+        <v>-1290300</v>
       </c>
       <c r="G27" s="3">
-        <v>150000</v>
+        <v>151100</v>
       </c>
       <c r="H27" s="3">
-        <v>263300</v>
+        <v>265400</v>
       </c>
       <c r="I27" s="3">
-        <v>125200</v>
+        <v>126200</v>
       </c>
       <c r="J27" s="3">
-        <v>328000</v>
+        <v>330500</v>
       </c>
       <c r="K27" s="3">
         <v>491000</v>
@@ -1785,25 +1785,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-209800</v>
+        <v>-211400</v>
       </c>
       <c r="E32" s="3">
-        <v>-796400</v>
+        <v>-802500</v>
       </c>
       <c r="F32" s="3">
-        <v>271200</v>
+        <v>273200</v>
       </c>
       <c r="G32" s="3">
-        <v>193500</v>
+        <v>195000</v>
       </c>
       <c r="H32" s="3">
-        <v>-5900</v>
+        <v>-6000</v>
       </c>
       <c r="I32" s="3">
-        <v>181900</v>
+        <v>183300</v>
       </c>
       <c r="J32" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="K32" s="3">
         <v>-229900</v>
@@ -1832,25 +1832,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-734300</v>
+        <v>-739900</v>
       </c>
       <c r="E33" s="3">
-        <v>-417700</v>
+        <v>-420900</v>
       </c>
       <c r="F33" s="3">
-        <v>-1280500</v>
+        <v>-1290300</v>
       </c>
       <c r="G33" s="3">
-        <v>150000</v>
+        <v>151100</v>
       </c>
       <c r="H33" s="3">
-        <v>263300</v>
+        <v>265400</v>
       </c>
       <c r="I33" s="3">
-        <v>125200</v>
+        <v>126200</v>
       </c>
       <c r="J33" s="3">
-        <v>328000</v>
+        <v>330500</v>
       </c>
       <c r="K33" s="3">
         <v>491000</v>
@@ -1926,25 +1926,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-734300</v>
+        <v>-739900</v>
       </c>
       <c r="E35" s="3">
-        <v>-417700</v>
+        <v>-420900</v>
       </c>
       <c r="F35" s="3">
-        <v>-1280500</v>
+        <v>-1290300</v>
       </c>
       <c r="G35" s="3">
-        <v>150000</v>
+        <v>151100</v>
       </c>
       <c r="H35" s="3">
-        <v>263300</v>
+        <v>265400</v>
       </c>
       <c r="I35" s="3">
-        <v>125200</v>
+        <v>126200</v>
       </c>
       <c r="J35" s="3">
-        <v>328000</v>
+        <v>330500</v>
       </c>
       <c r="K35" s="3">
         <v>491000</v>
@@ -2063,25 +2063,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3908700</v>
+        <v>3938600</v>
       </c>
       <c r="E41" s="3">
-        <v>3979600</v>
+        <v>4010100</v>
       </c>
       <c r="F41" s="3">
-        <v>2719400</v>
+        <v>2740300</v>
       </c>
       <c r="G41" s="3">
-        <v>289500</v>
+        <v>291700</v>
       </c>
       <c r="H41" s="3">
-        <v>242500</v>
+        <v>244400</v>
       </c>
       <c r="I41" s="3">
-        <v>1084600</v>
+        <v>1093000</v>
       </c>
       <c r="J41" s="3">
-        <v>849700</v>
+        <v>856200</v>
       </c>
       <c r="K41" s="3">
         <v>1051100</v>
@@ -2125,7 +2125,7 @@
         <v>3900</v>
       </c>
       <c r="I42" s="3">
-        <v>68900</v>
+        <v>69400</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -2157,25 +2157,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1994700</v>
+        <v>2010000</v>
       </c>
       <c r="E43" s="3">
-        <v>1715400</v>
+        <v>1728600</v>
       </c>
       <c r="F43" s="3">
-        <v>1777700</v>
+        <v>1791400</v>
       </c>
       <c r="G43" s="3">
-        <v>1735500</v>
+        <v>1748800</v>
       </c>
       <c r="H43" s="3">
-        <v>1936600</v>
+        <v>1951500</v>
       </c>
       <c r="I43" s="3">
-        <v>1723100</v>
+        <v>1736300</v>
       </c>
       <c r="J43" s="3">
-        <v>1644500</v>
+        <v>1657100</v>
       </c>
       <c r="K43" s="3">
         <v>1229200</v>
@@ -2204,25 +2204,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>282000</v>
+        <v>284100</v>
       </c>
       <c r="E44" s="3">
-        <v>275500</v>
+        <v>277700</v>
       </c>
       <c r="F44" s="3">
-        <v>328600</v>
+        <v>331100</v>
       </c>
       <c r="G44" s="3">
-        <v>296400</v>
+        <v>298600</v>
       </c>
       <c r="H44" s="3">
-        <v>309800</v>
+        <v>312200</v>
       </c>
       <c r="I44" s="3">
-        <v>266000</v>
+        <v>268000</v>
       </c>
       <c r="J44" s="3">
-        <v>294300</v>
+        <v>296600</v>
       </c>
       <c r="K44" s="3">
         <v>249800</v>
@@ -2251,25 +2251,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>81600</v>
+        <v>82200</v>
       </c>
       <c r="E45" s="3">
-        <v>132900</v>
+        <v>133900</v>
       </c>
       <c r="F45" s="3">
-        <v>106900</v>
+        <v>107800</v>
       </c>
       <c r="G45" s="3">
-        <v>299200</v>
+        <v>301500</v>
       </c>
       <c r="H45" s="3">
-        <v>469500</v>
+        <v>473100</v>
       </c>
       <c r="I45" s="3">
-        <v>626100</v>
+        <v>630900</v>
       </c>
       <c r="J45" s="3">
-        <v>251300</v>
+        <v>253200</v>
       </c>
       <c r="K45" s="3">
         <v>223700</v>
@@ -2298,25 +2298,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6266900</v>
+        <v>6315000</v>
       </c>
       <c r="E46" s="3">
-        <v>6103500</v>
+        <v>6150300</v>
       </c>
       <c r="F46" s="3">
-        <v>4932700</v>
+        <v>4970500</v>
       </c>
       <c r="G46" s="3">
-        <v>2620500</v>
+        <v>2640600</v>
       </c>
       <c r="H46" s="3">
-        <v>2962400</v>
+        <v>2985100</v>
       </c>
       <c r="I46" s="3">
-        <v>3768700</v>
+        <v>3797600</v>
       </c>
       <c r="J46" s="3">
-        <v>3039800</v>
+        <v>3063100</v>
       </c>
       <c r="K46" s="3">
         <v>2753800</v>
@@ -2345,25 +2345,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1110500</v>
+        <v>1119000</v>
       </c>
       <c r="E47" s="3">
-        <v>1084500</v>
+        <v>1092800</v>
       </c>
       <c r="F47" s="3">
-        <v>1090600</v>
+        <v>1099000</v>
       </c>
       <c r="G47" s="3">
-        <v>1261600</v>
+        <v>1271200</v>
       </c>
       <c r="H47" s="3">
-        <v>1209400</v>
+        <v>1218700</v>
       </c>
       <c r="I47" s="3">
-        <v>1216500</v>
+        <v>1225800</v>
       </c>
       <c r="J47" s="3">
-        <v>940300</v>
+        <v>947500</v>
       </c>
       <c r="K47" s="3">
         <v>833500</v>
@@ -2392,25 +2392,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>41797300</v>
+        <v>42117700</v>
       </c>
       <c r="E48" s="3">
-        <v>42211400</v>
+        <v>42534900</v>
       </c>
       <c r="F48" s="3">
-        <v>42689200</v>
+        <v>43016400</v>
       </c>
       <c r="G48" s="3">
-        <v>43401700</v>
+        <v>43734400</v>
       </c>
       <c r="H48" s="3">
-        <v>42184600</v>
+        <v>42508000</v>
       </c>
       <c r="I48" s="3">
-        <v>32640100</v>
+        <v>32890300</v>
       </c>
       <c r="J48" s="3">
-        <v>30953200</v>
+        <v>31190400</v>
       </c>
       <c r="K48" s="3">
         <v>29126700</v>
@@ -2439,25 +2439,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="E49" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="F49" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="G49" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="H49" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="I49" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="J49" s="3">
-        <v>37100</v>
+        <v>37400</v>
       </c>
       <c r="K49" s="3">
         <v>36500</v>
@@ -2580,25 +2580,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1996500</v>
+        <v>2011800</v>
       </c>
       <c r="E52" s="3">
-        <v>1662000</v>
+        <v>1674800</v>
       </c>
       <c r="F52" s="3">
-        <v>1314600</v>
+        <v>1324700</v>
       </c>
       <c r="G52" s="3">
-        <v>731800</v>
+        <v>737400</v>
       </c>
       <c r="H52" s="3">
-        <v>645800</v>
+        <v>650800</v>
       </c>
       <c r="I52" s="3">
-        <v>999900</v>
+        <v>1007600</v>
       </c>
       <c r="J52" s="3">
-        <v>954200</v>
+        <v>961500</v>
       </c>
       <c r="K52" s="3">
         <v>927700</v>
@@ -2674,25 +2674,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51208300</v>
+        <v>51600800</v>
       </c>
       <c r="E54" s="3">
-        <v>51098500</v>
+        <v>51490200</v>
       </c>
       <c r="F54" s="3">
-        <v>50064300</v>
+        <v>50448000</v>
       </c>
       <c r="G54" s="3">
-        <v>48052600</v>
+        <v>48421000</v>
       </c>
       <c r="H54" s="3">
-        <v>47039400</v>
+        <v>47399900</v>
       </c>
       <c r="I54" s="3">
-        <v>38662300</v>
+        <v>38958700</v>
       </c>
       <c r="J54" s="3">
-        <v>35924600</v>
+        <v>36199900</v>
       </c>
       <c r="K54" s="3">
         <v>33678200</v>
@@ -2759,25 +2759,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>240200</v>
+        <v>242000</v>
       </c>
       <c r="E57" s="3">
-        <v>279000</v>
+        <v>281100</v>
       </c>
       <c r="F57" s="3">
-        <v>282000</v>
+        <v>284100</v>
       </c>
       <c r="G57" s="3">
-        <v>362700</v>
+        <v>365500</v>
       </c>
       <c r="H57" s="3">
-        <v>439200</v>
+        <v>442500</v>
       </c>
       <c r="I57" s="3">
-        <v>361500</v>
+        <v>364300</v>
       </c>
       <c r="J57" s="3">
-        <v>316600</v>
+        <v>319000</v>
       </c>
       <c r="K57" s="3">
         <v>327200</v>
@@ -2806,25 +2806,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>10932700</v>
+        <v>11016500</v>
       </c>
       <c r="E58" s="3">
-        <v>9554700</v>
+        <v>9627900</v>
       </c>
       <c r="F58" s="3">
-        <v>10756500</v>
+        <v>10838900</v>
       </c>
       <c r="G58" s="3">
-        <v>9008600</v>
+        <v>9077700</v>
       </c>
       <c r="H58" s="3">
-        <v>9347300</v>
+        <v>9418900</v>
       </c>
       <c r="I58" s="3">
-        <v>7561200</v>
+        <v>7619200</v>
       </c>
       <c r="J58" s="3">
-        <v>7641100</v>
+        <v>7699600</v>
       </c>
       <c r="K58" s="3">
         <v>5529300</v>
@@ -2853,25 +2853,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4977000</v>
+        <v>5015200</v>
       </c>
       <c r="E59" s="3">
-        <v>5146100</v>
+        <v>5185600</v>
       </c>
       <c r="F59" s="3">
-        <v>4123200</v>
+        <v>4154800</v>
       </c>
       <c r="G59" s="3">
-        <v>5578500</v>
+        <v>5621300</v>
       </c>
       <c r="H59" s="3">
-        <v>5081600</v>
+        <v>5120600</v>
       </c>
       <c r="I59" s="3">
-        <v>5179300</v>
+        <v>5219000</v>
       </c>
       <c r="J59" s="3">
-        <v>4887300</v>
+        <v>4924800</v>
       </c>
       <c r="K59" s="3">
         <v>4857000</v>
@@ -2900,25 +2900,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16149900</v>
+        <v>16273700</v>
       </c>
       <c r="E60" s="3">
-        <v>14979800</v>
+        <v>15094600</v>
       </c>
       <c r="F60" s="3">
-        <v>15161600</v>
+        <v>15277800</v>
       </c>
       <c r="G60" s="3">
-        <v>14949900</v>
+        <v>15064500</v>
       </c>
       <c r="H60" s="3">
-        <v>14868000</v>
+        <v>14982000</v>
       </c>
       <c r="I60" s="3">
-        <v>13102000</v>
+        <v>13202500</v>
       </c>
       <c r="J60" s="3">
-        <v>12845000</v>
+        <v>12943400</v>
       </c>
       <c r="K60" s="3">
         <v>10713500</v>
@@ -2947,25 +2947,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19442200</v>
+        <v>19591300</v>
       </c>
       <c r="E61" s="3">
-        <v>21670600</v>
+        <v>21836700</v>
       </c>
       <c r="F61" s="3">
-        <v>20782900</v>
+        <v>20942200</v>
       </c>
       <c r="G61" s="3">
-        <v>19994700</v>
+        <v>20148000</v>
       </c>
       <c r="H61" s="3">
-        <v>19183900</v>
+        <v>19331000</v>
       </c>
       <c r="I61" s="3">
-        <v>12265200</v>
+        <v>12359200</v>
       </c>
       <c r="J61" s="3">
-        <v>11844500</v>
+        <v>11935300</v>
       </c>
       <c r="K61" s="3">
         <v>12364900</v>
@@ -2994,25 +2994,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1167600</v>
+        <v>1176600</v>
       </c>
       <c r="E62" s="3">
-        <v>1120000</v>
+        <v>1128600</v>
       </c>
       <c r="F62" s="3">
-        <v>1064500</v>
+        <v>1072600</v>
       </c>
       <c r="G62" s="3">
-        <v>1001400</v>
+        <v>1009000</v>
       </c>
       <c r="H62" s="3">
-        <v>1077800</v>
+        <v>1086000</v>
       </c>
       <c r="I62" s="3">
-        <v>1010000</v>
+        <v>1017700</v>
       </c>
       <c r="J62" s="3">
-        <v>1083200</v>
+        <v>1091500</v>
       </c>
       <c r="K62" s="3">
         <v>969500</v>
@@ -3182,25 +3182,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39421300</v>
+        <v>39723500</v>
       </c>
       <c r="E66" s="3">
-        <v>40204500</v>
+        <v>40512600</v>
       </c>
       <c r="F66" s="3">
-        <v>38852600</v>
+        <v>39150400</v>
       </c>
       <c r="G66" s="3">
-        <v>38016200</v>
+        <v>38307600</v>
       </c>
       <c r="H66" s="3">
-        <v>37145600</v>
+        <v>37430300</v>
       </c>
       <c r="I66" s="3">
-        <v>28445700</v>
+        <v>28663700</v>
       </c>
       <c r="J66" s="3">
-        <v>27813500</v>
+        <v>28026700</v>
       </c>
       <c r="K66" s="3">
         <v>25989100</v>
@@ -3436,25 +3436,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1688500</v>
+        <v>1701400</v>
       </c>
       <c r="E72" s="3">
-        <v>2422800</v>
+        <v>2441300</v>
       </c>
       <c r="F72" s="3">
-        <v>2729500</v>
+        <v>2750400</v>
       </c>
       <c r="G72" s="3">
-        <v>4035500</v>
+        <v>4066400</v>
       </c>
       <c r="H72" s="3">
-        <v>3886800</v>
+        <v>3916500</v>
       </c>
       <c r="I72" s="3">
-        <v>4202900</v>
+        <v>4235100</v>
       </c>
       <c r="J72" s="3">
-        <v>4077300</v>
+        <v>4108500</v>
       </c>
       <c r="K72" s="3">
         <v>3755700</v>
@@ -3624,25 +3624,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11786900</v>
+        <v>11877300</v>
       </c>
       <c r="E76" s="3">
-        <v>10894100</v>
+        <v>10977600</v>
       </c>
       <c r="F76" s="3">
-        <v>11211700</v>
+        <v>11297700</v>
       </c>
       <c r="G76" s="3">
-        <v>10036400</v>
+        <v>10113400</v>
       </c>
       <c r="H76" s="3">
-        <v>9893800</v>
+        <v>9969600</v>
       </c>
       <c r="I76" s="3">
-        <v>10216600</v>
+        <v>10294900</v>
       </c>
       <c r="J76" s="3">
-        <v>8111100</v>
+        <v>8173200</v>
       </c>
       <c r="K76" s="3">
         <v>7689100</v>
@@ -3770,25 +3770,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-734300</v>
+        <v>-739900</v>
       </c>
       <c r="E81" s="3">
-        <v>-417700</v>
+        <v>-420900</v>
       </c>
       <c r="F81" s="3">
-        <v>-1280500</v>
+        <v>-1290300</v>
       </c>
       <c r="G81" s="3">
-        <v>150000</v>
+        <v>151100</v>
       </c>
       <c r="H81" s="3">
-        <v>263300</v>
+        <v>265400</v>
       </c>
       <c r="I81" s="3">
-        <v>125200</v>
+        <v>126200</v>
       </c>
       <c r="J81" s="3">
-        <v>328000</v>
+        <v>330500</v>
       </c>
       <c r="K81" s="3">
         <v>491000</v>
@@ -4118,25 +4118,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>773400</v>
+        <v>779300</v>
       </c>
       <c r="E89" s="3">
-        <v>1648600</v>
+        <v>1661200</v>
       </c>
       <c r="F89" s="3">
-        <v>-1226200</v>
+        <v>-1235600</v>
       </c>
       <c r="G89" s="3">
-        <v>3316100</v>
+        <v>3341500</v>
       </c>
       <c r="H89" s="3">
-        <v>1564700</v>
+        <v>1576700</v>
       </c>
       <c r="I89" s="3">
-        <v>1256400</v>
+        <v>1266000</v>
       </c>
       <c r="J89" s="3">
-        <v>1152800</v>
+        <v>1161600</v>
       </c>
       <c r="K89" s="3">
         <v>1634200</v>
@@ -4184,25 +4184,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1137300</v>
+        <v>-1146000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1264100</v>
+        <v>-1273800</v>
       </c>
       <c r="F91" s="3">
-        <v>-467600</v>
+        <v>-471200</v>
       </c>
       <c r="G91" s="3">
-        <v>-749500</v>
+        <v>-755200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1696300</v>
+        <v>-1709300</v>
       </c>
       <c r="I91" s="3">
-        <v>-2282200</v>
+        <v>-2299700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1480400</v>
+        <v>-1491800</v>
       </c>
       <c r="K91" s="3">
         <v>-1294800</v>
@@ -4325,25 +4325,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1007600</v>
+        <v>-1015300</v>
       </c>
       <c r="E94" s="3">
-        <v>-771400</v>
+        <v>-777300</v>
       </c>
       <c r="F94" s="3">
-        <v>-488800</v>
+        <v>-492500</v>
       </c>
       <c r="G94" s="3">
-        <v>-692200</v>
+        <v>-697500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1566500</v>
+        <v>-1578500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2153600</v>
+        <v>-2170100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1058500</v>
+        <v>-1066600</v>
       </c>
       <c r="K94" s="3">
         <v>-817300</v>
@@ -4579,25 +4579,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>164200</v>
+        <v>165500</v>
       </c>
       <c r="E100" s="3">
-        <v>387800</v>
+        <v>390800</v>
       </c>
       <c r="F100" s="3">
-        <v>4143800</v>
+        <v>4175600</v>
       </c>
       <c r="G100" s="3">
-        <v>-2577800</v>
+        <v>-2597500</v>
       </c>
       <c r="H100" s="3">
-        <v>-840400</v>
+        <v>-846900</v>
       </c>
       <c r="I100" s="3">
-        <v>1131000</v>
+        <v>1139700</v>
       </c>
       <c r="J100" s="3">
-        <v>-313700</v>
+        <v>-316200</v>
       </c>
       <c r="K100" s="3">
         <v>-419900</v>
@@ -4673,25 +4673,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-70900</v>
+        <v>-71500</v>
       </c>
       <c r="E102" s="3">
-        <v>1260200</v>
+        <v>1269800</v>
       </c>
       <c r="F102" s="3">
-        <v>2430000</v>
+        <v>2448600</v>
       </c>
       <c r="G102" s="3">
-        <v>47000</v>
+        <v>47300</v>
       </c>
       <c r="H102" s="3">
-        <v>-842100</v>
+        <v>-848600</v>
       </c>
       <c r="I102" s="3">
-        <v>235000</v>
+        <v>236800</v>
       </c>
       <c r="J102" s="3">
-        <v>-219000</v>
+        <v>-220700</v>
       </c>
       <c r="K102" s="3">
         <v>393900</v>

--- a/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>ZNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,222 +665,235 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42551</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42369</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42185</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8136600</v>
+        <v>7378000</v>
       </c>
       <c r="E8" s="3">
-        <v>8455500</v>
+        <v>7600200</v>
       </c>
       <c r="F8" s="3">
-        <v>6147000</v>
+        <v>7898100</v>
       </c>
       <c r="G8" s="3">
-        <v>12839000</v>
+        <v>5741700</v>
       </c>
       <c r="H8" s="3">
-        <v>11506900</v>
+        <v>11992600</v>
       </c>
       <c r="I8" s="3">
-        <v>12006000</v>
+        <v>10748300</v>
       </c>
       <c r="J8" s="3">
+        <v>11214500</v>
+      </c>
+      <c r="K8" s="3">
         <v>10652000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10365600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9241400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8839000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7765000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8651300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7919000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8487100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6182300</v>
+        <v>5848700</v>
       </c>
       <c r="E9" s="3">
-        <v>6174300</v>
+        <v>5774700</v>
       </c>
       <c r="F9" s="3">
-        <v>4815800</v>
+        <v>5767200</v>
       </c>
       <c r="G9" s="3">
-        <v>9117100</v>
+        <v>4498300</v>
       </c>
       <c r="H9" s="3">
-        <v>8270300</v>
+        <v>8516100</v>
       </c>
       <c r="I9" s="3">
-        <v>9557100</v>
+        <v>7725100</v>
       </c>
       <c r="J9" s="3">
+        <v>8927100</v>
+      </c>
+      <c r="K9" s="3">
         <v>8316900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7940600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7061600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6592700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5394700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6133200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5550700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6364500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1954300</v>
+        <v>1529300</v>
       </c>
       <c r="E10" s="3">
-        <v>2281200</v>
+        <v>1825500</v>
       </c>
       <c r="F10" s="3">
-        <v>1331200</v>
+        <v>2130800</v>
       </c>
       <c r="G10" s="3">
-        <v>3721900</v>
+        <v>1243400</v>
       </c>
       <c r="H10" s="3">
-        <v>3236600</v>
+        <v>3476500</v>
       </c>
       <c r="I10" s="3">
-        <v>2448900</v>
+        <v>3023200</v>
       </c>
       <c r="J10" s="3">
+        <v>2287500</v>
+      </c>
+      <c r="K10" s="3">
         <v>2335000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2425000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2179700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2246300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2370300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2518100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2368300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2122700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,8 +911,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,8 +959,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,102 +1009,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>32300</v>
+        <v>398000</v>
       </c>
       <c r="E14" s="3">
-        <v>631400</v>
+        <v>30200</v>
       </c>
       <c r="F14" s="3">
-        <v>-13600</v>
+        <v>589700</v>
       </c>
       <c r="G14" s="3">
-        <v>-39000</v>
+        <v>-12700</v>
       </c>
       <c r="H14" s="3">
-        <v>-2100</v>
+        <v>-36400</v>
       </c>
       <c r="I14" s="3">
         <v>-1900</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>43000</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2800</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13400</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1909500</v>
+        <v>1788500</v>
       </c>
       <c r="E15" s="3">
-        <v>1913300</v>
+        <v>1783600</v>
       </c>
       <c r="F15" s="3">
-        <v>1966000</v>
+        <v>1787200</v>
       </c>
       <c r="G15" s="3">
-        <v>2041300</v>
+        <v>1836400</v>
       </c>
       <c r="H15" s="3">
-        <v>1842800</v>
+        <v>1906700</v>
       </c>
       <c r="I15" s="3">
-        <v>1169600</v>
+        <v>1721300</v>
       </c>
       <c r="J15" s="3">
+        <v>1092500</v>
+      </c>
+      <c r="K15" s="3">
         <v>1098300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1049400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>994300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>926700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>913800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>909200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>870700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>824000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,102 +1128,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8651200</v>
+        <v>8406000</v>
       </c>
       <c r="E17" s="3">
-        <v>9246500</v>
+        <v>8080900</v>
       </c>
       <c r="F17" s="3">
-        <v>7220500</v>
+        <v>8636900</v>
       </c>
       <c r="G17" s="3">
-        <v>11911800</v>
+        <v>6744500</v>
       </c>
       <c r="H17" s="3">
-        <v>10680400</v>
+        <v>11126600</v>
       </c>
       <c r="I17" s="3">
-        <v>11349900</v>
+        <v>9976300</v>
       </c>
       <c r="J17" s="3">
+        <v>10601700</v>
+      </c>
+      <c r="K17" s="3">
         <v>9914900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9654400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8541300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8018300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6753300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7545200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7030800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7909400</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-514600</v>
+        <v>-1028000</v>
       </c>
       <c r="E18" s="3">
-        <v>-791000</v>
+        <v>-480700</v>
       </c>
       <c r="F18" s="3">
-        <v>-1073600</v>
+        <v>-738900</v>
       </c>
       <c r="G18" s="3">
-        <v>927200</v>
+        <v>-1002800</v>
       </c>
       <c r="H18" s="3">
-        <v>826500</v>
+        <v>866000</v>
       </c>
       <c r="I18" s="3">
-        <v>656100</v>
+        <v>772000</v>
       </c>
       <c r="J18" s="3">
+        <v>612900</v>
+      </c>
+      <c r="K18" s="3">
         <v>737100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>711200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>820700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1011700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1106100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>888200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,243 +1248,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>211400</v>
+        <v>172300</v>
       </c>
       <c r="E20" s="3">
-        <v>802500</v>
+        <v>197500</v>
       </c>
       <c r="F20" s="3">
-        <v>-273200</v>
+        <v>749600</v>
       </c>
       <c r="G20" s="3">
-        <v>-195000</v>
+        <v>-255200</v>
       </c>
       <c r="H20" s="3">
-        <v>6000</v>
+        <v>-182100</v>
       </c>
       <c r="I20" s="3">
-        <v>-183300</v>
+        <v>5600</v>
       </c>
       <c r="J20" s="3">
+        <v>-171200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-14200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>229900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>138900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-222900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-156100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-826100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>64900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1606300</v>
+        <v>-850900</v>
       </c>
       <c r="E21" s="3">
-        <v>-41200</v>
+        <v>1500400</v>
       </c>
       <c r="F21" s="3">
-        <v>619200</v>
+        <v>-38500</v>
       </c>
       <c r="G21" s="3">
-        <v>930600</v>
+        <v>578400</v>
       </c>
       <c r="H21" s="3">
-        <v>2675300</v>
+        <v>869300</v>
       </c>
       <c r="I21" s="3">
-        <v>544100</v>
+        <v>2498900</v>
       </c>
       <c r="J21" s="3">
+        <v>508200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1821200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>988400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1833200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>599500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1769400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>318500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1823800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>501500</v>
+        <v>442400</v>
       </c>
       <c r="E22" s="3">
-        <v>524400</v>
+        <v>468500</v>
       </c>
       <c r="F22" s="3">
-        <v>537500</v>
+        <v>489800</v>
       </c>
       <c r="G22" s="3">
-        <v>469300</v>
+        <v>502100</v>
       </c>
       <c r="H22" s="3">
-        <v>455600</v>
+        <v>438400</v>
       </c>
       <c r="I22" s="3">
-        <v>264400</v>
+        <v>425600</v>
       </c>
       <c r="J22" s="3">
+        <v>247000</v>
+      </c>
+      <c r="K22" s="3">
         <v>242800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>217300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>201400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>180400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>168700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>159400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>165800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-804700</v>
+        <v>-1298100</v>
       </c>
       <c r="E23" s="3">
-        <v>-512900</v>
+        <v>-751700</v>
       </c>
       <c r="F23" s="3">
-        <v>-1884300</v>
+        <v>-479100</v>
       </c>
       <c r="G23" s="3">
-        <v>262800</v>
+        <v>-1760100</v>
       </c>
       <c r="H23" s="3">
-        <v>376900</v>
+        <v>245500</v>
       </c>
       <c r="I23" s="3">
-        <v>208400</v>
+        <v>352000</v>
       </c>
       <c r="J23" s="3">
+        <v>194700</v>
+      </c>
+      <c r="K23" s="3">
         <v>480100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>723900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>637600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>417400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>686800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>120700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>787300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>610100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-178900</v>
+        <v>-259400</v>
       </c>
       <c r="E24" s="3">
-        <v>-142900</v>
+        <v>-167100</v>
       </c>
       <c r="F24" s="3">
-        <v>-388400</v>
+        <v>-133500</v>
       </c>
       <c r="G24" s="3">
-        <v>45100</v>
+        <v>-362800</v>
       </c>
       <c r="H24" s="3">
-        <v>108100</v>
+        <v>42100</v>
       </c>
       <c r="I24" s="3">
-        <v>50200</v>
+        <v>100900</v>
       </c>
       <c r="J24" s="3">
+        <v>46900</v>
+      </c>
+      <c r="K24" s="3">
         <v>107600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>156100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>147000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>96900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>157300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>179600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>143000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,102 +1546,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-625800</v>
+        <v>-1038700</v>
       </c>
       <c r="E26" s="3">
-        <v>-369900</v>
+        <v>-584600</v>
       </c>
       <c r="F26" s="3">
-        <v>-1495900</v>
+        <v>-345600</v>
       </c>
       <c r="G26" s="3">
-        <v>217700</v>
+        <v>-1397300</v>
       </c>
       <c r="H26" s="3">
-        <v>268800</v>
+        <v>203400</v>
       </c>
       <c r="I26" s="3">
-        <v>158200</v>
+        <v>251100</v>
       </c>
       <c r="J26" s="3">
+        <v>147800</v>
+      </c>
+      <c r="K26" s="3">
         <v>372500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>567700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>490600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>320500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>529600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>107300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>607700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-739900</v>
+        <v>-1092800</v>
       </c>
       <c r="E27" s="3">
-        <v>-420900</v>
+        <v>-691100</v>
       </c>
       <c r="F27" s="3">
-        <v>-1290300</v>
+        <v>-393200</v>
       </c>
       <c r="G27" s="3">
-        <v>151100</v>
+        <v>-1205300</v>
       </c>
       <c r="H27" s="3">
-        <v>265400</v>
+        <v>141200</v>
       </c>
       <c r="I27" s="3">
-        <v>126200</v>
+        <v>247900</v>
       </c>
       <c r="J27" s="3">
+        <v>117900</v>
+      </c>
+      <c r="K27" s="3">
         <v>330500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>491000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>423500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>279700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>447400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>516300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1696,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1685,8 +1746,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1796,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,102 +1846,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-211400</v>
+        <v>-172300</v>
       </c>
       <c r="E32" s="3">
-        <v>-802500</v>
+        <v>-197500</v>
       </c>
       <c r="F32" s="3">
-        <v>273200</v>
+        <v>-749600</v>
       </c>
       <c r="G32" s="3">
-        <v>195000</v>
+        <v>255200</v>
       </c>
       <c r="H32" s="3">
-        <v>-6000</v>
+        <v>182100</v>
       </c>
       <c r="I32" s="3">
-        <v>183300</v>
+        <v>-5600</v>
       </c>
       <c r="J32" s="3">
+        <v>171200</v>
+      </c>
+      <c r="K32" s="3">
         <v>14200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-229900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-138900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>222900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>156100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>826100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-64900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-214400</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-739900</v>
+        <v>-1092800</v>
       </c>
       <c r="E33" s="3">
-        <v>-420900</v>
+        <v>-691100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1290300</v>
+        <v>-393200</v>
       </c>
       <c r="G33" s="3">
-        <v>151100</v>
+        <v>-1205300</v>
       </c>
       <c r="H33" s="3">
-        <v>265400</v>
+        <v>141200</v>
       </c>
       <c r="I33" s="3">
-        <v>126200</v>
+        <v>247900</v>
       </c>
       <c r="J33" s="3">
+        <v>117900</v>
+      </c>
+      <c r="K33" s="3">
         <v>330500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>491000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>423500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>279700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>447400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>516300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,107 +1996,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-739900</v>
+        <v>-1092800</v>
       </c>
       <c r="E35" s="3">
-        <v>-420900</v>
+        <v>-691100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1290300</v>
+        <v>-393200</v>
       </c>
       <c r="G35" s="3">
-        <v>151100</v>
+        <v>-1205300</v>
       </c>
       <c r="H35" s="3">
-        <v>265400</v>
+        <v>141200</v>
       </c>
       <c r="I35" s="3">
-        <v>126200</v>
+        <v>247900</v>
       </c>
       <c r="J35" s="3">
+        <v>117900</v>
+      </c>
+      <c r="K35" s="3">
         <v>330500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>491000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>423500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>279700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>447400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>516300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42551</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42369</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42185</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2123,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,55 +2143,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3938600</v>
+        <v>3161800</v>
       </c>
       <c r="E41" s="3">
-        <v>4010100</v>
+        <v>3679000</v>
       </c>
       <c r="F41" s="3">
-        <v>2740300</v>
+        <v>3745700</v>
       </c>
       <c r="G41" s="3">
-        <v>291700</v>
+        <v>2559600</v>
       </c>
       <c r="H41" s="3">
-        <v>244400</v>
+        <v>272500</v>
       </c>
       <c r="I41" s="3">
-        <v>1093000</v>
+        <v>228300</v>
       </c>
       <c r="J41" s="3">
+        <v>1020900</v>
+      </c>
+      <c r="K41" s="3">
         <v>856200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1051100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>652100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>603000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>882500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>676700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1425500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2241700</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2121,14 +2211,14 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>3900</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>69400</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
+        <v>3700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>64800</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2142,8 +2232,8 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2151,325 +2241,346 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2010000</v>
+        <v>1852600</v>
       </c>
       <c r="E43" s="3">
-        <v>1728600</v>
+        <v>1877500</v>
       </c>
       <c r="F43" s="3">
-        <v>1791400</v>
+        <v>1614600</v>
       </c>
       <c r="G43" s="3">
-        <v>1748800</v>
+        <v>1673300</v>
       </c>
       <c r="H43" s="3">
-        <v>1951500</v>
+        <v>1633500</v>
       </c>
       <c r="I43" s="3">
-        <v>1736300</v>
+        <v>1822800</v>
       </c>
       <c r="J43" s="3">
+        <v>1621800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1657100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1229200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1150000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>940200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1005700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>984400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1276600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1313700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>284100</v>
+        <v>243400</v>
       </c>
       <c r="E44" s="3">
-        <v>277700</v>
+        <v>265400</v>
       </c>
       <c r="F44" s="3">
-        <v>331100</v>
+        <v>259400</v>
       </c>
       <c r="G44" s="3">
-        <v>298600</v>
+        <v>309300</v>
       </c>
       <c r="H44" s="3">
-        <v>312200</v>
+        <v>279000</v>
       </c>
       <c r="I44" s="3">
-        <v>268000</v>
+        <v>291600</v>
       </c>
       <c r="J44" s="3">
+        <v>250400</v>
+      </c>
+      <c r="K44" s="3">
         <v>296600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>249800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>268100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>230600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>255100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>238300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>256500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>82200</v>
+        <v>322100</v>
       </c>
       <c r="E45" s="3">
-        <v>133900</v>
+        <v>76800</v>
       </c>
       <c r="F45" s="3">
-        <v>107800</v>
+        <v>125100</v>
       </c>
       <c r="G45" s="3">
-        <v>301500</v>
+        <v>100600</v>
       </c>
       <c r="H45" s="3">
-        <v>473100</v>
+        <v>281600</v>
       </c>
       <c r="I45" s="3">
-        <v>630900</v>
+        <v>441900</v>
       </c>
       <c r="J45" s="3">
+        <v>589300</v>
+      </c>
+      <c r="K45" s="3">
         <v>253200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>223700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>250300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>225100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>220500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>195000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>145100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>208400</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>6315000</v>
+        <v>5579900</v>
       </c>
       <c r="E46" s="3">
-        <v>6150300</v>
+        <v>5898700</v>
       </c>
       <c r="F46" s="3">
-        <v>4970500</v>
+        <v>5744800</v>
       </c>
       <c r="G46" s="3">
-        <v>2640600</v>
+        <v>4642900</v>
       </c>
       <c r="H46" s="3">
-        <v>2985100</v>
+        <v>2466500</v>
       </c>
       <c r="I46" s="3">
-        <v>3797600</v>
+        <v>2788300</v>
       </c>
       <c r="J46" s="3">
+        <v>3547200</v>
+      </c>
+      <c r="K46" s="3">
         <v>3063100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2753800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2320400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1998900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2363800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2094500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3103700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4005300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1119000</v>
+        <v>1120200</v>
       </c>
       <c r="E47" s="3">
-        <v>1092800</v>
+        <v>1045200</v>
       </c>
       <c r="F47" s="3">
-        <v>1099000</v>
+        <v>1020800</v>
       </c>
       <c r="G47" s="3">
-        <v>1271200</v>
+        <v>1026500</v>
       </c>
       <c r="H47" s="3">
-        <v>1218700</v>
+        <v>1187400</v>
       </c>
       <c r="I47" s="3">
-        <v>1225800</v>
+        <v>1138400</v>
       </c>
       <c r="J47" s="3">
+        <v>1145000</v>
+      </c>
+      <c r="K47" s="3">
         <v>947500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>833500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>875000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>789900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>676500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>689800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>686700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>598000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>42117700</v>
+        <v>38530500</v>
       </c>
       <c r="E48" s="3">
-        <v>42534900</v>
+        <v>39341100</v>
       </c>
       <c r="F48" s="3">
-        <v>43016400</v>
+        <v>39730900</v>
       </c>
       <c r="G48" s="3">
-        <v>43734400</v>
+        <v>40180700</v>
       </c>
       <c r="H48" s="3">
-        <v>42508000</v>
+        <v>40851300</v>
       </c>
       <c r="I48" s="3">
-        <v>32890300</v>
+        <v>39705700</v>
       </c>
       <c r="J48" s="3">
+        <v>30722100</v>
+      </c>
+      <c r="K48" s="3">
         <v>31190400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>29126700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27153400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25510500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23579600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24087400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23502400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22367100</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>34900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>34900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>34900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>34900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>34900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K49" s="3">
         <v>37400</v>
       </c>
-      <c r="E49" s="3">
-        <v>37400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>37400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>37400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>37400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>37400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>37400</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>36500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>27800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26400</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -2480,8 +2591,11 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2641,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,55 +2691,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2011800</v>
+        <v>2362800</v>
       </c>
       <c r="E52" s="3">
-        <v>1674800</v>
+        <v>1879100</v>
       </c>
       <c r="F52" s="3">
-        <v>1324700</v>
+        <v>1564400</v>
       </c>
       <c r="G52" s="3">
-        <v>737400</v>
+        <v>1237400</v>
       </c>
       <c r="H52" s="3">
-        <v>650800</v>
+        <v>688800</v>
       </c>
       <c r="I52" s="3">
-        <v>1007600</v>
+        <v>607900</v>
       </c>
       <c r="J52" s="3">
+        <v>941200</v>
+      </c>
+      <c r="K52" s="3">
         <v>961500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>927700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>790500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>784400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>779800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>730900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>634300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,55 +2791,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51600800</v>
+        <v>47628400</v>
       </c>
       <c r="E54" s="3">
-        <v>51490200</v>
+        <v>48199100</v>
       </c>
       <c r="F54" s="3">
-        <v>50448000</v>
+        <v>48095800</v>
       </c>
       <c r="G54" s="3">
-        <v>48421000</v>
+        <v>47122300</v>
       </c>
       <c r="H54" s="3">
-        <v>47399900</v>
+        <v>45228900</v>
       </c>
       <c r="I54" s="3">
-        <v>38958700</v>
+        <v>44275200</v>
       </c>
       <c r="J54" s="3">
+        <v>36390400</v>
+      </c>
+      <c r="K54" s="3">
         <v>36199900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33678200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31167100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29110200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>27399800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27602600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27927100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27586300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2863,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,290 +2883,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>242000</v>
+        <v>195700</v>
       </c>
       <c r="E57" s="3">
-        <v>281100</v>
+        <v>226100</v>
       </c>
       <c r="F57" s="3">
-        <v>284100</v>
+        <v>262600</v>
       </c>
       <c r="G57" s="3">
-        <v>365500</v>
+        <v>265400</v>
       </c>
       <c r="H57" s="3">
-        <v>442500</v>
+        <v>341400</v>
       </c>
       <c r="I57" s="3">
-        <v>364300</v>
+        <v>413300</v>
       </c>
       <c r="J57" s="3">
+        <v>340300</v>
+      </c>
+      <c r="K57" s="3">
         <v>319000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>327200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>299000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>276400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>254400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>371000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>310300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11016500</v>
+        <v>11599900</v>
       </c>
       <c r="E58" s="3">
-        <v>9627900</v>
+        <v>10290300</v>
       </c>
       <c r="F58" s="3">
-        <v>10838900</v>
+        <v>8993200</v>
       </c>
       <c r="G58" s="3">
-        <v>9077700</v>
+        <v>10124400</v>
       </c>
       <c r="H58" s="3">
-        <v>9418900</v>
+        <v>8479200</v>
       </c>
       <c r="I58" s="3">
-        <v>7619200</v>
+        <v>8798000</v>
       </c>
       <c r="J58" s="3">
+        <v>7116900</v>
+      </c>
+      <c r="K58" s="3">
         <v>7699600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5529300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4578800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5147100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5443500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5404800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4074700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3922400</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5015200</v>
+        <v>4559900</v>
       </c>
       <c r="E59" s="3">
-        <v>5185600</v>
+        <v>4684600</v>
       </c>
       <c r="F59" s="3">
-        <v>4154800</v>
+        <v>4843700</v>
       </c>
       <c r="G59" s="3">
-        <v>5621300</v>
+        <v>3880900</v>
       </c>
       <c r="H59" s="3">
-        <v>5120600</v>
+        <v>5250700</v>
       </c>
       <c r="I59" s="3">
-        <v>5219000</v>
+        <v>4783000</v>
       </c>
       <c r="J59" s="3">
+        <v>4875000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4924800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4857000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4623100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4442300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3991600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3950200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3701800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3702400</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16273700</v>
+        <v>16355500</v>
       </c>
       <c r="E60" s="3">
-        <v>15094600</v>
+        <v>15200900</v>
       </c>
       <c r="F60" s="3">
-        <v>15277800</v>
+        <v>14099600</v>
       </c>
       <c r="G60" s="3">
-        <v>15064500</v>
+        <v>14270600</v>
       </c>
       <c r="H60" s="3">
-        <v>14982000</v>
+        <v>14071400</v>
       </c>
       <c r="I60" s="3">
-        <v>13202500</v>
+        <v>13994300</v>
       </c>
       <c r="J60" s="3">
+        <v>12332100</v>
+      </c>
+      <c r="K60" s="3">
         <v>12943400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10713500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9500900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9865800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9689500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9726000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8086900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7865700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>19591300</v>
+        <v>17727100</v>
       </c>
       <c r="E61" s="3">
-        <v>21836700</v>
+        <v>18299800</v>
       </c>
       <c r="F61" s="3">
-        <v>20942200</v>
+        <v>20397100</v>
       </c>
       <c r="G61" s="3">
-        <v>20148000</v>
+        <v>19561600</v>
       </c>
       <c r="H61" s="3">
-        <v>19331000</v>
+        <v>18819800</v>
       </c>
       <c r="I61" s="3">
-        <v>12359200</v>
+        <v>18056600</v>
       </c>
       <c r="J61" s="3">
+        <v>2310000</v>
+      </c>
+      <c r="K61" s="3">
         <v>11935300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12364900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11967400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10498000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9369000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9690000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>11690700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12504800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1176600</v>
+        <v>1092700</v>
       </c>
       <c r="E62" s="3">
-        <v>1128600</v>
+        <v>1099000</v>
       </c>
       <c r="F62" s="3">
-        <v>1072600</v>
+        <v>1054200</v>
       </c>
       <c r="G62" s="3">
-        <v>1009000</v>
+        <v>1001900</v>
       </c>
       <c r="H62" s="3">
-        <v>1086000</v>
+        <v>942500</v>
       </c>
       <c r="I62" s="3">
-        <v>1017700</v>
+        <v>1014400</v>
       </c>
       <c r="J62" s="3">
+        <v>10185100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1091500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>969500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>905400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>762300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>804600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>821900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>829000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>745200</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3231,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3281,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,55 +3331,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39723500</v>
+        <v>37629800</v>
       </c>
       <c r="E66" s="3">
-        <v>40512600</v>
+        <v>37104800</v>
       </c>
       <c r="F66" s="3">
-        <v>39150400</v>
+        <v>37841900</v>
       </c>
       <c r="G66" s="3">
-        <v>38307600</v>
+        <v>36569400</v>
       </c>
       <c r="H66" s="3">
-        <v>37430300</v>
+        <v>35782200</v>
       </c>
       <c r="I66" s="3">
-        <v>28663700</v>
+        <v>34962800</v>
       </c>
       <c r="J66" s="3">
+        <v>26774100</v>
+      </c>
+      <c r="K66" s="3">
         <v>28026700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25989100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24237800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22799100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21477100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21808000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22162500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22387500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3403,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3451,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3501,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3551,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,55 +3601,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1701400</v>
+        <v>496500</v>
       </c>
       <c r="E72" s="3">
-        <v>2441300</v>
+        <v>1589300</v>
       </c>
       <c r="F72" s="3">
-        <v>2750400</v>
+        <v>2280400</v>
       </c>
       <c r="G72" s="3">
-        <v>4066400</v>
+        <v>2569100</v>
       </c>
       <c r="H72" s="3">
-        <v>3916500</v>
+        <v>3798400</v>
       </c>
       <c r="I72" s="3">
-        <v>4235100</v>
+        <v>3658400</v>
       </c>
       <c r="J72" s="3">
+        <v>3955900</v>
+      </c>
+      <c r="K72" s="3">
         <v>4108500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>3755700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3239100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2802600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2492800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2232200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2201700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1709500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3701,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3751,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,55 +3801,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11877300</v>
+        <v>9998500</v>
       </c>
       <c r="E76" s="3">
-        <v>10977600</v>
+        <v>11094300</v>
       </c>
       <c r="F76" s="3">
-        <v>11297700</v>
+        <v>10253900</v>
       </c>
       <c r="G76" s="3">
-        <v>10113400</v>
+        <v>10552900</v>
       </c>
       <c r="H76" s="3">
-        <v>9969600</v>
+        <v>9446700</v>
       </c>
       <c r="I76" s="3">
-        <v>10294900</v>
+        <v>9312400</v>
       </c>
       <c r="J76" s="3">
+        <v>9616300</v>
+      </c>
+      <c r="K76" s="3">
         <v>8173200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7689100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6929300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6311100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5922700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5794700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5764500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5198800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,107 +3901,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42551</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42369</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42185</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-739900</v>
+        <v>-1092800</v>
       </c>
       <c r="E81" s="3">
-        <v>-420900</v>
+        <v>-691100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1290300</v>
+        <v>-393200</v>
       </c>
       <c r="G81" s="3">
-        <v>151100</v>
+        <v>-1205300</v>
       </c>
       <c r="H81" s="3">
-        <v>265400</v>
+        <v>141200</v>
       </c>
       <c r="I81" s="3">
-        <v>126200</v>
+        <v>247900</v>
       </c>
       <c r="J81" s="3">
+        <v>117900</v>
+      </c>
+      <c r="K81" s="3">
         <v>330500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>491000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>423500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>279700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>447400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>516300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4028,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3877,8 +4076,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4126,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4176,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4226,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4276,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,55 +4326,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>779300</v>
+        <v>404900</v>
       </c>
       <c r="E89" s="3">
-        <v>1661200</v>
+        <v>728000</v>
       </c>
       <c r="F89" s="3">
-        <v>-1235600</v>
+        <v>1551700</v>
       </c>
       <c r="G89" s="3">
-        <v>3341500</v>
+        <v>-1154100</v>
       </c>
       <c r="H89" s="3">
-        <v>1576700</v>
+        <v>3121200</v>
       </c>
       <c r="I89" s="3">
-        <v>1266000</v>
+        <v>1472700</v>
       </c>
       <c r="J89" s="3">
+        <v>1182600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1161600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1634200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1087600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2273000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1164100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2055300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1467000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1576600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,55 +4398,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1146000</v>
+        <v>-1454900</v>
       </c>
       <c r="E91" s="3">
-        <v>-1273800</v>
+        <v>-1070400</v>
       </c>
       <c r="F91" s="3">
-        <v>-471200</v>
+        <v>-1189800</v>
       </c>
       <c r="G91" s="3">
-        <v>-755200</v>
+        <v>-440200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1709300</v>
+        <v>-705400</v>
       </c>
       <c r="I91" s="3">
-        <v>-2299700</v>
+        <v>-1596600</v>
       </c>
       <c r="J91" s="3">
+        <v>-2148100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1491800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1294800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-830700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2249500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-499000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1157600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-644000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-355100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4496,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,55 +4546,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1015300</v>
+        <v>-1382800</v>
       </c>
       <c r="E94" s="3">
-        <v>-777300</v>
+        <v>-948400</v>
       </c>
       <c r="F94" s="3">
-        <v>-492500</v>
+        <v>-726000</v>
       </c>
       <c r="G94" s="3">
-        <v>-697500</v>
+        <v>-460100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1578500</v>
+        <v>-651500</v>
       </c>
       <c r="I94" s="3">
-        <v>-2170100</v>
+        <v>-1474500</v>
       </c>
       <c r="J94" s="3">
+        <v>-2027100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1066600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-817300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-447300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2108300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-176900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-454700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-573900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-178600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +4618,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4412,28 +4646,31 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-151200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-48700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-64600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4716,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +4766,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,145 +4816,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>165500</v>
+        <v>462300</v>
       </c>
       <c r="E100" s="3">
-        <v>390800</v>
+        <v>154600</v>
       </c>
       <c r="F100" s="3">
-        <v>4175600</v>
+        <v>365000</v>
       </c>
       <c r="G100" s="3">
-        <v>-2597500</v>
+        <v>3900300</v>
       </c>
       <c r="H100" s="3">
-        <v>-846900</v>
+        <v>-2426300</v>
       </c>
       <c r="I100" s="3">
-        <v>1139700</v>
+        <v>-791000</v>
       </c>
       <c r="J100" s="3">
+        <v>1064500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-316200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-419900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-621700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-457600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-761600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2357000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1753200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-898500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
-        <v>-4900</v>
-      </c>
       <c r="F101" s="3">
-        <v>1100</v>
+        <v>-4600</v>
       </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H101" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="I101" s="3">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-71500</v>
+        <v>-517200</v>
       </c>
       <c r="E102" s="3">
-        <v>1269800</v>
+        <v>-66800</v>
       </c>
       <c r="F102" s="3">
-        <v>2448600</v>
+        <v>1186100</v>
       </c>
       <c r="G102" s="3">
-        <v>47300</v>
+        <v>2287200</v>
       </c>
       <c r="H102" s="3">
-        <v>-848600</v>
+        <v>44200</v>
       </c>
       <c r="I102" s="3">
-        <v>236800</v>
+        <v>-792600</v>
       </c>
       <c r="J102" s="3">
+        <v>221200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-220700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>393900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-290300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>228300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-748700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-862100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>495500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7378000</v>
+        <v>7311400</v>
       </c>
       <c r="E8" s="3">
-        <v>7600200</v>
+        <v>7531600</v>
       </c>
       <c r="F8" s="3">
-        <v>7898100</v>
+        <v>7826800</v>
       </c>
       <c r="G8" s="3">
-        <v>5741700</v>
+        <v>5689900</v>
       </c>
       <c r="H8" s="3">
-        <v>11992600</v>
+        <v>11884400</v>
       </c>
       <c r="I8" s="3">
-        <v>10748300</v>
+        <v>10651300</v>
       </c>
       <c r="J8" s="3">
-        <v>11214500</v>
+        <v>11113300</v>
       </c>
       <c r="K8" s="3">
         <v>10652000</v>
@@ -798,25 +798,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5848700</v>
+        <v>5795900</v>
       </c>
       <c r="E9" s="3">
-        <v>5774700</v>
+        <v>5722600</v>
       </c>
       <c r="F9" s="3">
-        <v>5767200</v>
+        <v>5715200</v>
       </c>
       <c r="G9" s="3">
-        <v>4498300</v>
+        <v>4457700</v>
       </c>
       <c r="H9" s="3">
-        <v>8516100</v>
+        <v>8439200</v>
       </c>
       <c r="I9" s="3">
-        <v>7725100</v>
+        <v>7655300</v>
       </c>
       <c r="J9" s="3">
-        <v>8927100</v>
+        <v>8846500</v>
       </c>
       <c r="K9" s="3">
         <v>8316900</v>
@@ -848,25 +848,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1529300</v>
+        <v>1515500</v>
       </c>
       <c r="E10" s="3">
-        <v>1825500</v>
+        <v>1809000</v>
       </c>
       <c r="F10" s="3">
-        <v>2130800</v>
+        <v>2111600</v>
       </c>
       <c r="G10" s="3">
-        <v>1243400</v>
+        <v>1232200</v>
       </c>
       <c r="H10" s="3">
-        <v>3476500</v>
+        <v>3445100</v>
       </c>
       <c r="I10" s="3">
-        <v>3023200</v>
+        <v>2996000</v>
       </c>
       <c r="J10" s="3">
-        <v>2287500</v>
+        <v>2266800</v>
       </c>
       <c r="K10" s="3">
         <v>2335000</v>
@@ -1018,19 +1018,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>398000</v>
+        <v>394400</v>
       </c>
       <c r="E14" s="3">
-        <v>30200</v>
+        <v>29900</v>
       </c>
       <c r="F14" s="3">
-        <v>589700</v>
+        <v>584400</v>
       </c>
       <c r="G14" s="3">
-        <v>-12700</v>
+        <v>-12600</v>
       </c>
       <c r="H14" s="3">
-        <v>-36400</v>
+        <v>-36100</v>
       </c>
       <c r="I14" s="3">
         <v>-1900</v>
@@ -1068,25 +1068,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1788500</v>
+        <v>1772400</v>
       </c>
       <c r="E15" s="3">
-        <v>1783600</v>
+        <v>1767500</v>
       </c>
       <c r="F15" s="3">
-        <v>1787200</v>
+        <v>1771100</v>
       </c>
       <c r="G15" s="3">
-        <v>1836400</v>
+        <v>1819800</v>
       </c>
       <c r="H15" s="3">
-        <v>1906700</v>
+        <v>1889500</v>
       </c>
       <c r="I15" s="3">
-        <v>1721300</v>
+        <v>1705800</v>
       </c>
       <c r="J15" s="3">
-        <v>1092500</v>
+        <v>1082700</v>
       </c>
       <c r="K15" s="3">
         <v>1098300</v>
@@ -1135,25 +1135,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8406000</v>
+        <v>8330100</v>
       </c>
       <c r="E17" s="3">
-        <v>8080900</v>
+        <v>8008000</v>
       </c>
       <c r="F17" s="3">
-        <v>8636900</v>
+        <v>8559000</v>
       </c>
       <c r="G17" s="3">
-        <v>6744500</v>
+        <v>6683600</v>
       </c>
       <c r="H17" s="3">
-        <v>11126600</v>
+        <v>11026100</v>
       </c>
       <c r="I17" s="3">
-        <v>9976300</v>
+        <v>9886200</v>
       </c>
       <c r="J17" s="3">
-        <v>10601700</v>
+        <v>10506000</v>
       </c>
       <c r="K17" s="3">
         <v>9914900</v>
@@ -1185,25 +1185,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1028000</v>
+        <v>-1018700</v>
       </c>
       <c r="E18" s="3">
-        <v>-480700</v>
+        <v>-476300</v>
       </c>
       <c r="F18" s="3">
-        <v>-738900</v>
+        <v>-732200</v>
       </c>
       <c r="G18" s="3">
-        <v>-1002800</v>
+        <v>-993700</v>
       </c>
       <c r="H18" s="3">
-        <v>866000</v>
+        <v>858200</v>
       </c>
       <c r="I18" s="3">
-        <v>772000</v>
+        <v>765100</v>
       </c>
       <c r="J18" s="3">
-        <v>612900</v>
+        <v>607300</v>
       </c>
       <c r="K18" s="3">
         <v>737100</v>
@@ -1255,25 +1255,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>172300</v>
+        <v>170700</v>
       </c>
       <c r="E20" s="3">
-        <v>197500</v>
+        <v>195700</v>
       </c>
       <c r="F20" s="3">
-        <v>749600</v>
+        <v>742900</v>
       </c>
       <c r="G20" s="3">
-        <v>-255200</v>
+        <v>-252900</v>
       </c>
       <c r="H20" s="3">
-        <v>-182100</v>
+        <v>-180500</v>
       </c>
       <c r="I20" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="J20" s="3">
-        <v>-171200</v>
+        <v>-169700</v>
       </c>
       <c r="K20" s="3">
         <v>-14200</v>
@@ -1305,25 +1305,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-850900</v>
+        <v>-843200</v>
       </c>
       <c r="E21" s="3">
-        <v>1500400</v>
+        <v>1486900</v>
       </c>
       <c r="F21" s="3">
-        <v>-38500</v>
+        <v>-38100</v>
       </c>
       <c r="G21" s="3">
-        <v>578400</v>
+        <v>573200</v>
       </c>
       <c r="H21" s="3">
-        <v>869300</v>
+        <v>861400</v>
       </c>
       <c r="I21" s="3">
-        <v>2498900</v>
+        <v>2476400</v>
       </c>
       <c r="J21" s="3">
-        <v>508200</v>
+        <v>503700</v>
       </c>
       <c r="K21" s="3">
         <v>1821200</v>
@@ -1355,25 +1355,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>442400</v>
+        <v>438400</v>
       </c>
       <c r="E22" s="3">
-        <v>468500</v>
+        <v>464200</v>
       </c>
       <c r="F22" s="3">
-        <v>489800</v>
+        <v>485400</v>
       </c>
       <c r="G22" s="3">
-        <v>502100</v>
+        <v>497500</v>
       </c>
       <c r="H22" s="3">
-        <v>438400</v>
+        <v>434400</v>
       </c>
       <c r="I22" s="3">
-        <v>425600</v>
+        <v>421700</v>
       </c>
       <c r="J22" s="3">
-        <v>247000</v>
+        <v>244700</v>
       </c>
       <c r="K22" s="3">
         <v>242800</v>
@@ -1405,25 +1405,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1298100</v>
+        <v>-1286400</v>
       </c>
       <c r="E23" s="3">
-        <v>-751700</v>
+        <v>-744900</v>
       </c>
       <c r="F23" s="3">
-        <v>-479100</v>
+        <v>-474700</v>
       </c>
       <c r="G23" s="3">
-        <v>-1760100</v>
+        <v>-1744200</v>
       </c>
       <c r="H23" s="3">
-        <v>245500</v>
+        <v>243300</v>
       </c>
       <c r="I23" s="3">
-        <v>352000</v>
+        <v>348900</v>
       </c>
       <c r="J23" s="3">
-        <v>194700</v>
+        <v>192900</v>
       </c>
       <c r="K23" s="3">
         <v>480100</v>
@@ -1455,25 +1455,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-259400</v>
+        <v>-257000</v>
       </c>
       <c r="E24" s="3">
-        <v>-167100</v>
+        <v>-165600</v>
       </c>
       <c r="F24" s="3">
-        <v>-133500</v>
+        <v>-132300</v>
       </c>
       <c r="G24" s="3">
-        <v>-362800</v>
+        <v>-359500</v>
       </c>
       <c r="H24" s="3">
-        <v>42100</v>
+        <v>41800</v>
       </c>
       <c r="I24" s="3">
-        <v>100900</v>
+        <v>100000</v>
       </c>
       <c r="J24" s="3">
-        <v>46900</v>
+        <v>46400</v>
       </c>
       <c r="K24" s="3">
         <v>107600</v>
@@ -1555,25 +1555,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1038700</v>
+        <v>-1029400</v>
       </c>
       <c r="E26" s="3">
-        <v>-584600</v>
+        <v>-579300</v>
       </c>
       <c r="F26" s="3">
-        <v>-345600</v>
+        <v>-342400</v>
       </c>
       <c r="G26" s="3">
-        <v>-1397300</v>
+        <v>-1384700</v>
       </c>
       <c r="H26" s="3">
-        <v>203400</v>
+        <v>201500</v>
       </c>
       <c r="I26" s="3">
-        <v>251100</v>
+        <v>248800</v>
       </c>
       <c r="J26" s="3">
-        <v>147800</v>
+        <v>146500</v>
       </c>
       <c r="K26" s="3">
         <v>372500</v>
@@ -1605,25 +1605,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1092800</v>
+        <v>-1083000</v>
       </c>
       <c r="E27" s="3">
-        <v>-691100</v>
+        <v>-684900</v>
       </c>
       <c r="F27" s="3">
-        <v>-393200</v>
+        <v>-389600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1205300</v>
+        <v>-1194400</v>
       </c>
       <c r="H27" s="3">
-        <v>141200</v>
+        <v>139900</v>
       </c>
       <c r="I27" s="3">
-        <v>247900</v>
+        <v>245600</v>
       </c>
       <c r="J27" s="3">
-        <v>117900</v>
+        <v>116800</v>
       </c>
       <c r="K27" s="3">
         <v>330500</v>
@@ -1855,25 +1855,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-172300</v>
+        <v>-170700</v>
       </c>
       <c r="E32" s="3">
-        <v>-197500</v>
+        <v>-195700</v>
       </c>
       <c r="F32" s="3">
-        <v>-749600</v>
+        <v>-742900</v>
       </c>
       <c r="G32" s="3">
-        <v>255200</v>
+        <v>252900</v>
       </c>
       <c r="H32" s="3">
-        <v>182100</v>
+        <v>180500</v>
       </c>
       <c r="I32" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="J32" s="3">
-        <v>171200</v>
+        <v>169700</v>
       </c>
       <c r="K32" s="3">
         <v>14200</v>
@@ -1905,25 +1905,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1092800</v>
+        <v>-1083000</v>
       </c>
       <c r="E33" s="3">
-        <v>-691100</v>
+        <v>-684900</v>
       </c>
       <c r="F33" s="3">
-        <v>-393200</v>
+        <v>-389600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1205300</v>
+        <v>-1194400</v>
       </c>
       <c r="H33" s="3">
-        <v>141200</v>
+        <v>139900</v>
       </c>
       <c r="I33" s="3">
-        <v>247900</v>
+        <v>245600</v>
       </c>
       <c r="J33" s="3">
-        <v>117900</v>
+        <v>116800</v>
       </c>
       <c r="K33" s="3">
         <v>330500</v>
@@ -2005,25 +2005,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1092800</v>
+        <v>-1083000</v>
       </c>
       <c r="E35" s="3">
-        <v>-691100</v>
+        <v>-684900</v>
       </c>
       <c r="F35" s="3">
-        <v>-393200</v>
+        <v>-389600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1205300</v>
+        <v>-1194400</v>
       </c>
       <c r="H35" s="3">
-        <v>141200</v>
+        <v>139900</v>
       </c>
       <c r="I35" s="3">
-        <v>247900</v>
+        <v>245600</v>
       </c>
       <c r="J35" s="3">
-        <v>117900</v>
+        <v>116800</v>
       </c>
       <c r="K35" s="3">
         <v>330500</v>
@@ -2150,25 +2150,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3161800</v>
+        <v>3133200</v>
       </c>
       <c r="E41" s="3">
-        <v>3679000</v>
+        <v>3645800</v>
       </c>
       <c r="F41" s="3">
-        <v>3745700</v>
+        <v>3711900</v>
       </c>
       <c r="G41" s="3">
-        <v>2559600</v>
+        <v>2536500</v>
       </c>
       <c r="H41" s="3">
-        <v>272500</v>
+        <v>270000</v>
       </c>
       <c r="I41" s="3">
-        <v>228300</v>
+        <v>226200</v>
       </c>
       <c r="J41" s="3">
-        <v>1020900</v>
+        <v>1011700</v>
       </c>
       <c r="K41" s="3">
         <v>856200</v>
@@ -2218,7 +2218,7 @@
         <v>3700</v>
       </c>
       <c r="J42" s="3">
-        <v>64800</v>
+        <v>64300</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
@@ -2250,25 +2250,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1852600</v>
+        <v>1835900</v>
       </c>
       <c r="E43" s="3">
-        <v>1877500</v>
+        <v>1860600</v>
       </c>
       <c r="F43" s="3">
-        <v>1614600</v>
+        <v>1600100</v>
       </c>
       <c r="G43" s="3">
-        <v>1673300</v>
+        <v>1658200</v>
       </c>
       <c r="H43" s="3">
-        <v>1633500</v>
+        <v>1618700</v>
       </c>
       <c r="I43" s="3">
-        <v>1822800</v>
+        <v>1806400</v>
       </c>
       <c r="J43" s="3">
-        <v>1621800</v>
+        <v>1607200</v>
       </c>
       <c r="K43" s="3">
         <v>1657100</v>
@@ -2300,25 +2300,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>243400</v>
+        <v>241200</v>
       </c>
       <c r="E44" s="3">
-        <v>265400</v>
+        <v>263000</v>
       </c>
       <c r="F44" s="3">
-        <v>259400</v>
+        <v>257000</v>
       </c>
       <c r="G44" s="3">
-        <v>309300</v>
+        <v>306500</v>
       </c>
       <c r="H44" s="3">
-        <v>279000</v>
+        <v>276400</v>
       </c>
       <c r="I44" s="3">
-        <v>291600</v>
+        <v>289000</v>
       </c>
       <c r="J44" s="3">
-        <v>250400</v>
+        <v>248100</v>
       </c>
       <c r="K44" s="3">
         <v>296600</v>
@@ -2350,25 +2350,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>322100</v>
+        <v>319200</v>
       </c>
       <c r="E45" s="3">
-        <v>76800</v>
+        <v>76100</v>
       </c>
       <c r="F45" s="3">
-        <v>125100</v>
+        <v>124000</v>
       </c>
       <c r="G45" s="3">
-        <v>100600</v>
+        <v>99700</v>
       </c>
       <c r="H45" s="3">
-        <v>281600</v>
+        <v>279100</v>
       </c>
       <c r="I45" s="3">
-        <v>441900</v>
+        <v>437900</v>
       </c>
       <c r="J45" s="3">
-        <v>589300</v>
+        <v>584000</v>
       </c>
       <c r="K45" s="3">
         <v>253200</v>
@@ -2400,25 +2400,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5579900</v>
+        <v>5529600</v>
       </c>
       <c r="E46" s="3">
-        <v>5898700</v>
+        <v>5845400</v>
       </c>
       <c r="F46" s="3">
-        <v>5744800</v>
+        <v>5693000</v>
       </c>
       <c r="G46" s="3">
-        <v>4642900</v>
+        <v>4601000</v>
       </c>
       <c r="H46" s="3">
-        <v>2466500</v>
+        <v>2444300</v>
       </c>
       <c r="I46" s="3">
-        <v>2788300</v>
+        <v>2763200</v>
       </c>
       <c r="J46" s="3">
-        <v>3547200</v>
+        <v>3515200</v>
       </c>
       <c r="K46" s="3">
         <v>3063100</v>
@@ -2450,25 +2450,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1120200</v>
+        <v>1110100</v>
       </c>
       <c r="E47" s="3">
-        <v>1045200</v>
+        <v>1035800</v>
       </c>
       <c r="F47" s="3">
-        <v>1020800</v>
+        <v>1011500</v>
       </c>
       <c r="G47" s="3">
-        <v>1026500</v>
+        <v>1017200</v>
       </c>
       <c r="H47" s="3">
-        <v>1187400</v>
+        <v>1176700</v>
       </c>
       <c r="I47" s="3">
-        <v>1138400</v>
+        <v>1128100</v>
       </c>
       <c r="J47" s="3">
-        <v>1145000</v>
+        <v>1134700</v>
       </c>
       <c r="K47" s="3">
         <v>947500</v>
@@ -2500,25 +2500,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38530500</v>
+        <v>38182800</v>
       </c>
       <c r="E48" s="3">
-        <v>39341100</v>
+        <v>38986100</v>
       </c>
       <c r="F48" s="3">
-        <v>39730900</v>
+        <v>39372300</v>
       </c>
       <c r="G48" s="3">
-        <v>40180700</v>
+        <v>39818000</v>
       </c>
       <c r="H48" s="3">
-        <v>40851300</v>
+        <v>40482600</v>
       </c>
       <c r="I48" s="3">
-        <v>39705700</v>
+        <v>39347300</v>
       </c>
       <c r="J48" s="3">
-        <v>30722100</v>
+        <v>30444800</v>
       </c>
       <c r="K48" s="3">
         <v>31190400</v>
@@ -2550,25 +2550,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="E49" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="F49" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="G49" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="H49" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="I49" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="J49" s="3">
-        <v>34900</v>
+        <v>34600</v>
       </c>
       <c r="K49" s="3">
         <v>37400</v>
@@ -2700,25 +2700,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2362800</v>
+        <v>2341400</v>
       </c>
       <c r="E52" s="3">
-        <v>1879100</v>
+        <v>1862200</v>
       </c>
       <c r="F52" s="3">
-        <v>1564400</v>
+        <v>1550300</v>
       </c>
       <c r="G52" s="3">
-        <v>1237400</v>
+        <v>1226200</v>
       </c>
       <c r="H52" s="3">
-        <v>688800</v>
+        <v>682500</v>
       </c>
       <c r="I52" s="3">
-        <v>607900</v>
+        <v>602400</v>
       </c>
       <c r="J52" s="3">
-        <v>941200</v>
+        <v>932700</v>
       </c>
       <c r="K52" s="3">
         <v>961500</v>
@@ -2800,25 +2800,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47628400</v>
+        <v>47198500</v>
       </c>
       <c r="E54" s="3">
-        <v>48199100</v>
+        <v>47764100</v>
       </c>
       <c r="F54" s="3">
-        <v>48095800</v>
+        <v>47661700</v>
       </c>
       <c r="G54" s="3">
-        <v>47122300</v>
+        <v>46697000</v>
       </c>
       <c r="H54" s="3">
-        <v>45228900</v>
+        <v>44820700</v>
       </c>
       <c r="I54" s="3">
-        <v>44275200</v>
+        <v>43875600</v>
       </c>
       <c r="J54" s="3">
-        <v>36390400</v>
+        <v>36062000</v>
       </c>
       <c r="K54" s="3">
         <v>36199900</v>
@@ -2890,25 +2890,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>195700</v>
+        <v>193900</v>
       </c>
       <c r="E57" s="3">
-        <v>226100</v>
+        <v>224000</v>
       </c>
       <c r="F57" s="3">
-        <v>262600</v>
+        <v>260200</v>
       </c>
       <c r="G57" s="3">
-        <v>265400</v>
+        <v>263000</v>
       </c>
       <c r="H57" s="3">
-        <v>341400</v>
+        <v>338400</v>
       </c>
       <c r="I57" s="3">
-        <v>413300</v>
+        <v>409600</v>
       </c>
       <c r="J57" s="3">
-        <v>340300</v>
+        <v>337200</v>
       </c>
       <c r="K57" s="3">
         <v>319000</v>
@@ -2940,25 +2940,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11599900</v>
+        <v>11495200</v>
       </c>
       <c r="E58" s="3">
-        <v>10290300</v>
+        <v>10197400</v>
       </c>
       <c r="F58" s="3">
-        <v>8993200</v>
+        <v>8912100</v>
       </c>
       <c r="G58" s="3">
-        <v>10124400</v>
+        <v>10033000</v>
       </c>
       <c r="H58" s="3">
-        <v>8479200</v>
+        <v>8402700</v>
       </c>
       <c r="I58" s="3">
-        <v>8798000</v>
+        <v>8718600</v>
       </c>
       <c r="J58" s="3">
-        <v>7116900</v>
+        <v>7052700</v>
       </c>
       <c r="K58" s="3">
         <v>7699600</v>
@@ -2990,25 +2990,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4559900</v>
+        <v>4518800</v>
       </c>
       <c r="E59" s="3">
-        <v>4684600</v>
+        <v>4642300</v>
       </c>
       <c r="F59" s="3">
-        <v>4843700</v>
+        <v>4800000</v>
       </c>
       <c r="G59" s="3">
-        <v>3880900</v>
+        <v>3845800</v>
       </c>
       <c r="H59" s="3">
-        <v>5250700</v>
+        <v>5203300</v>
       </c>
       <c r="I59" s="3">
-        <v>4783000</v>
+        <v>4739800</v>
       </c>
       <c r="J59" s="3">
-        <v>4875000</v>
+        <v>4831000</v>
       </c>
       <c r="K59" s="3">
         <v>4924800</v>
@@ -3040,25 +3040,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16355500</v>
+        <v>16207900</v>
       </c>
       <c r="E60" s="3">
-        <v>15200900</v>
+        <v>15063700</v>
       </c>
       <c r="F60" s="3">
-        <v>14099600</v>
+        <v>13972300</v>
       </c>
       <c r="G60" s="3">
-        <v>14270600</v>
+        <v>14141800</v>
       </c>
       <c r="H60" s="3">
-        <v>14071400</v>
+        <v>13944400</v>
       </c>
       <c r="I60" s="3">
-        <v>13994300</v>
+        <v>13868000</v>
       </c>
       <c r="J60" s="3">
-        <v>12332100</v>
+        <v>12220800</v>
       </c>
       <c r="K60" s="3">
         <v>12943400</v>
@@ -3090,25 +3090,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17727100</v>
+        <v>17567100</v>
       </c>
       <c r="E61" s="3">
-        <v>18299800</v>
+        <v>18134600</v>
       </c>
       <c r="F61" s="3">
-        <v>20397100</v>
+        <v>20213000</v>
       </c>
       <c r="G61" s="3">
-        <v>19561600</v>
+        <v>19385000</v>
       </c>
       <c r="H61" s="3">
-        <v>18819800</v>
+        <v>18649900</v>
       </c>
       <c r="I61" s="3">
-        <v>18056600</v>
+        <v>17893600</v>
       </c>
       <c r="J61" s="3">
-        <v>2310000</v>
+        <v>2289200</v>
       </c>
       <c r="K61" s="3">
         <v>11935300</v>
@@ -3140,25 +3140,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1092700</v>
+        <v>1082800</v>
       </c>
       <c r="E62" s="3">
-        <v>1099000</v>
+        <v>1089100</v>
       </c>
       <c r="F62" s="3">
-        <v>1054200</v>
+        <v>1044700</v>
       </c>
       <c r="G62" s="3">
-        <v>1001900</v>
+        <v>992900</v>
       </c>
       <c r="H62" s="3">
-        <v>942500</v>
+        <v>934000</v>
       </c>
       <c r="I62" s="3">
-        <v>1014400</v>
+        <v>1005300</v>
       </c>
       <c r="J62" s="3">
-        <v>10185100</v>
+        <v>10093200</v>
       </c>
       <c r="K62" s="3">
         <v>1091500</v>
@@ -3340,25 +3340,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37629800</v>
+        <v>37290200</v>
       </c>
       <c r="E66" s="3">
-        <v>37104800</v>
+        <v>36769900</v>
       </c>
       <c r="F66" s="3">
-        <v>37841900</v>
+        <v>37500400</v>
       </c>
       <c r="G66" s="3">
-        <v>36569400</v>
+        <v>36239400</v>
       </c>
       <c r="H66" s="3">
-        <v>35782200</v>
+        <v>35459300</v>
       </c>
       <c r="I66" s="3">
-        <v>34962800</v>
+        <v>34647200</v>
       </c>
       <c r="J66" s="3">
-        <v>26774100</v>
+        <v>26532500</v>
       </c>
       <c r="K66" s="3">
         <v>28026700</v>
@@ -3610,25 +3610,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>496500</v>
+        <v>492000</v>
       </c>
       <c r="E72" s="3">
-        <v>1589300</v>
+        <v>1574900</v>
       </c>
       <c r="F72" s="3">
-        <v>2280400</v>
+        <v>2259800</v>
       </c>
       <c r="G72" s="3">
-        <v>2569100</v>
+        <v>2545900</v>
       </c>
       <c r="H72" s="3">
-        <v>3798400</v>
+        <v>3764100</v>
       </c>
       <c r="I72" s="3">
-        <v>3658400</v>
+        <v>3625300</v>
       </c>
       <c r="J72" s="3">
-        <v>3955900</v>
+        <v>3920200</v>
       </c>
       <c r="K72" s="3">
         <v>4108500</v>
@@ -3810,25 +3810,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9998500</v>
+        <v>9908300</v>
       </c>
       <c r="E76" s="3">
-        <v>11094300</v>
+        <v>10994200</v>
       </c>
       <c r="F76" s="3">
-        <v>10253900</v>
+        <v>10161400</v>
       </c>
       <c r="G76" s="3">
-        <v>10552900</v>
+        <v>10457600</v>
       </c>
       <c r="H76" s="3">
-        <v>9446700</v>
+        <v>9361400</v>
       </c>
       <c r="I76" s="3">
-        <v>9312400</v>
+        <v>9228400</v>
       </c>
       <c r="J76" s="3">
-        <v>9616300</v>
+        <v>9529500</v>
       </c>
       <c r="K76" s="3">
         <v>8173200</v>
@@ -3965,25 +3965,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1092800</v>
+        <v>-1083000</v>
       </c>
       <c r="E81" s="3">
-        <v>-691100</v>
+        <v>-684900</v>
       </c>
       <c r="F81" s="3">
-        <v>-393200</v>
+        <v>-389600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1205300</v>
+        <v>-1194400</v>
       </c>
       <c r="H81" s="3">
-        <v>141200</v>
+        <v>139900</v>
       </c>
       <c r="I81" s="3">
-        <v>247900</v>
+        <v>245600</v>
       </c>
       <c r="J81" s="3">
-        <v>117900</v>
+        <v>116800</v>
       </c>
       <c r="K81" s="3">
         <v>330500</v>
@@ -4335,25 +4335,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>404900</v>
+        <v>401300</v>
       </c>
       <c r="E89" s="3">
-        <v>728000</v>
+        <v>721400</v>
       </c>
       <c r="F89" s="3">
-        <v>1551700</v>
+        <v>1537700</v>
       </c>
       <c r="G89" s="3">
-        <v>-1154100</v>
+        <v>-1143700</v>
       </c>
       <c r="H89" s="3">
-        <v>3121200</v>
+        <v>3093100</v>
       </c>
       <c r="I89" s="3">
-        <v>1472700</v>
+        <v>1459400</v>
       </c>
       <c r="J89" s="3">
-        <v>1182600</v>
+        <v>1171900</v>
       </c>
       <c r="K89" s="3">
         <v>1161600</v>
@@ -4405,25 +4405,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1454900</v>
+        <v>-1441800</v>
       </c>
       <c r="E91" s="3">
-        <v>-1070400</v>
+        <v>-1060800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1189800</v>
+        <v>-1179000</v>
       </c>
       <c r="G91" s="3">
-        <v>-440200</v>
+        <v>-436200</v>
       </c>
       <c r="H91" s="3">
-        <v>-705400</v>
+        <v>-699000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1596600</v>
+        <v>-1582200</v>
       </c>
       <c r="J91" s="3">
-        <v>-2148100</v>
+        <v>-2128700</v>
       </c>
       <c r="K91" s="3">
         <v>-1491800</v>
@@ -4555,25 +4555,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1382800</v>
+        <v>-1370300</v>
       </c>
       <c r="E94" s="3">
-        <v>-948400</v>
+        <v>-939800</v>
       </c>
       <c r="F94" s="3">
-        <v>-726000</v>
+        <v>-719500</v>
       </c>
       <c r="G94" s="3">
-        <v>-460100</v>
+        <v>-455900</v>
       </c>
       <c r="H94" s="3">
-        <v>-651500</v>
+        <v>-645600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1474500</v>
+        <v>-1461200</v>
       </c>
       <c r="J94" s="3">
-        <v>-2027100</v>
+        <v>-2008800</v>
       </c>
       <c r="K94" s="3">
         <v>-1066600</v>
@@ -4825,25 +4825,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>462300</v>
+        <v>458100</v>
       </c>
       <c r="E100" s="3">
-        <v>154600</v>
+        <v>153200</v>
       </c>
       <c r="F100" s="3">
-        <v>365000</v>
+        <v>361700</v>
       </c>
       <c r="G100" s="3">
-        <v>3900300</v>
+        <v>3865100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2426300</v>
+        <v>-2404400</v>
       </c>
       <c r="I100" s="3">
-        <v>-791000</v>
+        <v>-783900</v>
       </c>
       <c r="J100" s="3">
-        <v>1064500</v>
+        <v>1054900</v>
       </c>
       <c r="K100" s="3">
         <v>-316200</v>
@@ -4881,7 +4881,7 @@
         <v>-900</v>
       </c>
       <c r="F101" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="G101" s="3">
         <v>1000</v>
@@ -4925,25 +4925,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-517200</v>
+        <v>-512600</v>
       </c>
       <c r="E102" s="3">
-        <v>-66800</v>
+        <v>-66200</v>
       </c>
       <c r="F102" s="3">
-        <v>1186100</v>
+        <v>1175400</v>
       </c>
       <c r="G102" s="3">
-        <v>2287200</v>
+        <v>2266500</v>
       </c>
       <c r="H102" s="3">
-        <v>44200</v>
+        <v>43800</v>
       </c>
       <c r="I102" s="3">
-        <v>-792600</v>
+        <v>-785500</v>
       </c>
       <c r="J102" s="3">
-        <v>221200</v>
+        <v>219200</v>
       </c>
       <c r="K102" s="3">
         <v>-220700</v>

--- a/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZNH_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>ZNH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,235 +665,248 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42551</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42369</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42185</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7311400</v>
+        <v>5681700</v>
       </c>
       <c r="E8" s="3">
-        <v>7531600</v>
+        <v>6969500</v>
       </c>
       <c r="F8" s="3">
-        <v>7826800</v>
+        <v>7179400</v>
       </c>
       <c r="G8" s="3">
-        <v>5689900</v>
+        <v>7460700</v>
       </c>
       <c r="H8" s="3">
-        <v>11884400</v>
+        <v>5423800</v>
       </c>
       <c r="I8" s="3">
-        <v>10651300</v>
+        <v>11328500</v>
       </c>
       <c r="J8" s="3">
+        <v>10153100</v>
+      </c>
+      <c r="K8" s="3">
         <v>11113300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10652000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10365600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9241400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8839000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7765000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8651300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7919000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8487100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5795900</v>
+        <v>5124600</v>
       </c>
       <c r="E9" s="3">
-        <v>5722600</v>
+        <v>5524800</v>
       </c>
       <c r="F9" s="3">
-        <v>5715200</v>
+        <v>5455000</v>
       </c>
       <c r="G9" s="3">
-        <v>4457700</v>
+        <v>5447900</v>
       </c>
       <c r="H9" s="3">
-        <v>8439200</v>
+        <v>4249200</v>
       </c>
       <c r="I9" s="3">
-        <v>7655300</v>
+        <v>8044500</v>
       </c>
       <c r="J9" s="3">
+        <v>7297300</v>
+      </c>
+      <c r="K9" s="3">
         <v>8846500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8316900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7940600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7061600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6592700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5394700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6133200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5550700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6364500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1515500</v>
+        <v>557100</v>
       </c>
       <c r="E10" s="3">
-        <v>1809000</v>
+        <v>1444600</v>
       </c>
       <c r="F10" s="3">
-        <v>2111600</v>
+        <v>1724400</v>
       </c>
       <c r="G10" s="3">
-        <v>1232200</v>
+        <v>2012800</v>
       </c>
       <c r="H10" s="3">
-        <v>3445100</v>
+        <v>1174600</v>
       </c>
       <c r="I10" s="3">
-        <v>2996000</v>
+        <v>3284000</v>
       </c>
       <c r="J10" s="3">
+        <v>2855800</v>
+      </c>
+      <c r="K10" s="3">
         <v>2266800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2335000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2425000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2179700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2246300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2370300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2518100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2368300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2122700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,8 +925,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +976,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1012,108 +1029,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>394400</v>
+        <v>-9600</v>
       </c>
       <c r="E14" s="3">
-        <v>29900</v>
+        <v>376000</v>
       </c>
       <c r="F14" s="3">
-        <v>584400</v>
+        <v>28500</v>
       </c>
       <c r="G14" s="3">
-        <v>-12600</v>
+        <v>557100</v>
       </c>
       <c r="H14" s="3">
-        <v>-36100</v>
+        <v>-12000</v>
       </c>
       <c r="I14" s="3">
-        <v>-1900</v>
+        <v>-34400</v>
       </c>
       <c r="J14" s="3">
         <v>-1800</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>43000</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2800</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13400</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>31300</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1772400</v>
+        <v>1650500</v>
       </c>
       <c r="E15" s="3">
-        <v>1767500</v>
+        <v>1689500</v>
       </c>
       <c r="F15" s="3">
-        <v>1771100</v>
+        <v>1684900</v>
       </c>
       <c r="G15" s="3">
-        <v>1819800</v>
+        <v>1688200</v>
       </c>
       <c r="H15" s="3">
-        <v>1889500</v>
+        <v>1734700</v>
       </c>
       <c r="I15" s="3">
-        <v>1705800</v>
+        <v>1801100</v>
       </c>
       <c r="J15" s="3">
+        <v>1626000</v>
+      </c>
+      <c r="K15" s="3">
         <v>1082700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1098300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1049400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>994300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>926700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>913800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>909200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>870700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>824000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1129,108 +1155,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8330100</v>
+        <v>7142600</v>
       </c>
       <c r="E17" s="3">
-        <v>8008000</v>
+        <v>7940500</v>
       </c>
       <c r="F17" s="3">
-        <v>8559000</v>
+        <v>7633400</v>
       </c>
       <c r="G17" s="3">
-        <v>6683600</v>
+        <v>8158700</v>
       </c>
       <c r="H17" s="3">
-        <v>11026100</v>
+        <v>6371000</v>
       </c>
       <c r="I17" s="3">
-        <v>9886200</v>
+        <v>10510400</v>
       </c>
       <c r="J17" s="3">
+        <v>9423800</v>
+      </c>
+      <c r="K17" s="3">
         <v>10506000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9914900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9654400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8541300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8018300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6753300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7545200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7030800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7909400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1018700</v>
+        <v>-1460900</v>
       </c>
       <c r="E18" s="3">
-        <v>-476300</v>
+        <v>-971100</v>
       </c>
       <c r="F18" s="3">
-        <v>-732200</v>
+        <v>-454100</v>
       </c>
       <c r="G18" s="3">
-        <v>-993700</v>
+        <v>-697900</v>
       </c>
       <c r="H18" s="3">
-        <v>858200</v>
+        <v>-947300</v>
       </c>
       <c r="I18" s="3">
-        <v>765100</v>
+        <v>818100</v>
       </c>
       <c r="J18" s="3">
+        <v>729300</v>
+      </c>
+      <c r="K18" s="3">
         <v>607300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>737100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>711200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>820700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1011700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1106100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>888200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>577800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,258 +1282,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>170700</v>
+        <v>-229100</v>
       </c>
       <c r="E20" s="3">
-        <v>195700</v>
+        <v>162700</v>
       </c>
       <c r="F20" s="3">
-        <v>742900</v>
+        <v>186500</v>
       </c>
       <c r="G20" s="3">
-        <v>-252900</v>
+        <v>708100</v>
       </c>
       <c r="H20" s="3">
-        <v>-180500</v>
+        <v>-241100</v>
       </c>
       <c r="I20" s="3">
-        <v>5500</v>
+        <v>-172100</v>
       </c>
       <c r="J20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-169700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>229900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>138900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-222900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-156100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-826100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>64900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>214400</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-843200</v>
+        <v>-39500</v>
       </c>
       <c r="E21" s="3">
-        <v>1486900</v>
+        <v>-803700</v>
       </c>
       <c r="F21" s="3">
-        <v>-38100</v>
+        <v>1417300</v>
       </c>
       <c r="G21" s="3">
-        <v>573200</v>
+        <v>-36300</v>
       </c>
       <c r="H21" s="3">
-        <v>861400</v>
+        <v>546400</v>
       </c>
       <c r="I21" s="3">
-        <v>2476400</v>
+        <v>821100</v>
       </c>
       <c r="J21" s="3">
+        <v>2360600</v>
+      </c>
+      <c r="K21" s="3">
         <v>503700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1821200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>988400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1833200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>599500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1769400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>318500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1823800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>842800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>438400</v>
+        <v>416100</v>
       </c>
       <c r="E22" s="3">
-        <v>464200</v>
+        <v>417900</v>
       </c>
       <c r="F22" s="3">
-        <v>485400</v>
+        <v>442500</v>
       </c>
       <c r="G22" s="3">
-        <v>497500</v>
+        <v>462700</v>
       </c>
       <c r="H22" s="3">
-        <v>434400</v>
+        <v>474300</v>
       </c>
       <c r="I22" s="3">
-        <v>421700</v>
+        <v>414100</v>
       </c>
       <c r="J22" s="3">
+        <v>402000</v>
+      </c>
+      <c r="K22" s="3">
         <v>244700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>242800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>217300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>201400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>180400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>168700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>159400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>165800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>182100</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1286400</v>
+        <v>-2106100</v>
       </c>
       <c r="E23" s="3">
-        <v>-744900</v>
+        <v>-1226200</v>
       </c>
       <c r="F23" s="3">
-        <v>-474700</v>
+        <v>-710100</v>
       </c>
       <c r="G23" s="3">
-        <v>-1744200</v>
+        <v>-452500</v>
       </c>
       <c r="H23" s="3">
-        <v>243300</v>
+        <v>-1662600</v>
       </c>
       <c r="I23" s="3">
-        <v>348900</v>
+        <v>231900</v>
       </c>
       <c r="J23" s="3">
+        <v>332500</v>
+      </c>
+      <c r="K23" s="3">
         <v>192900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>480100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>723900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>637600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>417400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>686800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>120700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>787300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>610100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-257000</v>
+        <v>-437600</v>
       </c>
       <c r="E24" s="3">
-        <v>-165600</v>
+        <v>-245000</v>
       </c>
       <c r="F24" s="3">
-        <v>-132300</v>
+        <v>-157900</v>
       </c>
       <c r="G24" s="3">
-        <v>-359500</v>
+        <v>-126100</v>
       </c>
       <c r="H24" s="3">
-        <v>41800</v>
+        <v>-342700</v>
       </c>
       <c r="I24" s="3">
-        <v>100000</v>
+        <v>39800</v>
       </c>
       <c r="J24" s="3">
+        <v>95400</v>
+      </c>
+      <c r="K24" s="3">
         <v>46400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>107600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>156100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>147000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>96900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>157300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>179600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>143000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1549,108 +1598,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1029400</v>
+        <v>-1668500</v>
       </c>
       <c r="E26" s="3">
-        <v>-579300</v>
+        <v>-981200</v>
       </c>
       <c r="F26" s="3">
-        <v>-342400</v>
+        <v>-552200</v>
       </c>
       <c r="G26" s="3">
-        <v>-1384700</v>
+        <v>-326400</v>
       </c>
       <c r="H26" s="3">
-        <v>201500</v>
+        <v>-1319900</v>
       </c>
       <c r="I26" s="3">
-        <v>248800</v>
+        <v>192100</v>
       </c>
       <c r="J26" s="3">
+        <v>237200</v>
+      </c>
+      <c r="K26" s="3">
         <v>146500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>372500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>567700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>490600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>320500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>529600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>107300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>607700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>467100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1083000</v>
+        <v>-1599400</v>
       </c>
       <c r="E27" s="3">
-        <v>-684900</v>
+        <v>-1032300</v>
       </c>
       <c r="F27" s="3">
-        <v>-389600</v>
+        <v>-652800</v>
       </c>
       <c r="G27" s="3">
-        <v>-1194400</v>
+        <v>-371400</v>
       </c>
       <c r="H27" s="3">
-        <v>139900</v>
+        <v>-1138500</v>
       </c>
       <c r="I27" s="3">
-        <v>245600</v>
+        <v>133400</v>
       </c>
       <c r="J27" s="3">
+        <v>234100</v>
+      </c>
+      <c r="K27" s="3">
         <v>116800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>330500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>491000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>423500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>279700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>447400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>516300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1699,8 +1757,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1749,8 +1810,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1799,8 +1863,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1849,108 +1916,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-170700</v>
+        <v>229100</v>
       </c>
       <c r="E32" s="3">
-        <v>-195700</v>
+        <v>-162700</v>
       </c>
       <c r="F32" s="3">
-        <v>-742900</v>
+        <v>-186500</v>
       </c>
       <c r="G32" s="3">
-        <v>252900</v>
+        <v>-708100</v>
       </c>
       <c r="H32" s="3">
-        <v>180500</v>
+        <v>241100</v>
       </c>
       <c r="I32" s="3">
-        <v>-5500</v>
+        <v>172100</v>
       </c>
       <c r="J32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="K32" s="3">
         <v>169700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-229900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-138900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>222900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>156100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>826100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-64900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-214400</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1083000</v>
+        <v>-1599400</v>
       </c>
       <c r="E33" s="3">
-        <v>-684900</v>
+        <v>-1032300</v>
       </c>
       <c r="F33" s="3">
-        <v>-389600</v>
+        <v>-652800</v>
       </c>
       <c r="G33" s="3">
-        <v>-1194400</v>
+        <v>-371400</v>
       </c>
       <c r="H33" s="3">
-        <v>139900</v>
+        <v>-1138500</v>
       </c>
       <c r="I33" s="3">
-        <v>245600</v>
+        <v>133400</v>
       </c>
       <c r="J33" s="3">
+        <v>234100</v>
+      </c>
+      <c r="K33" s="3">
         <v>116800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>330500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>491000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>423500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>279700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>447400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>516300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1999,113 +2075,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1083000</v>
+        <v>-1599400</v>
       </c>
       <c r="E35" s="3">
-        <v>-684900</v>
+        <v>-1032300</v>
       </c>
       <c r="F35" s="3">
-        <v>-389600</v>
+        <v>-652800</v>
       </c>
       <c r="G35" s="3">
-        <v>-1194400</v>
+        <v>-371400</v>
       </c>
       <c r="H35" s="3">
-        <v>139900</v>
+        <v>-1138500</v>
       </c>
       <c r="I35" s="3">
-        <v>245600</v>
+        <v>133400</v>
       </c>
       <c r="J35" s="3">
+        <v>234100</v>
+      </c>
+      <c r="K35" s="3">
         <v>116800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>330500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>491000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>423500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>279700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>447400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>516300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42551</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42369</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42185</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2124,8 +2209,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2144,58 +2230,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3133200</v>
+        <v>3133000</v>
       </c>
       <c r="E41" s="3">
-        <v>3645800</v>
+        <v>2986700</v>
       </c>
       <c r="F41" s="3">
-        <v>3711900</v>
+        <v>3475300</v>
       </c>
       <c r="G41" s="3">
-        <v>2536500</v>
+        <v>3538300</v>
       </c>
       <c r="H41" s="3">
-        <v>270000</v>
+        <v>2417900</v>
       </c>
       <c r="I41" s="3">
-        <v>226200</v>
+        <v>257400</v>
       </c>
       <c r="J41" s="3">
+        <v>215600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1011700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>856200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1051100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>652100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>603000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>882500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>676700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1425500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2241700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2214,14 +2304,14 @@
       <c r="H42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="3">
-        <v>3700</v>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K42" s="3">
         <v>64300</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -2235,8 +2325,8 @@
       <c r="O42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2244,346 +2334,367 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1835900</v>
+        <v>1665500</v>
       </c>
       <c r="E43" s="3">
-        <v>1860600</v>
+        <v>1750000</v>
       </c>
       <c r="F43" s="3">
-        <v>1600100</v>
+        <v>1773500</v>
       </c>
       <c r="G43" s="3">
-        <v>1658200</v>
+        <v>1525200</v>
       </c>
       <c r="H43" s="3">
-        <v>1618700</v>
+        <v>1580600</v>
       </c>
       <c r="I43" s="3">
-        <v>1806400</v>
+        <v>1543000</v>
       </c>
       <c r="J43" s="3">
+        <v>1721900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1607200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1657100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1229200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1150000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>940200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1005700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>984400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1276600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1313700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>241200</v>
+        <v>265300</v>
       </c>
       <c r="E44" s="3">
-        <v>263000</v>
+        <v>230000</v>
       </c>
       <c r="F44" s="3">
-        <v>257000</v>
+        <v>250700</v>
       </c>
       <c r="G44" s="3">
-        <v>306500</v>
+        <v>245000</v>
       </c>
       <c r="H44" s="3">
-        <v>276400</v>
+        <v>292200</v>
       </c>
       <c r="I44" s="3">
-        <v>289000</v>
+        <v>263500</v>
       </c>
       <c r="J44" s="3">
+        <v>275500</v>
+      </c>
+      <c r="K44" s="3">
         <v>248100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>296600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>249800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>268100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>230600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>255100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>238300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>256500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>241600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>319200</v>
+        <v>229800</v>
       </c>
       <c r="E45" s="3">
-        <v>76100</v>
+        <v>304300</v>
       </c>
       <c r="F45" s="3">
-        <v>124000</v>
+        <v>72500</v>
       </c>
       <c r="G45" s="3">
-        <v>99700</v>
+        <v>118200</v>
       </c>
       <c r="H45" s="3">
-        <v>279100</v>
+        <v>95100</v>
       </c>
       <c r="I45" s="3">
-        <v>437900</v>
+        <v>266000</v>
       </c>
       <c r="J45" s="3">
+        <v>417500</v>
+      </c>
+      <c r="K45" s="3">
         <v>584000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>253200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>223700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>250300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>225100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>220500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>195000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>145100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>208400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5529600</v>
+        <v>5293600</v>
       </c>
       <c r="E46" s="3">
-        <v>5845400</v>
+        <v>5270900</v>
       </c>
       <c r="F46" s="3">
-        <v>5693000</v>
+        <v>5572000</v>
       </c>
       <c r="G46" s="3">
-        <v>4601000</v>
+        <v>5426700</v>
       </c>
       <c r="H46" s="3">
-        <v>2444300</v>
+        <v>4385800</v>
       </c>
       <c r="I46" s="3">
-        <v>2763200</v>
+        <v>2329900</v>
       </c>
       <c r="J46" s="3">
+        <v>2633900</v>
+      </c>
+      <c r="K46" s="3">
         <v>3515200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3063100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2753800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2320400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1998900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2363800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2094500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3103700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4005300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1110100</v>
+        <v>1061500</v>
       </c>
       <c r="E47" s="3">
-        <v>1035800</v>
+        <v>1058200</v>
       </c>
       <c r="F47" s="3">
-        <v>1011500</v>
+        <v>987300</v>
       </c>
       <c r="G47" s="3">
-        <v>1017200</v>
+        <v>964200</v>
       </c>
       <c r="H47" s="3">
-        <v>1176700</v>
+        <v>969700</v>
       </c>
       <c r="I47" s="3">
-        <v>1128100</v>
+        <v>1121700</v>
       </c>
       <c r="J47" s="3">
+        <v>1075300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1134700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>947500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>833500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>875000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>789900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>676500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>689800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>686700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>598000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38182800</v>
+        <v>35576200</v>
       </c>
       <c r="E48" s="3">
-        <v>38986100</v>
+        <v>36396900</v>
       </c>
       <c r="F48" s="3">
-        <v>39372300</v>
+        <v>37162600</v>
       </c>
       <c r="G48" s="3">
-        <v>39818000</v>
+        <v>37530800</v>
       </c>
       <c r="H48" s="3">
-        <v>40482600</v>
+        <v>37955700</v>
       </c>
       <c r="I48" s="3">
-        <v>39347300</v>
+        <v>38589200</v>
       </c>
       <c r="J48" s="3">
+        <v>37507000</v>
+      </c>
+      <c r="K48" s="3">
         <v>30444800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31190400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>29126700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27153400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25510500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23579600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24087400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23502400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22367100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>33000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>33000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>33000</v>
+      </c>
+      <c r="I49" s="3">
+        <v>33000</v>
+      </c>
+      <c r="J49" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K49" s="3">
         <v>34600</v>
       </c>
-      <c r="E49" s="3">
-        <v>34600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>34600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>34600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>34600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>34600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>34600</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>36500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26400</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -2594,8 +2705,11 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2644,8 +2758,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2694,58 +2811,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2341400</v>
+        <v>2776200</v>
       </c>
       <c r="E52" s="3">
-        <v>1862200</v>
+        <v>2231900</v>
       </c>
       <c r="F52" s="3">
-        <v>1550300</v>
+        <v>1775100</v>
       </c>
       <c r="G52" s="3">
-        <v>1226200</v>
+        <v>1477700</v>
       </c>
       <c r="H52" s="3">
-        <v>682500</v>
+        <v>1168900</v>
       </c>
       <c r="I52" s="3">
-        <v>602400</v>
+        <v>650600</v>
       </c>
       <c r="J52" s="3">
+        <v>574200</v>
+      </c>
+      <c r="K52" s="3">
         <v>932700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>961500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>927700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>790500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>784400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>779800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>730900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>634300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>615900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2794,58 +2917,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>47198500</v>
+        <v>44740600</v>
       </c>
       <c r="E54" s="3">
-        <v>47764100</v>
+        <v>44991000</v>
       </c>
       <c r="F54" s="3">
-        <v>47661700</v>
+        <v>45530100</v>
       </c>
       <c r="G54" s="3">
-        <v>46697000</v>
+        <v>45432500</v>
       </c>
       <c r="H54" s="3">
-        <v>44820700</v>
+        <v>44513000</v>
       </c>
       <c r="I54" s="3">
-        <v>43875600</v>
+        <v>42724400</v>
       </c>
       <c r="J54" s="3">
+        <v>41823500</v>
+      </c>
+      <c r="K54" s="3">
         <v>36062000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36199900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33678200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31167100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>29110200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>27399800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>27602600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>27927100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>27586300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2864,8 +2993,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2884,308 +3014,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>193900</v>
+        <v>245700</v>
       </c>
       <c r="E57" s="3">
-        <v>224000</v>
+        <v>184900</v>
       </c>
       <c r="F57" s="3">
-        <v>260200</v>
+        <v>213500</v>
       </c>
       <c r="G57" s="3">
-        <v>263000</v>
+        <v>248100</v>
       </c>
       <c r="H57" s="3">
-        <v>338400</v>
+        <v>250700</v>
       </c>
       <c r="I57" s="3">
-        <v>409600</v>
+        <v>322500</v>
       </c>
       <c r="J57" s="3">
+        <v>390500</v>
+      </c>
+      <c r="K57" s="3">
         <v>337200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>319000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>327200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>299000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>276400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>254400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>371000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>310300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>241000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11495200</v>
+        <v>12666500</v>
       </c>
       <c r="E58" s="3">
-        <v>10197400</v>
+        <v>10957500</v>
       </c>
       <c r="F58" s="3">
-        <v>8912100</v>
+        <v>9720500</v>
       </c>
       <c r="G58" s="3">
-        <v>10033000</v>
+        <v>8495200</v>
       </c>
       <c r="H58" s="3">
-        <v>8402700</v>
+        <v>9563700</v>
       </c>
       <c r="I58" s="3">
-        <v>8718600</v>
+        <v>8009700</v>
       </c>
       <c r="J58" s="3">
+        <v>8310800</v>
+      </c>
+      <c r="K58" s="3">
         <v>7052700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7699600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5529300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4578800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5147100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5443500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5404800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4074700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3922400</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4518800</v>
+        <v>4823000</v>
       </c>
       <c r="E59" s="3">
-        <v>4642300</v>
+        <v>4307400</v>
       </c>
       <c r="F59" s="3">
-        <v>4800000</v>
+        <v>4425200</v>
       </c>
       <c r="G59" s="3">
-        <v>3845800</v>
+        <v>4575500</v>
       </c>
       <c r="H59" s="3">
-        <v>5203300</v>
+        <v>3666000</v>
       </c>
       <c r="I59" s="3">
-        <v>4739800</v>
+        <v>4960000</v>
       </c>
       <c r="J59" s="3">
+        <v>4518200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4831000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4924800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4857000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4623100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4442300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3991600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3950200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3701800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3702400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16207900</v>
+        <v>17735200</v>
       </c>
       <c r="E60" s="3">
-        <v>15063700</v>
+        <v>15449800</v>
       </c>
       <c r="F60" s="3">
-        <v>13972300</v>
+        <v>14359200</v>
       </c>
       <c r="G60" s="3">
-        <v>14141800</v>
+        <v>13318800</v>
       </c>
       <c r="H60" s="3">
-        <v>13944400</v>
+        <v>13480400</v>
       </c>
       <c r="I60" s="3">
-        <v>13868000</v>
+        <v>13292200</v>
       </c>
       <c r="J60" s="3">
+        <v>13219400</v>
+      </c>
+      <c r="K60" s="3">
         <v>12220800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12943400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10713500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9500900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9865800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9689500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9726000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8086900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7865700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17567100</v>
+        <v>15897200</v>
       </c>
       <c r="E61" s="3">
-        <v>18134600</v>
+        <v>16745500</v>
       </c>
       <c r="F61" s="3">
-        <v>20213000</v>
+        <v>17286400</v>
       </c>
       <c r="G61" s="3">
-        <v>19385000</v>
+        <v>19267600</v>
       </c>
       <c r="H61" s="3">
-        <v>18649900</v>
+        <v>18478400</v>
       </c>
       <c r="I61" s="3">
-        <v>17893600</v>
+        <v>17777600</v>
       </c>
       <c r="J61" s="3">
+        <v>17056700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2289200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11935300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12364900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>11967400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10498000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9369000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9690000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>11690700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12504800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1082800</v>
+        <v>1134800</v>
       </c>
       <c r="E62" s="3">
-        <v>1089100</v>
+        <v>1032200</v>
       </c>
       <c r="F62" s="3">
-        <v>1044700</v>
+        <v>1038200</v>
       </c>
       <c r="G62" s="3">
-        <v>992900</v>
+        <v>995800</v>
       </c>
       <c r="H62" s="3">
-        <v>934000</v>
+        <v>946400</v>
       </c>
       <c r="I62" s="3">
-        <v>1005300</v>
+        <v>890300</v>
       </c>
       <c r="J62" s="3">
+        <v>958300</v>
+      </c>
+      <c r="K62" s="3">
         <v>10093200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1091500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>969500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>905400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>762300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>804600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>821900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>829000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>745200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3234,8 +3383,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3284,8 +3436,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3334,58 +3489,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37290200</v>
+        <v>36893000</v>
       </c>
       <c r="E66" s="3">
-        <v>36769900</v>
+        <v>35546100</v>
       </c>
       <c r="F66" s="3">
-        <v>37500400</v>
+        <v>35050100</v>
       </c>
       <c r="G66" s="3">
-        <v>36239400</v>
+        <v>35746400</v>
       </c>
       <c r="H66" s="3">
-        <v>35459300</v>
+        <v>34544400</v>
       </c>
       <c r="I66" s="3">
-        <v>34647200</v>
+        <v>33800800</v>
       </c>
       <c r="J66" s="3">
+        <v>33026700</v>
+      </c>
+      <c r="K66" s="3">
         <v>26532500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28026700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25989100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24237800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22799100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21477100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21808000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22162500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22387500</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3404,8 +3565,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3454,8 +3616,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3504,8 +3669,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3554,8 +3722,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3604,58 +3775,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>492000</v>
+        <v>-1128200</v>
       </c>
       <c r="E72" s="3">
-        <v>1574900</v>
+        <v>469000</v>
       </c>
       <c r="F72" s="3">
-        <v>2259800</v>
+        <v>1501300</v>
       </c>
       <c r="G72" s="3">
-        <v>2545900</v>
+        <v>2154100</v>
       </c>
       <c r="H72" s="3">
-        <v>3764100</v>
+        <v>2426800</v>
       </c>
       <c r="I72" s="3">
-        <v>3625300</v>
+        <v>3588000</v>
       </c>
       <c r="J72" s="3">
+        <v>3455800</v>
+      </c>
+      <c r="K72" s="3">
         <v>3920200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4108500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>3755700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>3239100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2802600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2492800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2232200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2201700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1709500</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3704,8 +3881,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3754,8 +3934,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3804,58 +3987,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9908300</v>
+        <v>7847500</v>
       </c>
       <c r="E76" s="3">
-        <v>10994200</v>
+        <v>9444900</v>
       </c>
       <c r="F76" s="3">
-        <v>10161400</v>
+        <v>10480000</v>
       </c>
       <c r="G76" s="3">
-        <v>10457600</v>
+        <v>9686100</v>
       </c>
       <c r="H76" s="3">
-        <v>9361400</v>
+        <v>9968500</v>
       </c>
       <c r="I76" s="3">
-        <v>9228400</v>
+        <v>8923600</v>
       </c>
       <c r="J76" s="3">
+        <v>8796700</v>
+      </c>
+      <c r="K76" s="3">
         <v>9529500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8173200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7689100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6929300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6311100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5922700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5794700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5764500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5198800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3904,113 +4093,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42551</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42369</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42185</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1083000</v>
+        <v>-1599400</v>
       </c>
       <c r="E81" s="3">
-        <v>-684900</v>
+        <v>-1032300</v>
       </c>
       <c r="F81" s="3">
-        <v>-389600</v>
+        <v>-652800</v>
       </c>
       <c r="G81" s="3">
-        <v>-1194400</v>
+        <v>-371400</v>
       </c>
       <c r="H81" s="3">
-        <v>139900</v>
+        <v>-1138500</v>
       </c>
       <c r="I81" s="3">
-        <v>245600</v>
+        <v>133400</v>
       </c>
       <c r="J81" s="3">
+        <v>234100</v>
+      </c>
+      <c r="K81" s="3">
         <v>116800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>330500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>491000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>423500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>279700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>447400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>516300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>412100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4029,8 +4227,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4079,8 +4278,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4129,8 +4331,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4179,8 +4384,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4229,8 +4437,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4279,8 +4490,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4329,58 +4543,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>401300</v>
+        <v>230200</v>
       </c>
       <c r="E89" s="3">
-        <v>721400</v>
+        <v>382500</v>
       </c>
       <c r="F89" s="3">
-        <v>1537700</v>
+        <v>687600</v>
       </c>
       <c r="G89" s="3">
-        <v>-1143700</v>
+        <v>1465800</v>
       </c>
       <c r="H89" s="3">
-        <v>3093100</v>
+        <v>-1090200</v>
       </c>
       <c r="I89" s="3">
-        <v>1459400</v>
+        <v>2948400</v>
       </c>
       <c r="J89" s="3">
+        <v>1391200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1171900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1161600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1634200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1087600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2273000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1164100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2055300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1467000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1576600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4399,58 +4619,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1441800</v>
+        <v>-739600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1060800</v>
+        <v>-1374300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1179000</v>
+        <v>-1011100</v>
       </c>
       <c r="G91" s="3">
-        <v>-436200</v>
+        <v>-1123900</v>
       </c>
       <c r="H91" s="3">
-        <v>-699000</v>
+        <v>-415800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1582200</v>
+        <v>-666400</v>
       </c>
       <c r="J91" s="3">
+        <v>-1508200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2128700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1491800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1294800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-830700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2249500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-499000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1157600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-644000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-355100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4499,8 +4723,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4549,58 +4776,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1370300</v>
+        <v>-279800</v>
       </c>
       <c r="E94" s="3">
-        <v>-939800</v>
+        <v>-1306300</v>
       </c>
       <c r="F94" s="3">
-        <v>-719500</v>
+        <v>-895900</v>
       </c>
       <c r="G94" s="3">
-        <v>-455900</v>
+        <v>-685800</v>
       </c>
       <c r="H94" s="3">
-        <v>-645600</v>
+        <v>-434600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1461200</v>
+        <v>-615400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1392800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2008800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1066600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-817300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-447300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2108300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-176900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-454700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-573900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-178600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4619,8 +4852,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4649,28 +4883,31 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-151200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-48700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-64600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4719,8 +4956,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4769,8 +5009,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4819,154 +5062,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>458100</v>
+        <v>190800</v>
       </c>
       <c r="E100" s="3">
-        <v>153200</v>
+        <v>436700</v>
       </c>
       <c r="F100" s="3">
-        <v>361700</v>
+        <v>146000</v>
       </c>
       <c r="G100" s="3">
-        <v>3865100</v>
+        <v>344800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2404400</v>
+        <v>3684300</v>
       </c>
       <c r="I100" s="3">
-        <v>-783900</v>
+        <v>-2291900</v>
       </c>
       <c r="J100" s="3">
+        <v>-747200</v>
+      </c>
+      <c r="K100" s="3">
         <v>1054900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-316200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-419900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-621700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-457600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-761600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2357000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1753200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-898500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1600</v>
+        <v>5000</v>
       </c>
       <c r="E101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L101" s="3">
+        <v>500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H101" s="3">
-        <v>700</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>500</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-900</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4100</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-512600</v>
+        <v>146300</v>
       </c>
       <c r="E102" s="3">
-        <v>-66200</v>
+        <v>-488600</v>
       </c>
       <c r="F102" s="3">
-        <v>1175400</v>
+        <v>-63100</v>
       </c>
       <c r="G102" s="3">
-        <v>2266500</v>
+        <v>1120400</v>
       </c>
       <c r="H102" s="3">
-        <v>43800</v>
+        <v>2160500</v>
       </c>
       <c r="I102" s="3">
-        <v>-785500</v>
+        <v>41800</v>
       </c>
       <c r="J102" s="3">
+        <v>-748800</v>
+      </c>
+      <c r="K102" s="3">
         <v>219200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-220700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>393900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>17700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-290300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>228300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-748700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-862100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>495500</v>
       </c>
     </row>
